--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_100ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_100ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -7352,28 +7352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2203.818266738094</v>
+        <v>2324.600075020292</v>
       </c>
       <c r="AB2" t="n">
-        <v>3015.361378151323</v>
+        <v>3180.620376760349</v>
       </c>
       <c r="AC2" t="n">
-        <v>2727.579520306721</v>
+        <v>2877.066432030956</v>
       </c>
       <c r="AD2" t="n">
-        <v>2203818.266738094</v>
+        <v>2324600.075020292</v>
       </c>
       <c r="AE2" t="n">
-        <v>3015361.378151323</v>
+        <v>3180620.376760349</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.132938464006888e-06</v>
+        <v>1.633317067058335e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.825</v>
       </c>
       <c r="AH2" t="n">
-        <v>2727579.520306721</v>
+        <v>2877066.432030956</v>
       </c>
     </row>
     <row r="3">
@@ -7458,28 +7458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>785.6594983010684</v>
+        <v>846.0078215234324</v>
       </c>
       <c r="AB3" t="n">
-        <v>1074.973986426348</v>
+        <v>1157.545224639305</v>
       </c>
       <c r="AC3" t="n">
-        <v>972.3799778972819</v>
+        <v>1047.070733024656</v>
       </c>
       <c r="AD3" t="n">
-        <v>785659.4983010684</v>
+        <v>846007.8215234324</v>
       </c>
       <c r="AE3" t="n">
-        <v>1074973.986426348</v>
+        <v>1157545.224639305</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.104820520047821e-06</v>
+        <v>3.034444842070263e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.43958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>972379.977897282</v>
+        <v>1047070.733024655</v>
       </c>
     </row>
     <row r="4">
@@ -7564,28 +7564,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>617.0139496076979</v>
+        <v>668.7289050345782</v>
       </c>
       <c r="AB4" t="n">
-        <v>844.2257065875666</v>
+        <v>914.9843901054375</v>
       </c>
       <c r="AC4" t="n">
-        <v>763.6539900290696</v>
+        <v>827.6595641024307</v>
       </c>
       <c r="AD4" t="n">
-        <v>617013.9496076979</v>
+        <v>668728.9050345783</v>
       </c>
       <c r="AE4" t="n">
-        <v>844225.7065875666</v>
+        <v>914984.3901054375</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.457569065755863e-06</v>
+        <v>3.54298986758495e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.36666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>763653.9900290696</v>
+        <v>827659.5641024307</v>
       </c>
     </row>
     <row r="5">
@@ -7670,28 +7670,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>548.7698322026747</v>
+        <v>600.3994467749834</v>
       </c>
       <c r="AB5" t="n">
-        <v>750.8510944360399</v>
+        <v>821.4930108317129</v>
       </c>
       <c r="AC5" t="n">
-        <v>679.1909198091932</v>
+        <v>743.0908708506157</v>
       </c>
       <c r="AD5" t="n">
-        <v>548769.8322026747</v>
+        <v>600399.4467749834</v>
       </c>
       <c r="AE5" t="n">
-        <v>750851.0944360399</v>
+        <v>821493.010831713</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.646781168230359e-06</v>
+        <v>3.815770222461934e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.48333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>679190.9198091932</v>
+        <v>743090.8708506157</v>
       </c>
     </row>
     <row r="6">
@@ -7776,28 +7776,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>517.6650446108783</v>
+        <v>560.8319730968468</v>
       </c>
       <c r="AB6" t="n">
-        <v>708.292151806564</v>
+        <v>767.3550477515457</v>
       </c>
       <c r="AC6" t="n">
-        <v>640.6937429324232</v>
+        <v>694.1197589837111</v>
       </c>
       <c r="AD6" t="n">
-        <v>517665.0446108783</v>
+        <v>560831.9730968468</v>
       </c>
       <c r="AE6" t="n">
-        <v>708292.151806564</v>
+        <v>767355.0477515457</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.761446328249598e-06</v>
+        <v>3.981078903212366e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.00625</v>
       </c>
       <c r="AH6" t="n">
-        <v>640693.7429324233</v>
+        <v>694119.7589837111</v>
       </c>
     </row>
     <row r="7">
@@ -7882,28 +7882,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>488.7995288860614</v>
+        <v>540.5143948043907</v>
       </c>
       <c r="AB7" t="n">
-        <v>668.7970797351916</v>
+        <v>739.555640783514</v>
       </c>
       <c r="AC7" t="n">
-        <v>604.9680251078611</v>
+        <v>668.9734883999956</v>
       </c>
       <c r="AD7" t="n">
-        <v>488799.5288860614</v>
+        <v>540514.3948043907</v>
       </c>
       <c r="AE7" t="n">
-        <v>668797.0797351915</v>
+        <v>739555.640783514</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.840369803530016e-06</v>
+        <v>4.094860068970615e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="AH7" t="n">
-        <v>604968.025107861</v>
+        <v>668973.4883999956</v>
       </c>
     </row>
     <row r="8">
@@ -7988,28 +7988,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>474.0459885389361</v>
+        <v>517.127576170333</v>
       </c>
       <c r="AB8" t="n">
-        <v>648.6106349519916</v>
+        <v>707.5567637747757</v>
       </c>
       <c r="AC8" t="n">
-        <v>586.7081462829165</v>
+        <v>640.0285393022652</v>
       </c>
       <c r="AD8" t="n">
-        <v>474045.9885389361</v>
+        <v>517127.576170333</v>
       </c>
       <c r="AE8" t="n">
-        <v>648610.6349519916</v>
+        <v>707556.7637747758</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.899890649952217e-06</v>
+        <v>4.180669155161678e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.48125</v>
       </c>
       <c r="AH8" t="n">
-        <v>586708.1462829164</v>
+        <v>640028.5393022653</v>
       </c>
     </row>
     <row r="9">
@@ -8094,28 +8094,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>463.3246021461915</v>
+        <v>506.4061897775884</v>
       </c>
       <c r="AB9" t="n">
-        <v>633.9411610952531</v>
+        <v>692.8872899180373</v>
       </c>
       <c r="AC9" t="n">
-        <v>573.4387064223292</v>
+        <v>626.759099441678</v>
       </c>
       <c r="AD9" t="n">
-        <v>463324.6021461915</v>
+        <v>506406.1897775884</v>
       </c>
       <c r="AE9" t="n">
-        <v>633941.1610952531</v>
+        <v>692887.2899180372</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.943364209348824e-06</v>
+        <v>4.243343438703191e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.325</v>
       </c>
       <c r="AH9" t="n">
-        <v>573438.7064223292</v>
+        <v>626759.099441678</v>
       </c>
     </row>
     <row r="10">
@@ -8200,28 +8200,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>455.6942433277823</v>
+        <v>498.7758309591791</v>
       </c>
       <c r="AB10" t="n">
-        <v>623.5009675322325</v>
+        <v>682.4470963550166</v>
       </c>
       <c r="AC10" t="n">
-        <v>563.9949102800596</v>
+        <v>617.3153032994084</v>
       </c>
       <c r="AD10" t="n">
-        <v>455694.2433277823</v>
+        <v>498775.8309591791</v>
       </c>
       <c r="AE10" t="n">
-        <v>623500.9675322325</v>
+        <v>682447.0963550166</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.974145823552462e-06</v>
+        <v>4.287720196512785e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.21875</v>
       </c>
       <c r="AH10" t="n">
-        <v>563994.9102800596</v>
+        <v>617315.3032994084</v>
       </c>
     </row>
     <row r="11">
@@ -8306,28 +8306,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>449.5107687976227</v>
+        <v>492.5923564290197</v>
       </c>
       <c r="AB11" t="n">
-        <v>615.0404648844249</v>
+        <v>673.986593707209</v>
       </c>
       <c r="AC11" t="n">
-        <v>556.3418661305686</v>
+        <v>609.6622591499176</v>
       </c>
       <c r="AD11" t="n">
-        <v>449510.7687976228</v>
+        <v>492592.3564290197</v>
       </c>
       <c r="AE11" t="n">
-        <v>615040.4648844248</v>
+        <v>673986.593707209</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.998800291800874e-06</v>
+        <v>4.323263666038005e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.13541666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>556341.8661305687</v>
+        <v>609662.2591499176</v>
       </c>
     </row>
     <row r="12">
@@ -8412,28 +8412,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>442.1674022244067</v>
+        <v>485.2489898558035</v>
       </c>
       <c r="AB12" t="n">
-        <v>604.9929467724818</v>
+        <v>663.939075595266</v>
       </c>
       <c r="AC12" t="n">
-        <v>547.2532690454492</v>
+        <v>600.5736620647982</v>
       </c>
       <c r="AD12" t="n">
-        <v>442167.4022244067</v>
+        <v>485248.9898558035</v>
       </c>
       <c r="AE12" t="n">
-        <v>604992.9467724818</v>
+        <v>663939.075595266</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.026664217454404e-06</v>
+        <v>4.363434096093135e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.04166666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>547253.2690454492</v>
+        <v>600573.6620647982</v>
       </c>
     </row>
     <row r="13">
@@ -8518,28 +8518,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>429.6193502621889</v>
+        <v>481.2488753259466</v>
       </c>
       <c r="AB13" t="n">
-        <v>587.8241484967928</v>
+        <v>658.4659424229175</v>
       </c>
       <c r="AC13" t="n">
-        <v>531.7230367806321</v>
+        <v>595.6228770408279</v>
       </c>
       <c r="AD13" t="n">
-        <v>429619.3502621889</v>
+        <v>481248.8753259467</v>
       </c>
       <c r="AE13" t="n">
-        <v>587824.1484967928</v>
+        <v>658465.9424229175</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.042127966769976e-06</v>
+        <v>4.385727633191794e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9.991666666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>531723.0367806321</v>
+        <v>595622.8770408279</v>
       </c>
     </row>
     <row r="14">
@@ -8624,28 +8624,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>424.990759633806</v>
+        <v>476.6202846975638</v>
       </c>
       <c r="AB14" t="n">
-        <v>581.4911066000324</v>
+        <v>652.1329005261571</v>
       </c>
       <c r="AC14" t="n">
-        <v>525.9944115140185</v>
+        <v>589.8942517742142</v>
       </c>
       <c r="AD14" t="n">
-        <v>424990.759633806</v>
+        <v>476620.2846975637</v>
       </c>
       <c r="AE14" t="n">
-        <v>581491.1066000324</v>
+        <v>652132.9005261571</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.058467022650579e-06</v>
+        <v>4.409283068616791e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>9.9375</v>
       </c>
       <c r="AH14" t="n">
-        <v>525994.4115140184</v>
+        <v>589894.2517742142</v>
       </c>
     </row>
     <row r="15">
@@ -8730,28 +8730,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>420.3633592727434</v>
+        <v>463.5301982501608</v>
       </c>
       <c r="AB15" t="n">
-        <v>575.1596932795305</v>
+        <v>634.2224667549639</v>
       </c>
       <c r="AC15" t="n">
-        <v>520.2672593946307</v>
+        <v>573.6931646646921</v>
       </c>
       <c r="AD15" t="n">
-        <v>420363.3592727433</v>
+        <v>463530.1982501608</v>
       </c>
       <c r="AE15" t="n">
-        <v>575159.6932795305</v>
+        <v>634222.4667549639</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.075097847386194e-06</v>
+        <v>4.433259136817236e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>10</v>
+        <v>9.883333333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>520267.2593946308</v>
+        <v>573693.164664692</v>
       </c>
     </row>
     <row r="16">
@@ -8836,28 +8836,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>417.1370565096626</v>
+        <v>460.30389548708</v>
       </c>
       <c r="AB16" t="n">
-        <v>570.7453235046509</v>
+        <v>629.8080969800842</v>
       </c>
       <c r="AC16" t="n">
-        <v>516.2741908754589</v>
+        <v>569.7000961455201</v>
       </c>
       <c r="AD16" t="n">
-        <v>417137.0565096625</v>
+        <v>460303.89548708</v>
       </c>
       <c r="AE16" t="n">
-        <v>570745.3235046508</v>
+        <v>629808.0969800842</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.085601526166583e-06</v>
+        <v>4.448401916733306e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>9.85</v>
       </c>
       <c r="AH16" t="n">
-        <v>516274.1908754589</v>
+        <v>569700.0961455201</v>
       </c>
     </row>
     <row r="17">
@@ -8942,28 +8942,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>413.3789141105544</v>
+        <v>456.5457530879718</v>
       </c>
       <c r="AB17" t="n">
-        <v>565.6032672766498</v>
+        <v>624.6660407520832</v>
       </c>
       <c r="AC17" t="n">
-        <v>511.622885276937</v>
+        <v>565.0487905469982</v>
       </c>
       <c r="AD17" t="n">
-        <v>413378.9141105544</v>
+        <v>456545.7530879718</v>
       </c>
       <c r="AE17" t="n">
-        <v>565603.2672766498</v>
+        <v>624666.0407520832</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.096396973801982e-06</v>
+        <v>4.463965329424822e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>10</v>
+        <v>9.814583333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>511622.885276937</v>
+        <v>565048.7905469983</v>
       </c>
     </row>
     <row r="18">
@@ -9048,28 +9048,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>408.9519455045299</v>
+        <v>452.1187844819474</v>
       </c>
       <c r="AB18" t="n">
-        <v>559.546093525816</v>
+        <v>618.6088670012495</v>
       </c>
       <c r="AC18" t="n">
-        <v>506.143799687586</v>
+        <v>559.5697049576472</v>
       </c>
       <c r="AD18" t="n">
-        <v>408951.9455045299</v>
+        <v>452118.7844819474</v>
       </c>
       <c r="AE18" t="n">
-        <v>559546.093525816</v>
+        <v>618608.8670012495</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.109672456704973e-06</v>
+        <v>4.483104120707633e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>10</v>
+        <v>9.772916666666665</v>
       </c>
       <c r="AH18" t="n">
-        <v>506143.799687586</v>
+        <v>559569.7049576472</v>
       </c>
     </row>
     <row r="19">
@@ -9154,28 +9154,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>407.2210353147022</v>
+        <v>450.3878742921197</v>
       </c>
       <c r="AB19" t="n">
-        <v>557.1777858417257</v>
+        <v>616.2405593171591</v>
       </c>
       <c r="AC19" t="n">
-        <v>504.0015199649246</v>
+        <v>557.4274252349858</v>
       </c>
       <c r="AD19" t="n">
-        <v>407221.0353147023</v>
+        <v>450387.8742921197</v>
       </c>
       <c r="AE19" t="n">
-        <v>557177.7858417258</v>
+        <v>616240.5593171591</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.114048989530135e-06</v>
+        <v>4.489413612339329e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>10</v>
+        <v>9.760416666666666</v>
       </c>
       <c r="AH19" t="n">
-        <v>504001.5199649245</v>
+        <v>557427.4252349858</v>
       </c>
     </row>
     <row r="20">
@@ -9260,28 +9260,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>404.2124771595642</v>
+        <v>447.3793161369816</v>
       </c>
       <c r="AB20" t="n">
-        <v>553.0613438456476</v>
+        <v>612.1241173210809</v>
       </c>
       <c r="AC20" t="n">
-        <v>500.2779454154894</v>
+        <v>553.7038506855507</v>
       </c>
       <c r="AD20" t="n">
-        <v>404212.4771595642</v>
+        <v>447379.3161369817</v>
       </c>
       <c r="AE20" t="n">
-        <v>553061.3438456475</v>
+        <v>612124.1173210809</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.118863175637813e-06</v>
+        <v>4.496354053134195e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>10</v>
+        <v>9.74375</v>
       </c>
       <c r="AH20" t="n">
-        <v>500277.9454154894</v>
+        <v>553703.8506855507</v>
       </c>
     </row>
     <row r="21">
@@ -9366,28 +9366,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>401.6472916327999</v>
+        <v>444.8141306102173</v>
       </c>
       <c r="AB21" t="n">
-        <v>549.5515438399301</v>
+        <v>608.6143173153635</v>
       </c>
       <c r="AC21" t="n">
-        <v>497.1031157962823</v>
+        <v>550.5290210663436</v>
       </c>
       <c r="AD21" t="n">
-        <v>401647.2916327998</v>
+        <v>444814.1306102173</v>
       </c>
       <c r="AE21" t="n">
-        <v>549551.5438399301</v>
+        <v>608614.3173153634</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.124844437165534e-06</v>
+        <v>4.504977025030846e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>10</v>
+        <v>9.725</v>
       </c>
       <c r="AH21" t="n">
-        <v>497103.1157962824</v>
+        <v>550529.0210663436</v>
       </c>
     </row>
     <row r="22">
@@ -9472,28 +9472,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>397.5608499454213</v>
+        <v>440.7276889228388</v>
       </c>
       <c r="AB22" t="n">
-        <v>543.9602940421752</v>
+        <v>603.0230675176085</v>
       </c>
       <c r="AC22" t="n">
-        <v>492.0454870318568</v>
+        <v>545.4713923019181</v>
       </c>
       <c r="AD22" t="n">
-        <v>397560.8499454213</v>
+        <v>440727.6889228388</v>
       </c>
       <c r="AE22" t="n">
-        <v>543960.2940421752</v>
+        <v>603023.0675176085</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.136661075793471e-06</v>
+        <v>4.522012652436425e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>10</v>
+        <v>9.689583333333333</v>
       </c>
       <c r="AH22" t="n">
-        <v>492045.4870318568</v>
+        <v>545471.392301918</v>
       </c>
     </row>
     <row r="23">
@@ -9578,28 +9578,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>395.1358644673521</v>
+        <v>438.3027034447695</v>
       </c>
       <c r="AB23" t="n">
-        <v>540.6423219282719</v>
+        <v>599.7050954037055</v>
       </c>
       <c r="AC23" t="n">
-        <v>489.0441775197015</v>
+        <v>542.4700827897627</v>
       </c>
       <c r="AD23" t="n">
-        <v>395135.864467352</v>
+        <v>438302.7034447695</v>
       </c>
       <c r="AE23" t="n">
-        <v>540642.3219282719</v>
+        <v>599705.0954037055</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.142934106176203e-06</v>
+        <v>4.531056257108522e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>10</v>
+        <v>9.670833333333334</v>
       </c>
       <c r="AH23" t="n">
-        <v>489044.1775197015</v>
+        <v>542470.0827897628</v>
       </c>
     </row>
     <row r="24">
@@ -9684,28 +9684,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>393.6364684635264</v>
+        <v>436.8033074409439</v>
       </c>
       <c r="AB24" t="n">
-        <v>538.5907821671544</v>
+        <v>597.6535556425878</v>
       </c>
       <c r="AC24" t="n">
-        <v>487.1884338340309</v>
+        <v>540.6143391040921</v>
       </c>
       <c r="AD24" t="n">
-        <v>393636.4684635264</v>
+        <v>436803.3074409438</v>
       </c>
       <c r="AE24" t="n">
-        <v>538590.7821671545</v>
+        <v>597653.5556425878</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.142642337321192e-06</v>
+        <v>4.530635624333075e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>10</v>
+        <v>9.670833333333334</v>
       </c>
       <c r="AH24" t="n">
-        <v>487188.4338340309</v>
+        <v>540614.3391040921</v>
       </c>
     </row>
     <row r="25">
@@ -9790,28 +9790,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>390.0137425030352</v>
+        <v>433.1805814804526</v>
       </c>
       <c r="AB25" t="n">
-        <v>533.6340086846209</v>
+        <v>592.6967821600542</v>
       </c>
       <c r="AC25" t="n">
-        <v>482.7047278557949</v>
+        <v>536.1306331258562</v>
       </c>
       <c r="AD25" t="n">
-        <v>390013.7425030352</v>
+        <v>433180.5814804526</v>
       </c>
       <c r="AE25" t="n">
-        <v>533634.0086846208</v>
+        <v>592696.7821600542</v>
       </c>
       <c r="AF25" t="n">
-        <v>3.148915367703924e-06</v>
+        <v>4.539679229005173e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>10</v>
+        <v>9.652083333333332</v>
       </c>
       <c r="AH25" t="n">
-        <v>482704.7278557949</v>
+        <v>536130.6331258562</v>
       </c>
     </row>
     <row r="26">
@@ -9896,28 +9896,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>388.7487396074566</v>
+        <v>431.915578584874</v>
       </c>
       <c r="AB26" t="n">
-        <v>531.9031759149012</v>
+        <v>590.9659493903346</v>
       </c>
       <c r="AC26" t="n">
-        <v>481.1390833363783</v>
+        <v>534.5649886064396</v>
       </c>
       <c r="AD26" t="n">
-        <v>388748.7396074565</v>
+        <v>431915.578584874</v>
       </c>
       <c r="AE26" t="n">
-        <v>531903.1759149012</v>
+        <v>590965.9493903345</v>
       </c>
       <c r="AF26" t="n">
-        <v>3.152708362819064e-06</v>
+        <v>4.545147455085975e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>10</v>
+        <v>9.639583333333334</v>
       </c>
       <c r="AH26" t="n">
-        <v>481139.0833363783</v>
+        <v>534564.9886064396</v>
       </c>
     </row>
     <row r="27">
@@ -10002,28 +10002,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>385.3603777966313</v>
+        <v>428.5272167740487</v>
       </c>
       <c r="AB27" t="n">
-        <v>527.267069801357</v>
+        <v>586.3298432767905</v>
       </c>
       <c r="AC27" t="n">
-        <v>476.945440683495</v>
+        <v>530.3713459535562</v>
       </c>
       <c r="AD27" t="n">
-        <v>385360.3777966313</v>
+        <v>428527.2167740487</v>
       </c>
       <c r="AE27" t="n">
-        <v>527267.069801357</v>
+        <v>586329.8432767905</v>
       </c>
       <c r="AF27" t="n">
-        <v>3.158981393201796e-06</v>
+        <v>4.554191059758074e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>10</v>
+        <v>9.620833333333334</v>
       </c>
       <c r="AH27" t="n">
-        <v>476945.440683495</v>
+        <v>530371.3459535562</v>
       </c>
     </row>
     <row r="28">
@@ -10108,28 +10108,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>384.3358526156698</v>
+        <v>427.5026915930873</v>
       </c>
       <c r="AB28" t="n">
-        <v>525.8652692499045</v>
+        <v>584.9280427253379</v>
       </c>
       <c r="AC28" t="n">
-        <v>475.6774260092337</v>
+        <v>529.1033312792949</v>
       </c>
       <c r="AD28" t="n">
-        <v>384335.8526156698</v>
+        <v>427502.6915930873</v>
       </c>
       <c r="AE28" t="n">
-        <v>525865.2692499044</v>
+        <v>584928.0427253379</v>
       </c>
       <c r="AF28" t="n">
-        <v>3.159273162056807e-06</v>
+        <v>4.55461169253352e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>10</v>
+        <v>9.620833333333334</v>
       </c>
       <c r="AH28" t="n">
-        <v>475677.4260092337</v>
+        <v>529103.3312792949</v>
       </c>
     </row>
     <row r="29">
@@ -10214,28 +10214,28 @@
         <v>10</v>
       </c>
       <c r="AA29" t="n">
-        <v>382.1484937001612</v>
+        <v>425.3153326775786</v>
       </c>
       <c r="AB29" t="n">
-        <v>522.8724282822408</v>
+        <v>581.9352017576741</v>
       </c>
       <c r="AC29" t="n">
-        <v>472.9702175830451</v>
+        <v>526.3961228531064</v>
       </c>
       <c r="AD29" t="n">
-        <v>382148.4937001612</v>
+        <v>425315.3326775786</v>
       </c>
       <c r="AE29" t="n">
-        <v>522872.4282822408</v>
+        <v>581935.2017576741</v>
       </c>
       <c r="AF29" t="n">
-        <v>3.165400308012033e-06</v>
+        <v>4.563444980817894e-06</v>
       </c>
       <c r="AG29" t="n">
-        <v>10</v>
+        <v>9.602083333333335</v>
       </c>
       <c r="AH29" t="n">
-        <v>472970.2175830451</v>
+        <v>526396.1228531064</v>
       </c>
     </row>
     <row r="30">
@@ -10320,28 +10320,28 @@
         <v>10</v>
       </c>
       <c r="AA30" t="n">
-        <v>383.8773812079968</v>
+        <v>427.0442201854142</v>
       </c>
       <c r="AB30" t="n">
-        <v>525.2379684435954</v>
+        <v>584.3007419190287</v>
       </c>
       <c r="AC30" t="n">
-        <v>475.1099939114564</v>
+        <v>528.5358991815176</v>
       </c>
       <c r="AD30" t="n">
-        <v>383877.3812079968</v>
+        <v>427044.2201854142</v>
       </c>
       <c r="AE30" t="n">
-        <v>525237.9684435953</v>
+        <v>584300.7419190287</v>
       </c>
       <c r="AF30" t="n">
-        <v>3.164525001447001e-06</v>
+        <v>4.562183082491555e-06</v>
       </c>
       <c r="AG30" t="n">
-        <v>10</v>
+        <v>9.604166666666666</v>
       </c>
       <c r="AH30" t="n">
-        <v>475109.9939114564</v>
+        <v>528535.8991815177</v>
       </c>
     </row>
     <row r="31">
@@ -10426,28 +10426,28 @@
         <v>10</v>
       </c>
       <c r="AA31" t="n">
-        <v>385.2071776555965</v>
+        <v>428.374016633014</v>
       </c>
       <c r="AB31" t="n">
-        <v>527.0574546096799</v>
+        <v>586.1202280851134</v>
       </c>
       <c r="AC31" t="n">
-        <v>476.7558308715148</v>
+        <v>530.181736141576</v>
       </c>
       <c r="AD31" t="n">
-        <v>385207.1776555965</v>
+        <v>428374.016633014</v>
       </c>
       <c r="AE31" t="n">
-        <v>527057.4546096799</v>
+        <v>586120.2280851133</v>
       </c>
       <c r="AF31" t="n">
-        <v>3.164962654729518e-06</v>
+        <v>4.562814031654725e-06</v>
       </c>
       <c r="AG31" t="n">
-        <v>10</v>
+        <v>9.602083333333335</v>
       </c>
       <c r="AH31" t="n">
-        <v>476755.8308715148</v>
+        <v>530181.7361415761</v>
       </c>
     </row>
   </sheetData>
@@ -10723,28 +10723,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1364.537830229128</v>
+        <v>1456.958897133569</v>
       </c>
       <c r="AB2" t="n">
-        <v>1867.020858479918</v>
+        <v>1993.475439548283</v>
       </c>
       <c r="AC2" t="n">
-        <v>1688.835008126827</v>
+        <v>1803.220941458146</v>
       </c>
       <c r="AD2" t="n">
-        <v>1364537.830229128</v>
+        <v>1456958.897133569</v>
       </c>
       <c r="AE2" t="n">
-        <v>1867020.858479918</v>
+        <v>1993475.439548283</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.485913020629409e-06</v>
+        <v>2.175320763709572e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.15833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1688835.008126827</v>
+        <v>1803220.941458146</v>
       </c>
     </row>
     <row r="3">
@@ -10829,28 +10829,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>628.9243762185803</v>
+        <v>687.6757489030093</v>
       </c>
       <c r="AB3" t="n">
-        <v>860.5220777275136</v>
+        <v>940.9082977619831</v>
       </c>
       <c r="AC3" t="n">
-        <v>778.3950583795204</v>
+        <v>851.1093303966685</v>
       </c>
       <c r="AD3" t="n">
-        <v>628924.3762185803</v>
+        <v>687675.7489030093</v>
       </c>
       <c r="AE3" t="n">
-        <v>860522.0777275136</v>
+        <v>940908.2977619831</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.37767211456595e-06</v>
+        <v>3.480822530189346e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.22291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>778395.0583795204</v>
+        <v>851109.3303966685</v>
       </c>
     </row>
     <row r="4">
@@ -10935,28 +10935,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>511.0211822774688</v>
+        <v>561.525723607487</v>
       </c>
       <c r="AB4" t="n">
-        <v>699.2017262554732</v>
+        <v>768.304267806316</v>
       </c>
       <c r="AC4" t="n">
-        <v>632.4708948374363</v>
+        <v>694.9783868086928</v>
       </c>
       <c r="AD4" t="n">
-        <v>511021.1822774688</v>
+        <v>561525.7236074869</v>
       </c>
       <c r="AE4" t="n">
-        <v>699201.7262554732</v>
+        <v>768304.267806316</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.698065507090451e-06</v>
+        <v>3.949866403981285e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.65208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>632470.8948374363</v>
+        <v>694978.3868086928</v>
       </c>
     </row>
     <row r="5">
@@ -11041,28 +11041,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>471.3790127703574</v>
+        <v>513.4662200539236</v>
       </c>
       <c r="AB5" t="n">
-        <v>644.9615610467553</v>
+        <v>702.5471348086726</v>
       </c>
       <c r="AC5" t="n">
-        <v>583.4073348696884</v>
+        <v>635.4970222936287</v>
       </c>
       <c r="AD5" t="n">
-        <v>471379.0127703574</v>
+        <v>513466.2200539237</v>
       </c>
       <c r="AE5" t="n">
-        <v>644961.5610467553</v>
+        <v>702547.1348086726</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.857733999455463e-06</v>
+        <v>4.183615070242175e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.00208333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>583407.3348696884</v>
+        <v>635497.0222936287</v>
       </c>
     </row>
     <row r="6">
@@ -11147,28 +11147,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>439.5277558540126</v>
+        <v>489.9469563294591</v>
       </c>
       <c r="AB6" t="n">
-        <v>601.3812661555296</v>
+        <v>670.3670405841746</v>
       </c>
       <c r="AC6" t="n">
-        <v>543.9862821575532</v>
+        <v>606.3881510968708</v>
       </c>
       <c r="AD6" t="n">
-        <v>439527.7558540126</v>
+        <v>489946.9563294591</v>
       </c>
       <c r="AE6" t="n">
-        <v>601381.2661555297</v>
+        <v>670367.0405841746</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.960205555519588e-06</v>
+        <v>4.333629573447415e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.62083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>543986.2821575532</v>
+        <v>606388.1510968709</v>
       </c>
     </row>
     <row r="7">
@@ -11253,28 +11253,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>423.9464823147357</v>
+        <v>465.9483487437303</v>
       </c>
       <c r="AB7" t="n">
-        <v>580.0622803018166</v>
+        <v>637.5310869415363</v>
       </c>
       <c r="AC7" t="n">
-        <v>524.7019503923341</v>
+        <v>576.6860147843354</v>
       </c>
       <c r="AD7" t="n">
-        <v>423946.4823147357</v>
+        <v>465948.3487437303</v>
       </c>
       <c r="AE7" t="n">
-        <v>580062.2803018166</v>
+        <v>637531.0869415363</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.030381216152604e-06</v>
+        <v>4.436364100679282e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.375</v>
       </c>
       <c r="AH7" t="n">
-        <v>524701.9503923341</v>
+        <v>576686.0147843354</v>
       </c>
     </row>
     <row r="8">
@@ -11359,28 +11359,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>413.3424402279505</v>
+        <v>455.344306656945</v>
       </c>
       <c r="AB8" t="n">
-        <v>565.5533621013569</v>
+        <v>623.0221687410765</v>
       </c>
       <c r="AC8" t="n">
-        <v>511.5777429815317</v>
+        <v>563.5618073735332</v>
       </c>
       <c r="AD8" t="n">
-        <v>413342.4402279505</v>
+        <v>455344.306656945</v>
       </c>
       <c r="AE8" t="n">
-        <v>565553.362101357</v>
+        <v>623022.1687410765</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.079730551694531e-06</v>
+        <v>4.508609671442335e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.20833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>511577.7429815317</v>
+        <v>563561.8073735331</v>
       </c>
     </row>
     <row r="9">
@@ -11465,28 +11465,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>404.4230037834214</v>
+        <v>446.424870212416</v>
       </c>
       <c r="AB9" t="n">
-        <v>553.3493956601882</v>
+        <v>610.8182022999079</v>
       </c>
       <c r="AC9" t="n">
-        <v>500.5385059691335</v>
+        <v>552.5225703611351</v>
       </c>
       <c r="AD9" t="n">
-        <v>404423.0037834215</v>
+        <v>446424.870212416</v>
       </c>
       <c r="AE9" t="n">
-        <v>553349.3956601882</v>
+        <v>610818.2022999078</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.11972313248539e-06</v>
+        <v>4.567157305241141e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.07708333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>500538.5059691335</v>
+        <v>552522.5703611351</v>
       </c>
     </row>
     <row r="10">
@@ -11571,28 +11571,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>388.7887646724404</v>
+        <v>439.1226242933152</v>
       </c>
       <c r="AB10" t="n">
-        <v>531.9579399745933</v>
+        <v>600.8269472810405</v>
       </c>
       <c r="AC10" t="n">
-        <v>481.1886207910751</v>
+        <v>543.484866698454</v>
       </c>
       <c r="AD10" t="n">
-        <v>388788.7646724404</v>
+        <v>439122.6242933152</v>
       </c>
       <c r="AE10" t="n">
-        <v>531957.9399745932</v>
+        <v>600826.9472810405</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.148095227537017e-06</v>
+        <v>4.608692985068217e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.987499999999999</v>
       </c>
       <c r="AH10" t="n">
-        <v>481188.6207910751</v>
+        <v>543484.866698454</v>
       </c>
     </row>
     <row r="11">
@@ -11677,28 +11677,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>382.5384797898826</v>
+        <v>432.8723394107575</v>
       </c>
       <c r="AB11" t="n">
-        <v>523.4060244551697</v>
+        <v>592.2750317616169</v>
       </c>
       <c r="AC11" t="n">
-        <v>473.4528880861366</v>
+        <v>535.7491339935154</v>
       </c>
       <c r="AD11" t="n">
-        <v>382538.4797898825</v>
+        <v>432872.3394107575</v>
       </c>
       <c r="AE11" t="n">
-        <v>523406.0244551697</v>
+        <v>592275.0317616169</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.170732537418636e-06</v>
+        <v>4.641833155143013e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.916666666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>473452.8880861365</v>
+        <v>535749.1339935154</v>
       </c>
     </row>
     <row r="12">
@@ -11783,28 +11783,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>376.8116135115223</v>
+        <v>418.8987312865375</v>
       </c>
       <c r="AB12" t="n">
-        <v>515.5702733616083</v>
+        <v>573.1557246539772</v>
       </c>
       <c r="AC12" t="n">
-        <v>466.364970079399</v>
+        <v>518.4545467221127</v>
       </c>
       <c r="AD12" t="n">
-        <v>376811.6135115223</v>
+        <v>418898.7312865375</v>
       </c>
       <c r="AE12" t="n">
-        <v>515570.2733616083</v>
+        <v>573155.7246539772</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.193520762699464e-06</v>
+        <v>4.675194259684974e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.845833333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>466364.9700793989</v>
+        <v>518454.5467221127</v>
       </c>
     </row>
     <row r="13">
@@ -11889,28 +11889,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>372.6090219815623</v>
+        <v>414.6961397565773</v>
       </c>
       <c r="AB13" t="n">
-        <v>509.8201022250637</v>
+        <v>567.4055535174326</v>
       </c>
       <c r="AC13" t="n">
-        <v>461.1635872057104</v>
+        <v>513.2531638484242</v>
       </c>
       <c r="AD13" t="n">
-        <v>372609.0219815623</v>
+        <v>414696.1397565773</v>
       </c>
       <c r="AE13" t="n">
-        <v>509820.1022250637</v>
+        <v>567405.5535174327</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.206801317830013e-06</v>
+        <v>4.69463649279552e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9.804166666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>461163.5872057104</v>
+        <v>513253.1638484241</v>
       </c>
     </row>
     <row r="14">
@@ -11995,28 +11995,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>367.398058149092</v>
+        <v>409.4851759241072</v>
       </c>
       <c r="AB14" t="n">
-        <v>502.6902316179786</v>
+        <v>560.2756829103474</v>
       </c>
       <c r="AC14" t="n">
-        <v>454.7141814425292</v>
+        <v>506.8037580852429</v>
       </c>
       <c r="AD14" t="n">
-        <v>367398.058149092</v>
+        <v>409485.1759241072</v>
       </c>
       <c r="AE14" t="n">
-        <v>502690.2316179786</v>
+        <v>560275.6829103475</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.223100180944779e-06</v>
+        <v>4.718497415249373e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>9.754166666666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>454714.1814425292</v>
+        <v>506803.7580852429</v>
       </c>
     </row>
     <row r="15">
@@ -12101,28 +12101,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>363.2062060566813</v>
+        <v>405.2933238316963</v>
       </c>
       <c r="AB15" t="n">
-        <v>496.9547546536797</v>
+        <v>554.5402059460484</v>
       </c>
       <c r="AC15" t="n">
-        <v>449.5260903499104</v>
+        <v>501.6156669926242</v>
       </c>
       <c r="AD15" t="n">
-        <v>363206.2060566812</v>
+        <v>405293.3238316963</v>
       </c>
       <c r="AE15" t="n">
-        <v>496954.7546536797</v>
+        <v>554540.2059460485</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.234117005087166e-06</v>
+        <v>4.73462563135244e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>10</v>
+        <v>9.720833333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>449526.0903499104</v>
+        <v>501615.6669926242</v>
       </c>
     </row>
     <row r="16">
@@ -12207,28 +12207,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>359.6786253699208</v>
+        <v>401.765743144936</v>
       </c>
       <c r="AB16" t="n">
-        <v>492.1281631321779</v>
+        <v>549.7136144245467</v>
       </c>
       <c r="AC16" t="n">
-        <v>445.160141949057</v>
+        <v>497.2497185917707</v>
       </c>
       <c r="AD16" t="n">
-        <v>359678.6253699209</v>
+        <v>401765.743144936</v>
       </c>
       <c r="AE16" t="n">
-        <v>492128.1631321778</v>
+        <v>549713.6144245467</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.245133829229554e-06</v>
+        <v>4.750753847455508e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>9.689583333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>445160.141949057</v>
+        <v>497249.7185917707</v>
       </c>
     </row>
     <row r="17">
@@ -12313,28 +12313,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>354.6312957798715</v>
+        <v>396.7184135548867</v>
       </c>
       <c r="AB17" t="n">
-        <v>485.2221841146063</v>
+        <v>542.8076354069751</v>
       </c>
       <c r="AC17" t="n">
-        <v>438.91325987632</v>
+        <v>491.0028365190338</v>
       </c>
       <c r="AD17" t="n">
-        <v>354631.2957798715</v>
+        <v>396718.4135548867</v>
       </c>
       <c r="AE17" t="n">
-        <v>485222.1841146062</v>
+        <v>542807.6354069752</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.255245160976677e-06</v>
+        <v>4.765556456755582e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>10</v>
+        <v>9.658333333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>438913.25987632</v>
+        <v>491002.8365190338</v>
       </c>
     </row>
     <row r="18">
@@ -12419,28 +12419,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>352.5596162240994</v>
+        <v>394.6467339991146</v>
       </c>
       <c r="AB18" t="n">
-        <v>482.3876207503472</v>
+        <v>539.9730720427161</v>
       </c>
       <c r="AC18" t="n">
-        <v>436.3492232612113</v>
+        <v>488.438799903925</v>
       </c>
       <c r="AD18" t="n">
-        <v>352559.6162240994</v>
+        <v>394646.7339991146</v>
       </c>
       <c r="AE18" t="n">
-        <v>482387.6207503472</v>
+        <v>539973.0720427161</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.260979946146686e-06</v>
+        <v>4.773951966507864e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>10</v>
+        <v>9.641666666666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>436349.2232612112</v>
+        <v>488438.799903925</v>
       </c>
     </row>
     <row r="19">
@@ -12525,28 +12525,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>347.8603671083707</v>
+        <v>389.9474848833857</v>
       </c>
       <c r="AB19" t="n">
-        <v>475.9579007939677</v>
+        <v>533.5433520863365</v>
       </c>
       <c r="AC19" t="n">
-        <v>430.5331467532999</v>
+        <v>482.6227233960136</v>
       </c>
       <c r="AD19" t="n">
-        <v>347860.3671083706</v>
+        <v>389947.4848833857</v>
       </c>
       <c r="AE19" t="n">
-        <v>475957.9007939677</v>
+        <v>533543.3520863366</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.267167477514328e-06</v>
+        <v>4.783010279661641e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>10</v>
+        <v>9.622916666666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>430533.1467532999</v>
+        <v>482622.7233960136</v>
       </c>
     </row>
     <row r="20">
@@ -12631,28 +12631,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>346.4502865077746</v>
+        <v>388.5374042827898</v>
       </c>
       <c r="AB20" t="n">
-        <v>474.0285663078666</v>
+        <v>531.6140176002356</v>
       </c>
       <c r="AC20" t="n">
-        <v>428.7879452427144</v>
+        <v>480.8775218854281</v>
       </c>
       <c r="AD20" t="n">
-        <v>346450.2865077746</v>
+        <v>388537.4042827898</v>
       </c>
       <c r="AE20" t="n">
-        <v>474028.5663078667</v>
+        <v>531614.0176002355</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.271996770289073e-06</v>
+        <v>4.790080182610931e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>10</v>
+        <v>9.608333333333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>428787.9452427144</v>
+        <v>480877.5218854281</v>
       </c>
     </row>
     <row r="21">
@@ -12737,28 +12737,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>345.0131230871698</v>
+        <v>387.100240862185</v>
       </c>
       <c r="AB21" t="n">
-        <v>472.06217591262</v>
+        <v>529.6476272049888</v>
       </c>
       <c r="AC21" t="n">
-        <v>427.0092243869439</v>
+        <v>479.0988010296575</v>
       </c>
       <c r="AD21" t="n">
-        <v>345013.1230871698</v>
+        <v>387100.240862185</v>
       </c>
       <c r="AE21" t="n">
-        <v>472062.17591262</v>
+        <v>529647.6272049889</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.278033386257505e-06</v>
+        <v>4.798917561297543e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>10</v>
+        <v>9.591666666666667</v>
       </c>
       <c r="AH21" t="n">
-        <v>427009.2243869439</v>
+        <v>479098.8010296575</v>
       </c>
     </row>
     <row r="22">
@@ -12843,28 +12843,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>346.4441441909247</v>
+        <v>388.5312619659399</v>
       </c>
       <c r="AB22" t="n">
-        <v>474.0201621189727</v>
+        <v>531.6056134113416</v>
       </c>
       <c r="AC22" t="n">
-        <v>428.7803431378131</v>
+        <v>480.8699197805269</v>
       </c>
       <c r="AD22" t="n">
-        <v>346444.1441909247</v>
+        <v>388531.2619659399</v>
       </c>
       <c r="AE22" t="n">
-        <v>474020.1621189727</v>
+        <v>531605.6134113416</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.277882470858295e-06</v>
+        <v>4.798696626830378e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>10</v>
+        <v>9.591666666666667</v>
       </c>
       <c r="AH22" t="n">
-        <v>428780.3431378131</v>
+        <v>480869.9197805269</v>
       </c>
     </row>
   </sheetData>
@@ -13140,28 +13140,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>484.4426479525538</v>
+        <v>538.8136690922328</v>
       </c>
       <c r="AB2" t="n">
-        <v>662.8358030299456</v>
+        <v>737.2286328334163</v>
       </c>
       <c r="AC2" t="n">
-        <v>599.5756842846591</v>
+        <v>666.8685668226792</v>
       </c>
       <c r="AD2" t="n">
-        <v>484442.6479525538</v>
+        <v>538813.6690922328</v>
       </c>
       <c r="AE2" t="n">
-        <v>662835.8030299456</v>
+        <v>737228.6328334163</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.575335090720415e-06</v>
+        <v>3.984361266462026e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.62291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>599575.6842846591</v>
+        <v>666868.5668226792</v>
       </c>
     </row>
     <row r="3">
@@ -13246,28 +13246,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>332.9848388564331</v>
+        <v>379.5032304073006</v>
       </c>
       <c r="AB3" t="n">
-        <v>455.604546777677</v>
+        <v>519.2530623441688</v>
       </c>
       <c r="AC3" t="n">
-        <v>412.1222882782123</v>
+        <v>469.6962788502907</v>
       </c>
       <c r="AD3" t="n">
-        <v>332984.8388564331</v>
+        <v>379503.2304073006</v>
       </c>
       <c r="AE3" t="n">
-        <v>455604.546777677</v>
+        <v>519253.0623441688</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.202286803448598e-06</v>
+        <v>4.95433295253004e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.95625</v>
       </c>
       <c r="AH3" t="n">
-        <v>412122.2882782123</v>
+        <v>469696.2788502907</v>
       </c>
     </row>
     <row r="4">
@@ -13352,28 +13352,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>301.6043517033551</v>
+        <v>340.3555440285338</v>
       </c>
       <c r="AB4" t="n">
-        <v>412.6683798454492</v>
+        <v>465.6894707667077</v>
       </c>
       <c r="AC4" t="n">
-        <v>373.2838888567075</v>
+        <v>421.2447212760096</v>
       </c>
       <c r="AD4" t="n">
-        <v>301604.3517033551</v>
+        <v>340355.5440285337</v>
       </c>
       <c r="AE4" t="n">
-        <v>412668.3798454492</v>
+        <v>465689.4707667077</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.406555518876824e-06</v>
+        <v>5.270361868780509e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.29791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>373283.8888567075</v>
+        <v>421244.7212760096</v>
       </c>
     </row>
     <row r="5">
@@ -13458,28 +13458,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>276.2015221145408</v>
+        <v>322.6345728108367</v>
       </c>
       <c r="AB5" t="n">
-        <v>377.9111077082867</v>
+        <v>441.4428561525808</v>
       </c>
       <c r="AC5" t="n">
-        <v>341.843801990178</v>
+        <v>399.3121695303176</v>
       </c>
       <c r="AD5" t="n">
-        <v>276201.5221145408</v>
+        <v>322634.5728108367</v>
       </c>
       <c r="AE5" t="n">
-        <v>377911.1077082867</v>
+        <v>441442.8561525808</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.51652045801502e-06</v>
+        <v>5.440491202920293e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.977083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>341843.8019901779</v>
+        <v>399312.1695303176</v>
       </c>
     </row>
     <row r="6">
@@ -13564,28 +13564,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>263.5523021796047</v>
+        <v>302.3887458508039</v>
       </c>
       <c r="AB6" t="n">
-        <v>360.6038869491084</v>
+        <v>413.7416225230162</v>
       </c>
       <c r="AC6" t="n">
-        <v>326.1883580894186</v>
+        <v>374.254702759433</v>
       </c>
       <c r="AD6" t="n">
-        <v>263552.3021796047</v>
+        <v>302388.7458508039</v>
       </c>
       <c r="AE6" t="n">
-        <v>360603.8869491083</v>
+        <v>413741.6225230162</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.582027902616487e-06</v>
+        <v>5.541839305493609e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.793749999999999</v>
       </c>
       <c r="AH6" t="n">
-        <v>326188.3580894186</v>
+        <v>374254.702759433</v>
       </c>
     </row>
     <row r="7">
@@ -13670,28 +13670,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>259.6142324791012</v>
+        <v>298.4506761503004</v>
       </c>
       <c r="AB7" t="n">
-        <v>355.2156462495059</v>
+        <v>408.3533818234137</v>
       </c>
       <c r="AC7" t="n">
-        <v>321.314363519743</v>
+        <v>369.3807081897573</v>
       </c>
       <c r="AD7" t="n">
-        <v>259614.2324791012</v>
+        <v>298450.6761503004</v>
       </c>
       <c r="AE7" t="n">
-        <v>355215.6462495059</v>
+        <v>408353.3818234137</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.605940645890031e-06</v>
+        <v>5.57883527095739e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.729166666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>321314.363519743</v>
+        <v>369380.7081897574</v>
       </c>
     </row>
     <row r="8">
@@ -13776,28 +13776,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>260.9327177167551</v>
+        <v>299.7691613879544</v>
       </c>
       <c r="AB8" t="n">
-        <v>357.0196559191274</v>
+        <v>410.1573914930353</v>
       </c>
       <c r="AC8" t="n">
-        <v>322.9462010384393</v>
+        <v>371.0125457084537</v>
       </c>
       <c r="AD8" t="n">
-        <v>260932.7177167551</v>
+        <v>299769.1613879544</v>
       </c>
       <c r="AE8" t="n">
-        <v>357019.6559191275</v>
+        <v>410157.3914930353</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.606277445091067e-06</v>
+        <v>5.5793563408935e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.729166666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>322946.2010384393</v>
+        <v>371012.5457084537</v>
       </c>
     </row>
   </sheetData>
@@ -14073,28 +14073,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>696.8073409959665</v>
+        <v>760.9790650899229</v>
       </c>
       <c r="AB2" t="n">
-        <v>953.4025449209778</v>
+        <v>1041.20512888299</v>
       </c>
       <c r="AC2" t="n">
-        <v>862.4111441425949</v>
+        <v>941.8339727229736</v>
       </c>
       <c r="AD2" t="n">
-        <v>696807.3409959665</v>
+        <v>760979.0650899229</v>
       </c>
       <c r="AE2" t="n">
-        <v>953402.5449209778</v>
+        <v>1041205.12888299</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.140408533710827e-06</v>
+        <v>3.234786506993456e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.68125</v>
       </c>
       <c r="AH2" t="n">
-        <v>862411.1441425949</v>
+        <v>941833.9727229736</v>
       </c>
     </row>
     <row r="3">
@@ -14179,28 +14179,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>427.6623787412423</v>
+        <v>475.7911718117099</v>
       </c>
       <c r="AB3" t="n">
-        <v>585.1465337263434</v>
+        <v>650.9984716978528</v>
       </c>
       <c r="AC3" t="n">
-        <v>529.3009698058186</v>
+        <v>588.8680912411024</v>
       </c>
       <c r="AD3" t="n">
-        <v>427662.3787412423</v>
+        <v>475791.1718117099</v>
       </c>
       <c r="AE3" t="n">
-        <v>585146.5337263434</v>
+        <v>650998.4716978528</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.874069565061053e-06</v>
+        <v>4.343563998552103e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.67916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>529300.9698058185</v>
+        <v>588868.0912411024</v>
       </c>
     </row>
     <row r="4">
@@ -14285,28 +14285,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>370.4881804427732</v>
+        <v>418.531632658669</v>
       </c>
       <c r="AB4" t="n">
-        <v>506.9182732667673</v>
+        <v>572.6534441160791</v>
       </c>
       <c r="AC4" t="n">
-        <v>458.5387047304513</v>
+        <v>518.0002031337965</v>
       </c>
       <c r="AD4" t="n">
-        <v>370488.1804427732</v>
+        <v>418531.632658669</v>
       </c>
       <c r="AE4" t="n">
-        <v>506918.2732667673</v>
+        <v>572653.444116079</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.126033959666181e-06</v>
+        <v>4.724356268380326e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.7375</v>
       </c>
       <c r="AH4" t="n">
-        <v>458538.7047304513</v>
+        <v>518000.2031337965</v>
       </c>
     </row>
     <row r="5">
@@ -14391,28 +14391,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>347.1089051009947</v>
+        <v>387.130981313697</v>
       </c>
       <c r="AB5" t="n">
-        <v>474.929717323312</v>
+        <v>529.6896876469206</v>
       </c>
       <c r="AC5" t="n">
-        <v>429.603091670019</v>
+        <v>479.1368472820435</v>
       </c>
       <c r="AD5" t="n">
-        <v>347108.9051009947</v>
+        <v>387130.981313697</v>
       </c>
       <c r="AE5" t="n">
-        <v>474929.717323312</v>
+        <v>529689.6876469206</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.256688131037511e-06</v>
+        <v>4.921813129525268e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.30625</v>
       </c>
       <c r="AH5" t="n">
-        <v>429603.091670019</v>
+        <v>479136.8472820435</v>
       </c>
     </row>
     <row r="6">
@@ -14497,28 +14497,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>332.806669229843</v>
+        <v>372.8287454425454</v>
       </c>
       <c r="AB6" t="n">
-        <v>455.3607672342873</v>
+        <v>510.1207375578958</v>
       </c>
       <c r="AC6" t="n">
-        <v>411.9017747122969</v>
+        <v>461.4355303243213</v>
       </c>
       <c r="AD6" t="n">
-        <v>332806.669229843</v>
+        <v>372828.7454425454</v>
       </c>
       <c r="AE6" t="n">
-        <v>455360.7672342873</v>
+        <v>510120.7375578958</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.335145074881946e-06</v>
+        <v>5.040384635539554e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.06458333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>411901.7747122969</v>
+        <v>461435.5303243213</v>
       </c>
     </row>
     <row r="7">
@@ -14603,28 +14603,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>314.1973532918331</v>
+        <v>362.1554646531574</v>
       </c>
       <c r="AB7" t="n">
-        <v>429.8986801828253</v>
+        <v>495.5170839099393</v>
       </c>
       <c r="AC7" t="n">
-        <v>388.8697535127627</v>
+        <v>448.2256288841691</v>
       </c>
       <c r="AD7" t="n">
-        <v>314197.3532918331</v>
+        <v>362155.4646531574</v>
       </c>
       <c r="AE7" t="n">
-        <v>429898.6801828253</v>
+        <v>495517.0839099393</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.388147815179317e-06</v>
+        <v>5.120487357261731e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.90625</v>
       </c>
       <c r="AH7" t="n">
-        <v>388869.7535127627</v>
+        <v>448225.6288841691</v>
       </c>
     </row>
     <row r="8">
@@ -14709,28 +14709,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>305.3479328456675</v>
+        <v>345.4552604043905</v>
       </c>
       <c r="AB8" t="n">
-        <v>417.790512719505</v>
+        <v>472.6671276957628</v>
       </c>
       <c r="AC8" t="n">
-        <v>377.9171725582221</v>
+        <v>427.5564404209588</v>
       </c>
       <c r="AD8" t="n">
-        <v>305347.9328456675</v>
+        <v>345455.2604043905</v>
       </c>
       <c r="AE8" t="n">
-        <v>417790.5127195051</v>
+        <v>472667.1276957628</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.427295735824487e-06</v>
+        <v>5.179651373609723e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.793749999999999</v>
       </c>
       <c r="AH8" t="n">
-        <v>377917.1725582221</v>
+        <v>427556.4404209588</v>
       </c>
     </row>
     <row r="9">
@@ -14815,28 +14815,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>298.2615464601698</v>
+        <v>338.3688740188927</v>
       </c>
       <c r="AB9" t="n">
-        <v>408.0946062375639</v>
+        <v>462.9712212138217</v>
       </c>
       <c r="AC9" t="n">
-        <v>369.1466297826271</v>
+        <v>418.7858976453639</v>
       </c>
       <c r="AD9" t="n">
-        <v>298261.5464601698</v>
+        <v>338368.8740188926</v>
       </c>
       <c r="AE9" t="n">
-        <v>408094.6062375639</v>
+        <v>462971.2212138217</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.450977811276503e-06</v>
+        <v>5.215441951400483e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.725</v>
       </c>
       <c r="AH9" t="n">
-        <v>369146.6297826272</v>
+        <v>418785.8976453639</v>
       </c>
     </row>
     <row r="10">
@@ -14921,28 +14921,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>292.6061476881357</v>
+        <v>332.7134752468586</v>
       </c>
       <c r="AB10" t="n">
-        <v>400.3566401390819</v>
+        <v>455.2332551153397</v>
       </c>
       <c r="AC10" t="n">
-        <v>362.1471643082807</v>
+        <v>411.7864321710173</v>
       </c>
       <c r="AD10" t="n">
-        <v>292606.1476881357</v>
+        <v>332713.4752468586</v>
       </c>
       <c r="AE10" t="n">
-        <v>400356.6401390819</v>
+        <v>455233.2551153396</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.471115630538422e-06</v>
+        <v>5.245876116188543e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.668749999999999</v>
       </c>
       <c r="AH10" t="n">
-        <v>362147.1643082806</v>
+        <v>411786.4321710173</v>
       </c>
     </row>
     <row r="11">
@@ -15027,28 +15027,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>290.4762421735475</v>
+        <v>330.5835697322705</v>
       </c>
       <c r="AB11" t="n">
-        <v>397.4424094492228</v>
+        <v>452.3190244254805</v>
       </c>
       <c r="AC11" t="n">
-        <v>359.5110637053132</v>
+        <v>409.1503315680499</v>
       </c>
       <c r="AD11" t="n">
-        <v>290476.2421735475</v>
+        <v>330583.5697322705</v>
       </c>
       <c r="AE11" t="n">
-        <v>397442.4094492228</v>
+        <v>452319.0244254805</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.480942886338238e-06</v>
+        <v>5.260727988605118e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.641666666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>359511.0637053132</v>
+        <v>409150.3315680498</v>
       </c>
     </row>
     <row r="12">
@@ -15133,28 +15133,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>291.7955355701401</v>
+        <v>331.9028631288631</v>
       </c>
       <c r="AB12" t="n">
-        <v>399.2475248775577</v>
+        <v>454.1241398538156</v>
       </c>
       <c r="AC12" t="n">
-        <v>361.1439014506633</v>
+        <v>410.7831693133999</v>
       </c>
       <c r="AD12" t="n">
-        <v>291795.5355701402</v>
+        <v>331902.8631288631</v>
       </c>
       <c r="AE12" t="n">
-        <v>399247.5248775577</v>
+        <v>454124.1398538155</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.48158729655462e-06</v>
+        <v>5.261701881878335e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.639583333333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>361143.9014506633</v>
+        <v>410783.1693133999</v>
       </c>
     </row>
   </sheetData>
@@ -15430,28 +15430,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>364.5219507504126</v>
+        <v>409.7895692272389</v>
       </c>
       <c r="AB2" t="n">
-        <v>498.7550145902021</v>
+        <v>560.6921672565771</v>
       </c>
       <c r="AC2" t="n">
-        <v>451.1545360047719</v>
+        <v>507.1804937500079</v>
       </c>
       <c r="AD2" t="n">
-        <v>364521.9507504126</v>
+        <v>409789.5692272389</v>
       </c>
       <c r="AE2" t="n">
-        <v>498755.0145902021</v>
+        <v>560692.1672565772</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.948066439576624e-06</v>
+        <v>4.659383602482721e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.36041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>451154.5360047719</v>
+        <v>507180.4937500079</v>
       </c>
     </row>
     <row r="3">
@@ -15536,28 +15536,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>272.9310579402583</v>
+        <v>310.6398647799434</v>
       </c>
       <c r="AB3" t="n">
-        <v>373.4363143423369</v>
+        <v>425.0311674555412</v>
       </c>
       <c r="AC3" t="n">
-        <v>337.7960766226625</v>
+        <v>384.4667893685738</v>
       </c>
       <c r="AD3" t="n">
-        <v>272931.0579402582</v>
+        <v>310639.8647799434</v>
       </c>
       <c r="AE3" t="n">
-        <v>373436.3143423368</v>
+        <v>425031.1674555412</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.474157080905913e-06</v>
+        <v>5.490863542935262e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.4875</v>
       </c>
       <c r="AH3" t="n">
-        <v>337796.0766226625</v>
+        <v>384466.7893685738</v>
       </c>
     </row>
     <row r="4">
@@ -15642,28 +15642,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>240.7256784023826</v>
+        <v>285.9078665160893</v>
       </c>
       <c r="AB4" t="n">
-        <v>329.3714932573903</v>
+        <v>391.1917563321785</v>
       </c>
       <c r="AC4" t="n">
-        <v>297.936740216797</v>
+        <v>353.8569641489129</v>
       </c>
       <c r="AD4" t="n">
-        <v>240725.6784023826</v>
+        <v>285907.8665160893</v>
       </c>
       <c r="AE4" t="n">
-        <v>329371.4932573903</v>
+        <v>391191.7563321785</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.655000738862856e-06</v>
+        <v>5.776684772465823e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.96875</v>
       </c>
       <c r="AH4" t="n">
-        <v>297936.740216797</v>
+        <v>353856.9641489129</v>
       </c>
     </row>
     <row r="5">
@@ -15748,28 +15748,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>235.5947424519487</v>
+        <v>273.3888006376574</v>
       </c>
       <c r="AB5" t="n">
-        <v>322.3511203290918</v>
+        <v>374.062618095101</v>
       </c>
       <c r="AC5" t="n">
-        <v>291.5863818276178</v>
+        <v>338.3626068242856</v>
       </c>
       <c r="AD5" t="n">
-        <v>235594.7424519488</v>
+        <v>273388.8006376574</v>
       </c>
       <c r="AE5" t="n">
-        <v>322351.1203290918</v>
+        <v>374062.618095101</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.691729141349275e-06</v>
+        <v>5.834733571500076e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.870833333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>291586.3818276178</v>
+        <v>338362.6068242856</v>
       </c>
     </row>
   </sheetData>
@@ -16045,28 +16045,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1531.500105217028</v>
+        <v>1624.630863047851</v>
       </c>
       <c r="AB2" t="n">
-        <v>2095.466008974081</v>
+        <v>2222.891620477275</v>
       </c>
       <c r="AC2" t="n">
-        <v>1895.477674082609</v>
+        <v>2010.741964066907</v>
       </c>
       <c r="AD2" t="n">
-        <v>1531500.105217028</v>
+        <v>1624630.863047851</v>
       </c>
       <c r="AE2" t="n">
-        <v>2095466.00897408</v>
+        <v>2222891.620477275</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.391653352857514e-06</v>
+        <v>2.028872342044487e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.38958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1895477.674082609</v>
+        <v>2010741.964066907</v>
       </c>
     </row>
     <row r="3">
@@ -16151,28 +16151,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>663.0338916152514</v>
+        <v>722.3531701823338</v>
       </c>
       <c r="AB3" t="n">
-        <v>907.1922214988546</v>
+        <v>988.3554754162096</v>
       </c>
       <c r="AC3" t="n">
-        <v>820.611069131283</v>
+        <v>894.0282160081077</v>
       </c>
       <c r="AD3" t="n">
-        <v>663033.8916152514</v>
+        <v>722353.1701823338</v>
       </c>
       <c r="AE3" t="n">
-        <v>907192.2214988546</v>
+        <v>988355.4754162097</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.307258062819223e-06</v>
+        <v>3.363719894757689e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.50416666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>820611.069131283</v>
+        <v>894028.2160081078</v>
       </c>
     </row>
     <row r="4">
@@ -16257,28 +16257,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>535.7118704334573</v>
+        <v>586.5569663480994</v>
       </c>
       <c r="AB4" t="n">
-        <v>732.984615066781</v>
+        <v>802.5531184245139</v>
       </c>
       <c r="AC4" t="n">
-        <v>663.029592155175</v>
+        <v>725.9585751924536</v>
       </c>
       <c r="AD4" t="n">
-        <v>535711.8704334573</v>
+        <v>586556.9663480994</v>
       </c>
       <c r="AE4" t="n">
-        <v>732984.6150667809</v>
+        <v>802553.1184245138</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.631054893441095e-06</v>
+        <v>3.835778854513338e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.84166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>663029.5921551751</v>
+        <v>725958.5751924536</v>
       </c>
     </row>
     <row r="5">
@@ -16363,28 +16363,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>489.7936709132266</v>
+        <v>532.1646736839793</v>
       </c>
       <c r="AB5" t="n">
-        <v>670.1573087152101</v>
+        <v>728.1311839828692</v>
       </c>
       <c r="AC5" t="n">
-        <v>606.1984357431198</v>
+        <v>658.6393657220785</v>
       </c>
       <c r="AD5" t="n">
-        <v>489793.6709132266</v>
+        <v>532164.6736839793</v>
       </c>
       <c r="AE5" t="n">
-        <v>670157.3087152101</v>
+        <v>728131.1839828691</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.804095509159111e-06</v>
+        <v>4.088052395592916e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.1125</v>
       </c>
       <c r="AH5" t="n">
-        <v>606198.4357431198</v>
+        <v>658639.3657220785</v>
       </c>
     </row>
     <row r="6">
@@ -16469,28 +16469,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>456.6516610915133</v>
+        <v>507.4114161515836</v>
       </c>
       <c r="AB6" t="n">
-        <v>624.81094875486</v>
+        <v>694.2626849903951</v>
       </c>
       <c r="AC6" t="n">
-        <v>565.1798687333696</v>
+        <v>628.0032287387094</v>
       </c>
       <c r="AD6" t="n">
-        <v>456651.6610915133</v>
+        <v>507411.4161515837</v>
       </c>
       <c r="AE6" t="n">
-        <v>624810.94875486</v>
+        <v>694262.6849903951</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.908787325064566e-06</v>
+        <v>4.24068115856241e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.7125</v>
       </c>
       <c r="AH6" t="n">
-        <v>565179.8687333696</v>
+        <v>628003.2287387094</v>
       </c>
     </row>
     <row r="7">
@@ -16575,28 +16575,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>440.1769079819469</v>
+        <v>482.462569898128</v>
       </c>
       <c r="AB7" t="n">
-        <v>602.2694647355399</v>
+        <v>660.1265728810015</v>
       </c>
       <c r="AC7" t="n">
-        <v>544.789712311682</v>
+        <v>597.125019258702</v>
       </c>
       <c r="AD7" t="n">
-        <v>440176.9079819469</v>
+        <v>482462.569898128</v>
       </c>
       <c r="AE7" t="n">
-        <v>602269.46473554</v>
+        <v>660126.5728810015</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.980426439091299e-06</v>
+        <v>4.345122840651534e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.45416666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>544789.7123116821</v>
+        <v>597125.0192587019</v>
       </c>
     </row>
     <row r="8">
@@ -16681,28 +16681,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>427.812048969732</v>
+        <v>470.097710885913</v>
       </c>
       <c r="AB8" t="n">
-        <v>585.3513191359473</v>
+        <v>643.2084272814087</v>
       </c>
       <c r="AC8" t="n">
-        <v>529.4862107833479</v>
+        <v>581.8215177303679</v>
       </c>
       <c r="AD8" t="n">
-        <v>427812.048969732</v>
+        <v>470097.710885913</v>
       </c>
       <c r="AE8" t="n">
-        <v>585351.3191359473</v>
+        <v>643208.4272814087</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.035165302836151e-06</v>
+        <v>4.424925879575584e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.26666666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>529486.210783348</v>
+        <v>581821.5177303678</v>
       </c>
     </row>
     <row r="9">
@@ -16787,28 +16787,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>418.5972099303784</v>
+        <v>460.8828718465595</v>
       </c>
       <c r="AB9" t="n">
-        <v>572.7431698322969</v>
+        <v>630.6002779777583</v>
       </c>
       <c r="AC9" t="n">
-        <v>518.0813655535893</v>
+        <v>570.416672500609</v>
       </c>
       <c r="AD9" t="n">
-        <v>418597.2099303784</v>
+        <v>460882.8718465595</v>
       </c>
       <c r="AE9" t="n">
-        <v>572743.1698322969</v>
+        <v>630600.2779777583</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.073901274721169e-06</v>
+        <v>4.481398521874297e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.1375</v>
       </c>
       <c r="AH9" t="n">
-        <v>518081.3655535893</v>
+        <v>570416.6725006091</v>
       </c>
     </row>
     <row r="10">
@@ -16893,28 +16893,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>411.2297225053796</v>
+        <v>453.5153844215606</v>
       </c>
       <c r="AB10" t="n">
-        <v>562.6626485068077</v>
+        <v>620.5197566522693</v>
       </c>
       <c r="AC10" t="n">
-        <v>508.9629150353043</v>
+        <v>561.2982219823241</v>
       </c>
       <c r="AD10" t="n">
-        <v>411229.7225053796</v>
+        <v>453515.3844215606</v>
       </c>
       <c r="AE10" t="n">
-        <v>562662.6485068077</v>
+        <v>620519.7566522693</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.104561020807767e-06</v>
+        <v>4.526096945315363e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.03541666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>508962.9150353043</v>
+        <v>561298.2219823241</v>
       </c>
     </row>
     <row r="11">
@@ -16999,28 +16999,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>397.7477847330951</v>
+        <v>448.4221989385939</v>
       </c>
       <c r="AB11" t="n">
-        <v>544.2160664656511</v>
+        <v>613.5510355789887</v>
       </c>
       <c r="AC11" t="n">
-        <v>492.2768488942152</v>
+        <v>554.9945858676161</v>
       </c>
       <c r="AD11" t="n">
-        <v>397747.7847330951</v>
+        <v>448422.1989385939</v>
       </c>
       <c r="AE11" t="n">
-        <v>544216.0664656512</v>
+        <v>613551.0355789887</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.125349824251851e-06</v>
+        <v>4.556404656819306e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.96875</v>
       </c>
       <c r="AH11" t="n">
-        <v>492276.8488942152</v>
+        <v>554994.5858676161</v>
       </c>
     </row>
     <row r="12">
@@ -17105,28 +17105,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>392.328087269622</v>
+        <v>443.0025014751207</v>
       </c>
       <c r="AB12" t="n">
-        <v>536.8005972959501</v>
+        <v>606.1355664092875</v>
       </c>
       <c r="AC12" t="n">
-        <v>485.5691016943939</v>
+        <v>548.2868386677949</v>
       </c>
       <c r="AD12" t="n">
-        <v>392328.087269622</v>
+        <v>443002.5014751207</v>
       </c>
       <c r="AE12" t="n">
-        <v>536800.5972959501</v>
+        <v>606135.5664092875</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.143296992692786e-06</v>
+        <v>4.582569587614076e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.9125</v>
       </c>
       <c r="AH12" t="n">
-        <v>485569.1016943939</v>
+        <v>548286.8386677948</v>
       </c>
     </row>
     <row r="13">
@@ -17211,28 +17211,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>386.3329539640009</v>
+        <v>428.7038672262024</v>
       </c>
       <c r="AB13" t="n">
-        <v>528.5977914205841</v>
+        <v>586.5715442186951</v>
       </c>
       <c r="AC13" t="n">
-        <v>478.1491600990627</v>
+        <v>530.5899792967948</v>
       </c>
       <c r="AD13" t="n">
-        <v>386332.9539640009</v>
+        <v>428703.8672262024</v>
       </c>
       <c r="AE13" t="n">
-        <v>528597.7914205842</v>
+        <v>586571.544218695</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.167226550614033e-06</v>
+        <v>4.617456162007103e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9.8375</v>
       </c>
       <c r="AH13" t="n">
-        <v>478149.1600990627</v>
+        <v>530589.9792967949</v>
       </c>
     </row>
     <row r="14">
@@ -17317,28 +17317,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>383.3422740946234</v>
+        <v>425.713187356825</v>
       </c>
       <c r="AB14" t="n">
-        <v>524.5058112838179</v>
+        <v>582.4795640819287</v>
       </c>
       <c r="AC14" t="n">
-        <v>474.4477128034193</v>
+        <v>526.8885320011515</v>
       </c>
       <c r="AD14" t="n">
-        <v>383342.2740946234</v>
+        <v>425713.187356825</v>
       </c>
       <c r="AE14" t="n">
-        <v>524505.811283818</v>
+        <v>582479.5640819287</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.176648814045523e-06</v>
+        <v>4.631192750674358e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>9.808333333333332</v>
       </c>
       <c r="AH14" t="n">
-        <v>474447.7128034193</v>
+        <v>526888.5320011515</v>
       </c>
     </row>
     <row r="15">
@@ -17423,28 +17423,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>377.3536808988597</v>
+        <v>419.7245941610614</v>
       </c>
       <c r="AB15" t="n">
-        <v>516.3119538752886</v>
+        <v>574.2857066733993</v>
       </c>
       <c r="AC15" t="n">
-        <v>467.0358656458088</v>
+        <v>519.476684843541</v>
       </c>
       <c r="AD15" t="n">
-        <v>377353.6808988597</v>
+        <v>419724.5941610613</v>
       </c>
       <c r="AE15" t="n">
-        <v>516311.9538752887</v>
+        <v>574285.7066733993</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.194745542223466e-06</v>
+        <v>4.657575722559084e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>10</v>
+        <v>9.752083333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>467035.8656458088</v>
+        <v>519476.6848435409</v>
       </c>
     </row>
     <row r="16">
@@ -17529,28 +17529,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>373.4442044713418</v>
+        <v>415.8151177335435</v>
       </c>
       <c r="AB16" t="n">
-        <v>510.9628357532314</v>
+        <v>568.936588551342</v>
       </c>
       <c r="AC16" t="n">
-        <v>462.1972598497862</v>
+        <v>514.6380790475182</v>
       </c>
       <c r="AD16" t="n">
-        <v>373444.2044713419</v>
+        <v>415815.1177335435</v>
       </c>
       <c r="AE16" t="n">
-        <v>510962.8357532314</v>
+        <v>568936.588551342</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.205513843288028e-06</v>
+        <v>4.673274681035947e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>9.720833333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>462197.2598497862</v>
+        <v>514638.0790475183</v>
       </c>
     </row>
     <row r="17">
@@ -17635,28 +17635,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>371.0236969115142</v>
+        <v>413.3946101737158</v>
       </c>
       <c r="AB17" t="n">
-        <v>507.650990524618</v>
+        <v>565.6247433227287</v>
       </c>
       <c r="AC17" t="n">
-        <v>459.2014924815878</v>
+        <v>511.64231167932</v>
       </c>
       <c r="AD17" t="n">
-        <v>371023.6969115142</v>
+        <v>413394.6101737157</v>
       </c>
       <c r="AE17" t="n">
-        <v>507650.990524618</v>
+        <v>565624.7433227287</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.209252836713222e-06</v>
+        <v>4.678725708284857e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>10</v>
+        <v>9.708333333333334</v>
       </c>
       <c r="AH17" t="n">
-        <v>459201.4924815877</v>
+        <v>511642.3116793199</v>
       </c>
     </row>
     <row r="18">
@@ -17741,28 +17741,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>367.2257427306619</v>
+        <v>409.5966559928635</v>
       </c>
       <c r="AB18" t="n">
-        <v>502.4544620604628</v>
+        <v>560.4282148585735</v>
       </c>
       <c r="AC18" t="n">
-        <v>454.500913400678</v>
+        <v>506.9417325984103</v>
       </c>
       <c r="AD18" t="n">
-        <v>367225.7427306619</v>
+        <v>409596.6559928635</v>
       </c>
       <c r="AE18" t="n">
-        <v>502454.4620604628</v>
+        <v>560428.2148585735</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.220619376725815e-06</v>
+        <v>4.695296831121545e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>10</v>
+        <v>9.674999999999999</v>
       </c>
       <c r="AH18" t="n">
-        <v>454500.913400678</v>
+        <v>506941.7325984103</v>
       </c>
     </row>
     <row r="19">
@@ -17847,28 +17847,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>363.3770049248244</v>
+        <v>405.747918187026</v>
       </c>
       <c r="AB19" t="n">
-        <v>497.1884492001874</v>
+        <v>555.1622019982981</v>
       </c>
       <c r="AC19" t="n">
-        <v>449.7374814168918</v>
+        <v>502.178300614624</v>
       </c>
       <c r="AD19" t="n">
-        <v>363377.0049248244</v>
+        <v>405747.9181870259</v>
       </c>
       <c r="AE19" t="n">
-        <v>497188.4492001874</v>
+        <v>555162.2019982981</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.228246923313212e-06</v>
+        <v>4.706416926709322e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>10</v>
+        <v>9.652083333333332</v>
       </c>
       <c r="AH19" t="n">
-        <v>449737.4814168918</v>
+        <v>502178.300614624</v>
       </c>
     </row>
     <row r="20">
@@ -17953,28 +17953,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>359.9985542106474</v>
+        <v>402.3694674728491</v>
       </c>
       <c r="AB20" t="n">
-        <v>492.5659038863242</v>
+        <v>550.5396566844348</v>
       </c>
       <c r="AC20" t="n">
-        <v>445.5561053400006</v>
+        <v>497.9969245377328</v>
       </c>
       <c r="AD20" t="n">
-        <v>359998.5542106474</v>
+        <v>402369.4674728491</v>
       </c>
       <c r="AE20" t="n">
-        <v>492565.9038863242</v>
+        <v>550539.6566844349</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.231836357001399e-06</v>
+        <v>4.711649912868276e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>10</v>
+        <v>9.641666666666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>445556.1053400006</v>
+        <v>497996.9245377327</v>
       </c>
     </row>
     <row r="21">
@@ -18059,28 +18059,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>357.2529658977149</v>
+        <v>399.6238791599166</v>
       </c>
       <c r="AB21" t="n">
-        <v>488.8092688297623</v>
+        <v>546.7830216278729</v>
       </c>
       <c r="AC21" t="n">
-        <v>442.1579982607666</v>
+        <v>494.5988174584987</v>
       </c>
       <c r="AD21" t="n">
-        <v>357252.965897715</v>
+        <v>399623.8791599165</v>
       </c>
       <c r="AE21" t="n">
-        <v>488809.2688297624</v>
+        <v>546783.0216278729</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.237370067270688e-06</v>
+        <v>4.719717433196664e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>10</v>
+        <v>9.625</v>
       </c>
       <c r="AH21" t="n">
-        <v>442157.9982607666</v>
+        <v>494598.8174584988</v>
       </c>
     </row>
     <row r="22">
@@ -18165,28 +18165,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>355.3134156885104</v>
+        <v>397.6843289507121</v>
       </c>
       <c r="AB22" t="n">
-        <v>486.1554906666125</v>
+        <v>544.1292434647232</v>
       </c>
       <c r="AC22" t="n">
-        <v>439.7574929609068</v>
+        <v>492.1983121586389</v>
       </c>
       <c r="AD22" t="n">
-        <v>355313.4156885104</v>
+        <v>397684.3289507121</v>
       </c>
       <c r="AE22" t="n">
-        <v>486155.4906666125</v>
+        <v>544129.2434647232</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.243502016488007e-06</v>
+        <v>4.728657117884877e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>10</v>
+        <v>9.606250000000001</v>
       </c>
       <c r="AH22" t="n">
-        <v>439757.4929609068</v>
+        <v>492198.312158639</v>
       </c>
     </row>
     <row r="23">
@@ -18271,28 +18271,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>354.6420443416662</v>
+        <v>397.0129576038678</v>
       </c>
       <c r="AB23" t="n">
-        <v>485.2368907710468</v>
+        <v>543.2106435691575</v>
       </c>
       <c r="AC23" t="n">
-        <v>438.9265629501107</v>
+        <v>491.3673821478428</v>
       </c>
       <c r="AD23" t="n">
-        <v>354642.0443416662</v>
+        <v>397012.9576038679</v>
       </c>
       <c r="AE23" t="n">
-        <v>485236.8907710467</v>
+        <v>543210.6435691575</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.24395069569903e-06</v>
+        <v>4.729311241154746e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>10</v>
+        <v>9.604166666666666</v>
       </c>
       <c r="AH23" t="n">
-        <v>438926.5629501108</v>
+        <v>491367.3821478428</v>
       </c>
     </row>
     <row r="24">
@@ -18377,28 +18377,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>354.7746493659426</v>
+        <v>397.1455626281443</v>
       </c>
       <c r="AB24" t="n">
-        <v>485.4183268153824</v>
+        <v>543.3920796134933</v>
       </c>
       <c r="AC24" t="n">
-        <v>439.0906829930222</v>
+        <v>491.5315021907543</v>
       </c>
       <c r="AD24" t="n">
-        <v>354774.6493659426</v>
+        <v>397145.5626281443</v>
       </c>
       <c r="AE24" t="n">
-        <v>485418.3268153825</v>
+        <v>543392.0796134933</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.242455098328953e-06</v>
+        <v>4.727130830255182e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>10</v>
+        <v>9.610416666666667</v>
       </c>
       <c r="AH24" t="n">
-        <v>439090.6829930222</v>
+        <v>491531.5021907543</v>
       </c>
     </row>
   </sheetData>
@@ -18674,28 +18674,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>302.8282915042579</v>
+        <v>347.4404633905208</v>
       </c>
       <c r="AB2" t="n">
-        <v>414.3430282774577</v>
+        <v>475.3833700023609</v>
       </c>
       <c r="AC2" t="n">
-        <v>374.798711192749</v>
+        <v>430.0134483740851</v>
       </c>
       <c r="AD2" t="n">
-        <v>302828.2915042579</v>
+        <v>347440.4633905208</v>
       </c>
       <c r="AE2" t="n">
-        <v>414343.0282774577</v>
+        <v>475383.370002361</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.181486215565194e-06</v>
+        <v>5.097488241059976e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.72083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>374798.711192749</v>
+        <v>430013.4483740851</v>
       </c>
     </row>
     <row r="3">
@@ -18780,28 +18780,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>237.9985436369838</v>
+        <v>275.0901021961852</v>
       </c>
       <c r="AB3" t="n">
-        <v>325.6401071586789</v>
+        <v>376.3904139436062</v>
       </c>
       <c r="AC3" t="n">
-        <v>294.5614723703122</v>
+        <v>340.4682411040915</v>
       </c>
       <c r="AD3" t="n">
-        <v>237998.5436369838</v>
+        <v>275090.1021961852</v>
       </c>
       <c r="AE3" t="n">
-        <v>325640.1071586789</v>
+        <v>376390.4139436063</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.653652777402661e-06</v>
+        <v>5.854009983952591e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.20625</v>
       </c>
       <c r="AH3" t="n">
-        <v>294561.4723703122</v>
+        <v>340468.2411040915</v>
       </c>
     </row>
     <row r="4">
@@ -18886,28 +18886,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>221.4596062070874</v>
+        <v>265.9010963842097</v>
       </c>
       <c r="AB4" t="n">
-        <v>303.0108033206824</v>
+        <v>363.8176108013359</v>
       </c>
       <c r="AC4" t="n">
-        <v>274.0918775301795</v>
+        <v>329.0953686476794</v>
       </c>
       <c r="AD4" t="n">
-        <v>221459.6062070874</v>
+        <v>265901.0963842097</v>
       </c>
       <c r="AE4" t="n">
-        <v>303010.8033206824</v>
+        <v>363817.6108013359</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.732227879998054e-06</v>
+        <v>5.979905755419557e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.991666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>274091.8775301796</v>
+        <v>329095.3686476795</v>
       </c>
     </row>
   </sheetData>
@@ -19183,28 +19183,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>980.2385071092499</v>
+        <v>1054.252171160985</v>
       </c>
       <c r="AB2" t="n">
-        <v>1341.205570497726</v>
+        <v>1442.474330905718</v>
       </c>
       <c r="AC2" t="n">
-        <v>1213.202793243263</v>
+        <v>1304.806605289515</v>
       </c>
       <c r="AD2" t="n">
-        <v>980238.5071092499</v>
+        <v>1054252.171160985</v>
       </c>
       <c r="AE2" t="n">
-        <v>1341205.570497726</v>
+        <v>1442474.330905718</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.786109330214321e-06</v>
+        <v>2.652092288298213e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.1375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1213202.793243263</v>
+        <v>1304806.605289515</v>
       </c>
     </row>
     <row r="3">
@@ -19289,28 +19289,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>523.8346383453004</v>
+        <v>573.1486639311172</v>
       </c>
       <c r="AB3" t="n">
-        <v>716.733662137266</v>
+        <v>784.2072875250445</v>
       </c>
       <c r="AC3" t="n">
-        <v>648.3296073648972</v>
+        <v>709.3636446454943</v>
       </c>
       <c r="AD3" t="n">
-        <v>523834.6383453004</v>
+        <v>573148.6639311172</v>
       </c>
       <c r="AE3" t="n">
-        <v>716733.662137266</v>
+        <v>784207.2875250445</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.610359835956997e-06</v>
+        <v>3.875975044480752e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.41041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>648329.6073648973</v>
+        <v>709363.6446454943</v>
       </c>
     </row>
     <row r="4">
@@ -19395,28 +19395,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>444.2711574807282</v>
+        <v>485.4373110991438</v>
       </c>
       <c r="AB4" t="n">
-        <v>607.8713975253125</v>
+        <v>664.1967450285507</v>
       </c>
       <c r="AC4" t="n">
-        <v>549.8570044983608</v>
+        <v>600.8067398890117</v>
       </c>
       <c r="AD4" t="n">
-        <v>444271.1574807282</v>
+        <v>485437.3110991438</v>
       </c>
       <c r="AE4" t="n">
-        <v>607871.3975253125</v>
+        <v>664196.7450285507</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.897082705715438e-06</v>
+        <v>4.301713547103012e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.18125</v>
       </c>
       <c r="AH4" t="n">
-        <v>549857.0044983608</v>
+        <v>600806.7398890117</v>
       </c>
     </row>
     <row r="5">
@@ -19501,28 +19501,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>405.4443922760852</v>
+        <v>454.758328353351</v>
       </c>
       <c r="AB5" t="n">
-        <v>554.7469044563309</v>
+        <v>622.2204073745611</v>
       </c>
       <c r="AC5" t="n">
-        <v>501.8026384871883</v>
+        <v>562.8365649865589</v>
       </c>
       <c r="AD5" t="n">
-        <v>405444.3922760852</v>
+        <v>454758.328353351</v>
       </c>
       <c r="AE5" t="n">
-        <v>554746.9044563308</v>
+        <v>622220.4073745611</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.042931974605577e-06</v>
+        <v>4.518276841820843e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.64583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>501802.6384871883</v>
+        <v>562836.5649865589</v>
       </c>
     </row>
     <row r="6">
@@ -19607,28 +19607,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>386.9699932518276</v>
+        <v>428.0508060156715</v>
       </c>
       <c r="AB6" t="n">
-        <v>529.4694166783788</v>
+        <v>585.6779970594195</v>
       </c>
       <c r="AC6" t="n">
-        <v>478.9375986655871</v>
+        <v>529.7817110242993</v>
       </c>
       <c r="AD6" t="n">
-        <v>386969.9932518277</v>
+        <v>428050.8060156715</v>
       </c>
       <c r="AE6" t="n">
-        <v>529469.4166783788</v>
+        <v>585677.9970594194</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.134670853758224e-06</v>
+        <v>4.654494692442933e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.33333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>478937.5986655871</v>
+        <v>529781.7110242993</v>
       </c>
     </row>
     <row r="7">
@@ -19713,28 +19713,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>374.8558788163861</v>
+        <v>415.9366915802301</v>
       </c>
       <c r="AB7" t="n">
-        <v>512.8943508707976</v>
+        <v>569.1029312518381</v>
       </c>
       <c r="AC7" t="n">
-        <v>463.9444338754305</v>
+        <v>514.7885462341426</v>
       </c>
       <c r="AD7" t="n">
-        <v>374855.8788163861</v>
+        <v>415936.6915802301</v>
       </c>
       <c r="AE7" t="n">
-        <v>512894.3508707975</v>
+        <v>569102.9312518381</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.195000828523015e-06</v>
+        <v>4.744075245055426e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.13958333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>463944.4338754305</v>
+        <v>514788.5462341426</v>
       </c>
     </row>
     <row r="8">
@@ -19819,28 +19819,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>365.805145988594</v>
+        <v>406.8859587524379</v>
       </c>
       <c r="AB8" t="n">
-        <v>500.5107389256603</v>
+        <v>556.719319306701</v>
       </c>
       <c r="AC8" t="n">
-        <v>452.7426964738286</v>
+        <v>503.5868088325408</v>
       </c>
       <c r="AD8" t="n">
-        <v>365805.145988594</v>
+        <v>406885.9587524379</v>
       </c>
       <c r="AE8" t="n">
-        <v>500510.7389256603</v>
+        <v>556719.319306701</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.238848902965466e-06</v>
+        <v>4.809182760098527e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.00208333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>452742.6964738286</v>
+        <v>503586.8088325408</v>
       </c>
     </row>
     <row r="9">
@@ -19925,28 +19925,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>348.8866120034381</v>
+        <v>390.0526761133026</v>
       </c>
       <c r="AB9" t="n">
-        <v>477.3620543341285</v>
+        <v>533.6872793678185</v>
       </c>
       <c r="AC9" t="n">
-        <v>431.8032898503297</v>
+        <v>482.7529144597542</v>
       </c>
       <c r="AD9" t="n">
-        <v>348886.6120034381</v>
+        <v>390052.6761133026</v>
       </c>
       <c r="AE9" t="n">
-        <v>477362.0543341285</v>
+        <v>533687.2793678185</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.27336759986697e-06</v>
+        <v>4.860437612366499e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.895833333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>431803.2898503297</v>
+        <v>482752.9144597541</v>
       </c>
     </row>
     <row r="10">
@@ -20031,28 +20031,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>342.7003416835553</v>
+        <v>383.8664057934198</v>
       </c>
       <c r="AB10" t="n">
-        <v>468.89772636348</v>
+        <v>525.2229513971698</v>
       </c>
       <c r="AC10" t="n">
-        <v>424.1467854614409</v>
+        <v>475.0964100708653</v>
       </c>
       <c r="AD10" t="n">
-        <v>342700.3416835553</v>
+        <v>383866.4057934198</v>
       </c>
       <c r="AE10" t="n">
-        <v>468897.72636348</v>
+        <v>525222.9513971698</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.29933436735594e-06</v>
+        <v>4.898994190423939e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.81875</v>
       </c>
       <c r="AH10" t="n">
-        <v>424146.7854614409</v>
+        <v>475096.4100708653</v>
       </c>
     </row>
     <row r="11">
@@ -20137,28 +20137,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>336.8854827766308</v>
+        <v>378.0515468864953</v>
       </c>
       <c r="AB11" t="n">
-        <v>460.9415798735562</v>
+        <v>517.2668049072461</v>
       </c>
       <c r="AC11" t="n">
-        <v>416.9499624259938</v>
+        <v>467.8995870354182</v>
       </c>
       <c r="AD11" t="n">
-        <v>336885.4827766308</v>
+        <v>378051.5468864953</v>
       </c>
       <c r="AE11" t="n">
-        <v>460941.5798735562</v>
+        <v>517266.8049072461</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.319548018694658e-06</v>
+        <v>4.929008293103382e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.758333333333335</v>
       </c>
       <c r="AH11" t="n">
-        <v>416949.9624259938</v>
+        <v>467899.5870354181</v>
       </c>
     </row>
     <row r="12">
@@ -20243,28 +20243,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>330.435946513053</v>
+        <v>371.6020106229175</v>
       </c>
       <c r="AB12" t="n">
-        <v>452.1170398242705</v>
+        <v>508.4422648579605</v>
       </c>
       <c r="AC12" t="n">
-        <v>408.9676240936922</v>
+        <v>459.9172487031166</v>
       </c>
       <c r="AD12" t="n">
-        <v>330435.946513053</v>
+        <v>371602.0106229176</v>
       </c>
       <c r="AE12" t="n">
-        <v>452117.0398242705</v>
+        <v>508442.2648579605</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.336651877519728e-06</v>
+        <v>4.954404841524449e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.708333333333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>408967.6240936922</v>
+        <v>459917.2487031166</v>
       </c>
     </row>
     <row r="13">
@@ -20349,28 +20349,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>325.4064367840828</v>
+        <v>366.5725008939473</v>
       </c>
       <c r="AB13" t="n">
-        <v>445.2354427267841</v>
+        <v>501.560667760474</v>
       </c>
       <c r="AC13" t="n">
-        <v>402.7427969648077</v>
+        <v>453.6924215742321</v>
       </c>
       <c r="AD13" t="n">
-        <v>325406.4367840828</v>
+        <v>366572.5008939473</v>
       </c>
       <c r="AE13" t="n">
-        <v>445235.4427267841</v>
+        <v>501560.667760474</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.351112412708195e-06</v>
+        <v>4.975876468825897e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>402742.7969648077</v>
+        <v>453692.4215742321</v>
       </c>
     </row>
     <row r="14">
@@ -20455,28 +20455,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>321.1815583039792</v>
+        <v>362.3476224138437</v>
       </c>
       <c r="AB14" t="n">
-        <v>439.4547776018225</v>
+        <v>495.7800026355125</v>
       </c>
       <c r="AC14" t="n">
-        <v>397.5138304061579</v>
+        <v>448.4634550155824</v>
       </c>
       <c r="AD14" t="n">
-        <v>321181.5583039792</v>
+        <v>362347.6224138438</v>
       </c>
       <c r="AE14" t="n">
-        <v>439454.7776018225</v>
+        <v>495780.0026355124</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.362307665757332e-06</v>
+        <v>4.99249966415605e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>9.633333333333335</v>
       </c>
       <c r="AH14" t="n">
-        <v>397513.8304061579</v>
+        <v>448463.4550155824</v>
       </c>
     </row>
     <row r="15">
@@ -20561,28 +20561,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>317.4686870610161</v>
+        <v>358.6347511708805</v>
       </c>
       <c r="AB15" t="n">
-        <v>434.3746633668815</v>
+        <v>490.6998884005714</v>
       </c>
       <c r="AC15" t="n">
-        <v>392.9185551438146</v>
+        <v>443.8681797532389</v>
       </c>
       <c r="AD15" t="n">
-        <v>317468.6870610161</v>
+        <v>358634.7511708805</v>
       </c>
       <c r="AE15" t="n">
-        <v>434374.6633668815</v>
+        <v>490699.8884005714</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.370704105544185e-06</v>
+        <v>5.004967060653666e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>10</v>
+        <v>9.610416666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>392918.5551438145</v>
+        <v>443868.1797532389</v>
       </c>
     </row>
     <row r="16">
@@ -20667,28 +20667,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>318.8117446057511</v>
+        <v>359.9778087156157</v>
       </c>
       <c r="AB16" t="n">
-        <v>436.2122939511053</v>
+        <v>492.5375189847952</v>
       </c>
       <c r="AC16" t="n">
-        <v>394.5808048442106</v>
+        <v>445.5304294536351</v>
       </c>
       <c r="AD16" t="n">
-        <v>318811.7446057511</v>
+        <v>359977.8087156157</v>
       </c>
       <c r="AE16" t="n">
-        <v>436212.2939511053</v>
+        <v>492537.5189847951</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.37039312629282e-06</v>
+        <v>5.004505305227828e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>9.610416666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>394580.8048442106</v>
+        <v>445530.4294536351</v>
       </c>
     </row>
     <row r="17">
@@ -20773,28 +20773,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>320.2216929039631</v>
+        <v>361.3877570138276</v>
       </c>
       <c r="AB17" t="n">
-        <v>438.1414474152475</v>
+        <v>494.4666724489375</v>
       </c>
       <c r="AC17" t="n">
-        <v>396.3258426093191</v>
+        <v>447.2754672187435</v>
       </c>
       <c r="AD17" t="n">
-        <v>320221.692903963</v>
+        <v>361387.7570138276</v>
       </c>
       <c r="AE17" t="n">
-        <v>438141.4474152475</v>
+        <v>494466.6724489374</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.37039312629282e-06</v>
+        <v>5.004505305227828e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>10</v>
+        <v>9.610416666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>396325.8426093191</v>
+        <v>447275.4672187435</v>
       </c>
     </row>
   </sheetData>
@@ -21070,28 +21070,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1221.668441700517</v>
+        <v>1305.168251570964</v>
       </c>
       <c r="AB2" t="n">
-        <v>1671.540658142492</v>
+        <v>1785.788781758862</v>
       </c>
       <c r="AC2" t="n">
-        <v>1512.01116375142</v>
+        <v>1615.355606798092</v>
       </c>
       <c r="AD2" t="n">
-        <v>1221668.441700517</v>
+        <v>1305168.251570964</v>
       </c>
       <c r="AE2" t="n">
-        <v>1671540.658142492</v>
+        <v>1785788.781758862</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.581381115762829e-06</v>
+        <v>2.325329968330721e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.07083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1512011.16375142</v>
+        <v>1615355.606798092</v>
       </c>
     </row>
     <row r="3">
@@ -21176,28 +21176,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>588.1069231277039</v>
+        <v>646.5311251246592</v>
       </c>
       <c r="AB3" t="n">
-        <v>804.673837669636</v>
+        <v>884.6124083357519</v>
       </c>
       <c r="AC3" t="n">
-        <v>727.8768959692695</v>
+        <v>800.1862416454999</v>
       </c>
       <c r="AD3" t="n">
-        <v>588106.923127704</v>
+        <v>646531.1251246592</v>
       </c>
       <c r="AE3" t="n">
-        <v>804673.837669636</v>
+        <v>884612.4083357519</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.449464892026471e-06</v>
+        <v>3.601797228402826e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.95833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>727876.8959692696</v>
+        <v>800186.2416454998</v>
       </c>
     </row>
     <row r="4">
@@ -21282,28 +21282,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>488.7080812120818</v>
+        <v>538.6885257413699</v>
       </c>
       <c r="AB4" t="n">
-        <v>668.6719569932661</v>
+        <v>737.0574061798309</v>
       </c>
       <c r="AC4" t="n">
-        <v>604.8548439048139</v>
+        <v>666.7136818005936</v>
       </c>
       <c r="AD4" t="n">
-        <v>488708.0812120818</v>
+        <v>538688.5257413698</v>
       </c>
       <c r="AE4" t="n">
-        <v>668671.9569932661</v>
+        <v>737057.4061798309</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.760865951816377e-06</v>
+        <v>4.059694574767759e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.49583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>604854.843904814</v>
+        <v>666713.6818005936</v>
       </c>
     </row>
     <row r="5">
@@ -21388,28 +21388,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>442.5758162801716</v>
+        <v>492.6415121554802</v>
       </c>
       <c r="AB5" t="n">
-        <v>605.5517569015359</v>
+        <v>674.0538507407499</v>
       </c>
       <c r="AC5" t="n">
-        <v>547.7587471200814</v>
+        <v>609.7230972665731</v>
       </c>
       <c r="AD5" t="n">
-        <v>442575.8162801716</v>
+        <v>492641.5121554802</v>
       </c>
       <c r="AE5" t="n">
-        <v>605551.7569015359</v>
+        <v>674053.8507407499</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.921289296218907e-06</v>
+        <v>4.295587875023274e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.86458333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>547758.7471200813</v>
+        <v>609723.0972665731</v>
       </c>
     </row>
     <row r="6">
@@ -21494,28 +21494,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>421.5650239927157</v>
+        <v>463.442895455521</v>
       </c>
       <c r="AB6" t="n">
-        <v>576.8038639631027</v>
+        <v>634.1030152198101</v>
       </c>
       <c r="AC6" t="n">
-        <v>521.754512735771</v>
+        <v>573.585113416402</v>
       </c>
       <c r="AD6" t="n">
-        <v>421565.0239927158</v>
+        <v>463442.8954555209</v>
       </c>
       <c r="AE6" t="n">
-        <v>576803.8639631027</v>
+        <v>634103.0152198101</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.018792563472107e-06</v>
+        <v>4.438960821047519e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.51458333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>521754.512735771</v>
+        <v>573585.113416402</v>
       </c>
     </row>
     <row r="7">
@@ -21600,28 +21600,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>407.557050422055</v>
+        <v>449.264329684268</v>
       </c>
       <c r="AB7" t="n">
-        <v>557.6375365355461</v>
+        <v>614.7032760174064</v>
       </c>
       <c r="AC7" t="n">
-        <v>504.4173926977908</v>
+        <v>556.036858095771</v>
       </c>
       <c r="AD7" t="n">
-        <v>407557.050422055</v>
+        <v>449264.329684268</v>
       </c>
       <c r="AE7" t="n">
-        <v>557637.5365355462</v>
+        <v>614703.2760174065</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.084607268868016e-06</v>
+        <v>4.535737559613885e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.28958333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>504417.3926977908</v>
+        <v>556036.8580957709</v>
       </c>
     </row>
     <row r="8">
@@ -21706,28 +21706,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>397.106311321947</v>
+        <v>438.81359058416</v>
       </c>
       <c r="AB8" t="n">
-        <v>543.3383742447088</v>
+        <v>600.4041137265691</v>
       </c>
       <c r="AC8" t="n">
-        <v>491.4829223869908</v>
+        <v>543.1023877849707</v>
       </c>
       <c r="AD8" t="n">
-        <v>397106.311321947</v>
+        <v>438813.5905841599</v>
       </c>
       <c r="AE8" t="n">
-        <v>543338.3742447088</v>
+        <v>600404.1137265691</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.133206553639533e-06</v>
+        <v>4.607200012397844e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.12916666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>491482.9223869907</v>
+        <v>543102.3877849707</v>
       </c>
     </row>
     <row r="9">
@@ -21812,28 +21812,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>389.0112596239921</v>
+        <v>430.7185388862051</v>
       </c>
       <c r="AB9" t="n">
-        <v>532.262367383091</v>
+        <v>589.3281068649513</v>
       </c>
       <c r="AC9" t="n">
-        <v>481.4639940749724</v>
+        <v>533.0834594729524</v>
       </c>
       <c r="AD9" t="n">
-        <v>389011.2596239921</v>
+        <v>430718.5388862051</v>
       </c>
       <c r="AE9" t="n">
-        <v>532262.367383091</v>
+        <v>589328.1068649513</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.167485046033235e-06</v>
+        <v>4.657604563734492e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.02083333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>481463.9940749724</v>
+        <v>533083.4594729524</v>
       </c>
     </row>
     <row r="10">
@@ -21918,28 +21918,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>372.781249705236</v>
+        <v>422.7616047259729</v>
       </c>
       <c r="AB10" t="n">
-        <v>510.055751794745</v>
+        <v>578.4410785117612</v>
       </c>
       <c r="AC10" t="n">
-        <v>461.3767467111975</v>
+        <v>523.2354738257505</v>
       </c>
       <c r="AD10" t="n">
-        <v>372781.2497052359</v>
+        <v>422761.6047259729</v>
       </c>
       <c r="AE10" t="n">
-        <v>510055.751794745</v>
+        <v>578441.0785117613</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.198716561325276e-06</v>
+        <v>4.703528710507884e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.922916666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>461376.7467111975</v>
+        <v>523235.4738257506</v>
       </c>
     </row>
     <row r="11">
@@ -22024,28 +22024,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>367.8469231438483</v>
+        <v>409.6394537520818</v>
       </c>
       <c r="AB11" t="n">
-        <v>503.3043885063302</v>
+        <v>560.4867726408398</v>
       </c>
       <c r="AC11" t="n">
-        <v>455.269724059431</v>
+        <v>506.9947017081233</v>
       </c>
       <c r="AD11" t="n">
-        <v>367846.9231438483</v>
+        <v>409639.4537520818</v>
       </c>
       <c r="AE11" t="n">
-        <v>503304.3885063302</v>
+        <v>560486.7726408398</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.218369563630999e-06</v>
+        <v>4.732427319940895e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.862500000000001</v>
       </c>
       <c r="AH11" t="n">
-        <v>455269.724059431</v>
+        <v>506994.7017081233</v>
       </c>
     </row>
     <row r="12">
@@ -22130,28 +22130,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>361.9978252935665</v>
+        <v>403.7903559018</v>
       </c>
       <c r="AB12" t="n">
-        <v>495.3013947835893</v>
+        <v>552.483778918099</v>
       </c>
       <c r="AC12" t="n">
-        <v>448.0305248253164</v>
+        <v>499.7555024740087</v>
       </c>
       <c r="AD12" t="n">
-        <v>361997.8252935664</v>
+        <v>403790.3559018</v>
       </c>
       <c r="AE12" t="n">
-        <v>495301.3947835893</v>
+        <v>552483.778918099</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.238936659067221e-06</v>
+        <v>4.762670050742884e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.799999999999999</v>
       </c>
       <c r="AH12" t="n">
-        <v>448030.5248253164</v>
+        <v>499755.5024740087</v>
       </c>
     </row>
     <row r="13">
@@ -22236,28 +22236,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>357.1771255998834</v>
+        <v>398.9696562081169</v>
       </c>
       <c r="AB13" t="n">
-        <v>488.7055007884314</v>
+        <v>545.887884922941</v>
       </c>
       <c r="AC13" t="n">
-        <v>442.064133695661</v>
+        <v>493.7891113443532</v>
       </c>
       <c r="AD13" t="n">
-        <v>357177.1255998834</v>
+        <v>398969.6562081169</v>
       </c>
       <c r="AE13" t="n">
-        <v>488705.5007884314</v>
+        <v>545887.884922941</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.255695033126364e-06</v>
+        <v>4.787312275840801e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9.747916666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>442064.133695661</v>
+        <v>493789.1113443532</v>
       </c>
     </row>
     <row r="14">
@@ -22342,28 +22342,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>353.027255088874</v>
+        <v>394.8197856971075</v>
       </c>
       <c r="AB14" t="n">
-        <v>483.0274648759026</v>
+        <v>540.2098490104122</v>
       </c>
       <c r="AC14" t="n">
-        <v>436.9280015614503</v>
+        <v>488.6529792101426</v>
       </c>
       <c r="AD14" t="n">
-        <v>353027.255088874</v>
+        <v>394819.7856971076</v>
       </c>
       <c r="AE14" t="n">
-        <v>483027.4648759026</v>
+        <v>540209.8490104122</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.265293010996601e-06</v>
+        <v>4.801425550215063e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>9.720833333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>436928.0015614504</v>
+        <v>488652.9792101426</v>
       </c>
     </row>
     <row r="15">
@@ -22448,28 +22448,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>348.7402702335161</v>
+        <v>390.5328008417495</v>
       </c>
       <c r="AB15" t="n">
-        <v>477.1618230683779</v>
+        <v>534.3442072028877</v>
       </c>
       <c r="AC15" t="n">
-        <v>431.6221683755559</v>
+        <v>483.3471460242482</v>
       </c>
       <c r="AD15" t="n">
-        <v>348740.2702335161</v>
+        <v>390532.8008417495</v>
       </c>
       <c r="AE15" t="n">
-        <v>477161.8230683779</v>
+        <v>534344.2072028876</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.276414477417669e-06</v>
+        <v>4.817779026870953e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>10</v>
+        <v>9.6875</v>
       </c>
       <c r="AH15" t="n">
-        <v>431622.1683755559</v>
+        <v>483347.1460242482</v>
       </c>
     </row>
     <row r="16">
@@ -22554,28 +22554,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>344.2754023858583</v>
+        <v>386.067932994092</v>
       </c>
       <c r="AB16" t="n">
-        <v>471.0527939031452</v>
+        <v>528.2351780376548</v>
       </c>
       <c r="AC16" t="n">
-        <v>426.0961763797768</v>
+        <v>477.8211540284691</v>
       </c>
       <c r="AD16" t="n">
-        <v>344275.4023858584</v>
+        <v>386067.9329940919</v>
       </c>
       <c r="AE16" t="n">
-        <v>471052.7939031452</v>
+        <v>528235.1780376548</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.286774199563322e-06</v>
+        <v>4.833012402386029e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>9.65625</v>
       </c>
       <c r="AH16" t="n">
-        <v>426096.1763797767</v>
+        <v>477821.1540284691</v>
       </c>
     </row>
     <row r="17">
@@ -22660,28 +22660,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>339.5134357906459</v>
+        <v>381.3059663988795</v>
       </c>
       <c r="AB17" t="n">
-        <v>464.5372611244363</v>
+        <v>521.7196452589459</v>
       </c>
       <c r="AC17" t="n">
-        <v>420.2024769048601</v>
+        <v>471.9274545535524</v>
       </c>
       <c r="AD17" t="n">
-        <v>339513.4357906459</v>
+        <v>381305.9663988795</v>
       </c>
       <c r="AE17" t="n">
-        <v>464537.2611244363</v>
+        <v>521719.6452589459</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.298809759114888e-06</v>
+        <v>4.850710000410896e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>10</v>
+        <v>9.620833333333334</v>
       </c>
       <c r="AH17" t="n">
-        <v>420202.4769048601</v>
+        <v>471927.4545535524</v>
       </c>
     </row>
     <row r="18">
@@ -22766,28 +22766,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>337.1570497974402</v>
+        <v>378.9495804056738</v>
       </c>
       <c r="AB18" t="n">
-        <v>461.313149852119</v>
+        <v>518.4955339866287</v>
       </c>
       <c r="AC18" t="n">
-        <v>417.2860702873043</v>
+        <v>469.0110479359965</v>
       </c>
       <c r="AD18" t="n">
-        <v>337157.0497974402</v>
+        <v>378949.5804056738</v>
       </c>
       <c r="AE18" t="n">
-        <v>461313.149852119</v>
+        <v>518495.5339866287</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.30475136446313e-06</v>
+        <v>4.85944678930925e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>10</v>
+        <v>9.604166666666666</v>
       </c>
       <c r="AH18" t="n">
-        <v>417286.0702873042</v>
+        <v>469011.0479359966</v>
       </c>
     </row>
     <row r="19">
@@ -22872,28 +22872,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>336.9041122751801</v>
+        <v>378.6966428834136</v>
       </c>
       <c r="AB19" t="n">
-        <v>460.9670695753468</v>
+        <v>518.1494537098565</v>
       </c>
       <c r="AC19" t="n">
-        <v>416.9730194264204</v>
+        <v>468.6979970751127</v>
       </c>
       <c r="AD19" t="n">
-        <v>336904.1122751801</v>
+        <v>378696.6428834136</v>
       </c>
       <c r="AE19" t="n">
-        <v>460967.0695753468</v>
+        <v>518149.4537098565</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.301552038506385e-06</v>
+        <v>4.854742364517829e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>10</v>
+        <v>9.614583333333334</v>
       </c>
       <c r="AH19" t="n">
-        <v>416973.0194264204</v>
+        <v>468697.9970751127</v>
       </c>
     </row>
     <row r="20">
@@ -22978,28 +22978,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>337.8183286469186</v>
+        <v>379.6108592551521</v>
       </c>
       <c r="AB20" t="n">
-        <v>462.2179407475393</v>
+        <v>519.4003248820489</v>
       </c>
       <c r="AC20" t="n">
-        <v>418.1045092095475</v>
+        <v>469.8294868582399</v>
       </c>
       <c r="AD20" t="n">
-        <v>337818.3286469186</v>
+        <v>379610.8592551522</v>
       </c>
       <c r="AE20" t="n">
-        <v>462217.9407475393</v>
+        <v>519400.3248820489</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.302161433926717e-06</v>
+        <v>4.85563844543048e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>10</v>
+        <v>9.612499999999999</v>
       </c>
       <c r="AH20" t="n">
-        <v>418104.5092095475</v>
+        <v>469829.4868582399</v>
       </c>
     </row>
   </sheetData>
@@ -23275,28 +23275,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1944.742681012686</v>
+        <v>2056.138026520374</v>
       </c>
       <c r="AB2" t="n">
-        <v>2660.882732153466</v>
+        <v>2813.298758292885</v>
       </c>
       <c r="AC2" t="n">
-        <v>2406.931818769109</v>
+        <v>2544.801473291018</v>
       </c>
       <c r="AD2" t="n">
-        <v>1944742.681012687</v>
+        <v>2056138.026520374</v>
       </c>
       <c r="AE2" t="n">
-        <v>2660882.732153466</v>
+        <v>2813298.758292885</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.217432189380576e-06</v>
+        <v>1.761347420325334e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.16458333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2406931.818769109</v>
+        <v>2544801.473291018</v>
       </c>
     </row>
     <row r="3">
@@ -23381,28 +23381,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>745.4583313116902</v>
+        <v>805.4470464239741</v>
       </c>
       <c r="AB3" t="n">
-        <v>1019.968976201164</v>
+        <v>1102.048182733119</v>
       </c>
       <c r="AC3" t="n">
-        <v>922.624568647973</v>
+        <v>996.8702509074086</v>
       </c>
       <c r="AD3" t="n">
-        <v>745458.3313116903</v>
+        <v>805447.0464239741</v>
       </c>
       <c r="AE3" t="n">
-        <v>1019968.976201164</v>
+        <v>1102048.182733119</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.171055543424909e-06</v>
+        <v>3.141023470670761e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.11041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>922624.568647973</v>
+        <v>996870.2509074087</v>
       </c>
     </row>
     <row r="4">
@@ -23487,28 +23487,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>590.6667470730101</v>
+        <v>642.0734669769646</v>
       </c>
       <c r="AB4" t="n">
-        <v>808.1763017230662</v>
+        <v>878.5132438000783</v>
       </c>
       <c r="AC4" t="n">
-        <v>731.0450897691793</v>
+        <v>794.6691728128797</v>
       </c>
       <c r="AD4" t="n">
-        <v>590666.7470730101</v>
+        <v>642073.4669769646</v>
       </c>
       <c r="AE4" t="n">
-        <v>808176.3017230663</v>
+        <v>878513.2438000783</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.517947986322454e-06</v>
+        <v>3.642897919824942e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.16666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>731045.0897691794</v>
+        <v>794669.1728128797</v>
       </c>
     </row>
     <row r="5">
@@ -23593,28 +23593,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>529.179414160591</v>
+        <v>580.5007932099738</v>
       </c>
       <c r="AB5" t="n">
-        <v>724.046620202614</v>
+        <v>794.2667951574284</v>
       </c>
       <c r="AC5" t="n">
-        <v>654.9446269762896</v>
+        <v>718.4630869880509</v>
       </c>
       <c r="AD5" t="n">
-        <v>529179.414160591</v>
+        <v>580500.7932099738</v>
       </c>
       <c r="AE5" t="n">
-        <v>724046.620202614</v>
+        <v>794266.7951574284</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.696173353338913e-06</v>
+        <v>3.900749480814712e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.3625</v>
       </c>
       <c r="AH5" t="n">
-        <v>654944.6269762896</v>
+        <v>718463.086988051</v>
       </c>
     </row>
     <row r="6">
@@ -23699,28 +23699,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>491.3022396303912</v>
+        <v>542.7088700257947</v>
       </c>
       <c r="AB6" t="n">
-        <v>672.2213989873894</v>
+        <v>742.5582185948529</v>
       </c>
       <c r="AC6" t="n">
-        <v>608.0655321366911</v>
+        <v>671.6895043991648</v>
       </c>
       <c r="AD6" t="n">
-        <v>491302.2396303912</v>
+        <v>542708.8700257947</v>
       </c>
       <c r="AE6" t="n">
-        <v>672221.3989873894</v>
+        <v>742558.2185948528</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.808667087470588e-06</v>
+        <v>4.063502322528551e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.90833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>608065.5321366912</v>
+        <v>671689.5043991648</v>
       </c>
     </row>
     <row r="7">
@@ -23805,28 +23805,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>472.4867176993801</v>
+        <v>523.8933480947836</v>
       </c>
       <c r="AB7" t="n">
-        <v>646.4771717991367</v>
+        <v>716.8139914066003</v>
       </c>
       <c r="AC7" t="n">
-        <v>584.7782978590354</v>
+        <v>648.4022701215092</v>
       </c>
       <c r="AD7" t="n">
-        <v>472486.7176993801</v>
+        <v>523893.3480947836</v>
       </c>
       <c r="AE7" t="n">
-        <v>646477.1717991367</v>
+        <v>716813.9914066002</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.885868669717816e-06</v>
+        <v>4.175195449194912e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.61666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>584778.2978590354</v>
+        <v>648402.2701215092</v>
       </c>
     </row>
     <row r="8">
@@ -23911,28 +23911,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>458.902833651699</v>
+        <v>501.7275583473244</v>
       </c>
       <c r="AB8" t="n">
-        <v>627.8911023664302</v>
+        <v>686.4857799884986</v>
       </c>
       <c r="AC8" t="n">
-        <v>567.9660568072742</v>
+        <v>620.9685406352392</v>
       </c>
       <c r="AD8" t="n">
-        <v>458902.833651699</v>
+        <v>501727.5583473244</v>
       </c>
       <c r="AE8" t="n">
-        <v>627891.1023664302</v>
+        <v>686485.7799884987</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.941894960834376e-06</v>
+        <v>4.256252746832786e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.41458333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>567966.0568072742</v>
+        <v>620968.5406352391</v>
       </c>
     </row>
     <row r="9">
@@ -24017,28 +24017,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>448.677643895086</v>
+        <v>491.5023685907113</v>
       </c>
       <c r="AB9" t="n">
-        <v>613.9005466378975</v>
+        <v>672.4952242599659</v>
       </c>
       <c r="AC9" t="n">
-        <v>555.3107400816044</v>
+        <v>608.3132239095692</v>
       </c>
       <c r="AD9" t="n">
-        <v>448677.643895086</v>
+        <v>491502.3685907113</v>
       </c>
       <c r="AE9" t="n">
-        <v>613900.5466378975</v>
+        <v>672495.2242599659</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.984686694994269e-06</v>
+        <v>4.318162651327854e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.26458333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>555310.7400816045</v>
+        <v>608313.2239095692</v>
       </c>
     </row>
     <row r="10">
@@ -24123,28 +24123,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>441.4783933657839</v>
+        <v>484.3031180614092</v>
       </c>
       <c r="AB10" t="n">
-        <v>604.0502144551886</v>
+        <v>662.6448920772571</v>
       </c>
       <c r="AC10" t="n">
-        <v>546.4005097773853</v>
+        <v>599.40299360535</v>
       </c>
       <c r="AD10" t="n">
-        <v>441478.3933657838</v>
+        <v>484303.1180614092</v>
       </c>
       <c r="AE10" t="n">
-        <v>604050.2144551886</v>
+        <v>662644.892077257</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.015861429158864e-06</v>
+        <v>4.363265399619794e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.15833333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>546400.5097773853</v>
+        <v>599402.99360535</v>
       </c>
     </row>
     <row r="11">
@@ -24229,28 +24229,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>434.5663257447047</v>
+        <v>477.39105044033</v>
       </c>
       <c r="AB11" t="n">
-        <v>594.5928185971262</v>
+        <v>653.1874962191946</v>
       </c>
       <c r="AC11" t="n">
-        <v>537.8457145064779</v>
+        <v>590.8481983344426</v>
       </c>
       <c r="AD11" t="n">
-        <v>434566.3257447047</v>
+        <v>477391.05044033</v>
       </c>
       <c r="AE11" t="n">
-        <v>594592.8185971262</v>
+        <v>653187.4962191946</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.042183492439347e-06</v>
+        <v>4.401347437092705e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.07083333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>537845.7145064778</v>
+        <v>590848.1983344426</v>
       </c>
     </row>
     <row r="12">
@@ -24335,28 +24335,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>429.2985476978214</v>
+        <v>472.1232723934467</v>
       </c>
       <c r="AB12" t="n">
-        <v>587.3852122754148</v>
+        <v>645.9798898974833</v>
       </c>
       <c r="AC12" t="n">
-        <v>531.3259920161717</v>
+        <v>584.3284758441364</v>
       </c>
       <c r="AD12" t="n">
-        <v>429298.5476978214</v>
+        <v>472123.2723934467</v>
       </c>
       <c r="AE12" t="n">
-        <v>587385.2122754148</v>
+        <v>645979.8898974833</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.062623530405756e-06</v>
+        <v>4.430919522057704e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.00208333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>531325.9920161717</v>
+        <v>584328.4758441364</v>
       </c>
     </row>
     <row r="13">
@@ -24441,28 +24441,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>414.5655184270014</v>
+        <v>465.8868079678332</v>
       </c>
       <c r="AB13" t="n">
-        <v>567.2268316517004</v>
+        <v>637.4468841369663</v>
       </c>
       <c r="AC13" t="n">
-        <v>513.0914989467195</v>
+        <v>576.6098481772544</v>
       </c>
       <c r="AD13" t="n">
-        <v>414565.5184270014</v>
+        <v>465886.8079678332</v>
       </c>
       <c r="AE13" t="n">
-        <v>567226.8316517004</v>
+        <v>637446.8841369663</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.085269327864943e-06</v>
+        <v>4.46368283921317e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9.929166666666665</v>
       </c>
       <c r="AH13" t="n">
-        <v>513091.4989467196</v>
+        <v>576609.8481772544</v>
       </c>
     </row>
     <row r="14">
@@ -24547,28 +24547,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>410.2756622391978</v>
+        <v>453.1856382808436</v>
       </c>
       <c r="AB14" t="n">
-        <v>561.3572611604495</v>
+        <v>620.0685834351672</v>
       </c>
       <c r="AC14" t="n">
-        <v>507.7821120251597</v>
+        <v>560.8901081038367</v>
       </c>
       <c r="AD14" t="n">
-        <v>410275.6622391978</v>
+        <v>453185.6382808436</v>
       </c>
       <c r="AE14" t="n">
-        <v>561357.2611604495</v>
+        <v>620068.5834351672</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.100562593681536e-06</v>
+        <v>4.485808715733744e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>9.88125</v>
       </c>
       <c r="AH14" t="n">
-        <v>507782.1120251597</v>
+        <v>560890.1081038368</v>
       </c>
     </row>
     <row r="15">
@@ -24653,28 +24653,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>406.6179255558653</v>
+        <v>449.5279015975111</v>
       </c>
       <c r="AB15" t="n">
-        <v>556.3525844623603</v>
+        <v>615.0639067370779</v>
       </c>
       <c r="AC15" t="n">
-        <v>503.2550746470282</v>
+        <v>556.3630707257053</v>
       </c>
       <c r="AD15" t="n">
-        <v>406617.9255558653</v>
+        <v>449527.9015975111</v>
       </c>
       <c r="AE15" t="n">
-        <v>556352.5844623602</v>
+        <v>615063.9067370779</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.112179593676834e-06</v>
+        <v>4.502615871936872e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>10</v>
+        <v>9.84375</v>
       </c>
       <c r="AH15" t="n">
-        <v>503255.0746470282</v>
+        <v>556363.0707257052</v>
       </c>
     </row>
     <row r="16">
@@ -24759,28 +24759,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>403.3274207079398</v>
+        <v>446.2373967495858</v>
       </c>
       <c r="AB16" t="n">
-        <v>551.8503705626002</v>
+        <v>610.561692837318</v>
       </c>
       <c r="AC16" t="n">
-        <v>499.1825457229644</v>
+        <v>552.2905418016414</v>
       </c>
       <c r="AD16" t="n">
-        <v>403327.4207079398</v>
+        <v>446237.3967495858</v>
       </c>
       <c r="AE16" t="n">
-        <v>551850.3705626002</v>
+        <v>610561.6928373179</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.122326087343612e-06</v>
+        <v>4.517295540013023e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>9.8125</v>
       </c>
       <c r="AH16" t="n">
-        <v>499182.5457229644</v>
+        <v>552290.5418016415</v>
       </c>
     </row>
     <row r="17">
@@ -24865,28 +24865,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>399.2006232332147</v>
+        <v>442.1105992748606</v>
       </c>
       <c r="AB17" t="n">
-        <v>546.2039041962259</v>
+        <v>604.9152264709436</v>
       </c>
       <c r="AC17" t="n">
-        <v>494.0749701817315</v>
+        <v>547.1829662604086</v>
       </c>
       <c r="AD17" t="n">
-        <v>399200.6232332147</v>
+        <v>442110.5992748606</v>
       </c>
       <c r="AE17" t="n">
-        <v>546203.9041962259</v>
+        <v>604915.2264709435</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.133354884807502e-06</v>
+        <v>4.533251700965359e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>10</v>
+        <v>9.777083333333334</v>
       </c>
       <c r="AH17" t="n">
-        <v>494074.9701817315</v>
+        <v>547182.9662604086</v>
       </c>
     </row>
     <row r="18">
@@ -24971,28 +24971,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>395.3185144408752</v>
+        <v>438.2284904825212</v>
       </c>
       <c r="AB18" t="n">
-        <v>540.8922316799946</v>
+        <v>599.6035539547122</v>
       </c>
       <c r="AC18" t="n">
-        <v>489.2702362354701</v>
+        <v>542.3782323141472</v>
       </c>
       <c r="AD18" t="n">
-        <v>395318.5144408752</v>
+        <v>438228.4904825212</v>
       </c>
       <c r="AE18" t="n">
-        <v>540892.2316799945</v>
+        <v>599603.5539547122</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.145118935435651e-06</v>
+        <v>4.550271605981186e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>10</v>
+        <v>9.741666666666665</v>
       </c>
       <c r="AH18" t="n">
-        <v>489270.2362354701</v>
+        <v>542378.2323141472</v>
       </c>
     </row>
     <row r="19">
@@ -25077,28 +25077,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>393.4306570700215</v>
+        <v>436.3406331116673</v>
       </c>
       <c r="AB19" t="n">
-        <v>538.3091819388032</v>
+        <v>597.020504213521</v>
       </c>
       <c r="AC19" t="n">
-        <v>486.933709136245</v>
+        <v>540.0417052149222</v>
       </c>
       <c r="AD19" t="n">
-        <v>393430.6570700215</v>
+        <v>436340.6331116674</v>
       </c>
       <c r="AE19" t="n">
-        <v>538309.1819388033</v>
+        <v>597020.504213521</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.150118656952614e-06</v>
+        <v>4.557505065612912e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>10</v>
+        <v>9.725</v>
       </c>
       <c r="AH19" t="n">
-        <v>486933.709136245</v>
+        <v>540041.7052149222</v>
       </c>
     </row>
     <row r="20">
@@ -25183,28 +25183,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>390.8314630337172</v>
+        <v>433.741439075363</v>
       </c>
       <c r="AB20" t="n">
-        <v>534.7528499899837</v>
+        <v>593.4641722647013</v>
       </c>
       <c r="AC20" t="n">
-        <v>483.7167885172776</v>
+        <v>536.8247845959547</v>
       </c>
       <c r="AD20" t="n">
-        <v>390831.4630337172</v>
+        <v>433741.439075363</v>
       </c>
       <c r="AE20" t="n">
-        <v>534752.8499899837</v>
+        <v>593464.1722647013</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.155853631633837e-06</v>
+        <v>4.565802269308128e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>10</v>
+        <v>9.708333333333334</v>
       </c>
       <c r="AH20" t="n">
-        <v>483716.7885172776</v>
+        <v>536824.7845959547</v>
       </c>
     </row>
     <row r="21">
@@ -25289,28 +25289,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>387.1793565159317</v>
+        <v>430.0893325575776</v>
       </c>
       <c r="AB21" t="n">
-        <v>529.7558767327814</v>
+        <v>588.4671990074991</v>
       </c>
       <c r="AC21" t="n">
-        <v>479.1967193744466</v>
+        <v>532.3047154531237</v>
       </c>
       <c r="AD21" t="n">
-        <v>387179.3565159317</v>
+        <v>430089.3325575776</v>
       </c>
       <c r="AE21" t="n">
-        <v>529755.8767327814</v>
+        <v>588467.199007499</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.161147454416505e-06</v>
+        <v>4.57346122656525e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>10</v>
+        <v>9.691666666666668</v>
       </c>
       <c r="AH21" t="n">
-        <v>479196.7193744466</v>
+        <v>532304.7154531237</v>
       </c>
     </row>
     <row r="22">
@@ -25395,28 +25395,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>382.8239087905118</v>
+        <v>425.7338848321577</v>
       </c>
       <c r="AB22" t="n">
-        <v>523.7965610060693</v>
+        <v>582.5078832807869</v>
       </c>
       <c r="AC22" t="n">
-        <v>473.8061523767398</v>
+        <v>526.914148455417</v>
       </c>
       <c r="AD22" t="n">
-        <v>382823.9087905118</v>
+        <v>425733.8848321577</v>
       </c>
       <c r="AE22" t="n">
-        <v>523796.5610060693</v>
+        <v>582507.8832807869</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.173205606310357e-06</v>
+        <v>4.590906629206473e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>10</v>
+        <v>9.654166666666667</v>
       </c>
       <c r="AH22" t="n">
-        <v>473806.1523767398</v>
+        <v>526914.148455417</v>
       </c>
     </row>
     <row r="23">
@@ -25501,28 +25501,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>381.1695574211597</v>
+        <v>424.0795334628056</v>
       </c>
       <c r="AB23" t="n">
-        <v>521.5330044776903</v>
+        <v>580.244326752408</v>
       </c>
       <c r="AC23" t="n">
-        <v>471.7586265065078</v>
+        <v>524.8666225851849</v>
       </c>
       <c r="AD23" t="n">
-        <v>381169.5574211596</v>
+        <v>424079.5334628056</v>
       </c>
       <c r="AE23" t="n">
-        <v>521533.0044776903</v>
+        <v>580244.3267524081</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.173205606310357e-06</v>
+        <v>4.590906629206473e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>10</v>
+        <v>9.654166666666667</v>
       </c>
       <c r="AH23" t="n">
-        <v>471758.6265065078</v>
+        <v>524866.6225851849</v>
       </c>
     </row>
     <row r="24">
@@ -25607,28 +25607,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>376.6731797291705</v>
+        <v>419.5831557708165</v>
       </c>
       <c r="AB24" t="n">
-        <v>515.380862153327</v>
+        <v>574.0921844280447</v>
       </c>
       <c r="AC24" t="n">
-        <v>466.1936360109957</v>
+        <v>519.3016320896728</v>
       </c>
       <c r="AD24" t="n">
-        <v>376673.1797291705</v>
+        <v>419583.1557708164</v>
       </c>
       <c r="AE24" t="n">
-        <v>515380.862153327</v>
+        <v>574092.1844280447</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.18055813795295e-06</v>
+        <v>4.601544069841363e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>10</v>
+        <v>9.633333333333335</v>
       </c>
       <c r="AH24" t="n">
-        <v>466193.6360109957</v>
+        <v>519301.6320896728</v>
       </c>
     </row>
     <row r="25">
@@ -25713,28 +25713,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>376.2522475355375</v>
+        <v>419.1622235771835</v>
       </c>
       <c r="AB25" t="n">
-        <v>514.8049241557806</v>
+        <v>573.5162464304983</v>
       </c>
       <c r="AC25" t="n">
-        <v>465.6726647276012</v>
+        <v>518.7806608062782</v>
       </c>
       <c r="AD25" t="n">
-        <v>376252.2475355375</v>
+        <v>419162.2235771834</v>
       </c>
       <c r="AE25" t="n">
-        <v>514804.9241557806</v>
+        <v>573516.2464304983</v>
       </c>
       <c r="AF25" t="n">
-        <v>3.183205049344284e-06</v>
+        <v>4.605373548469924e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>10</v>
+        <v>9.622916666666667</v>
       </c>
       <c r="AH25" t="n">
-        <v>465672.6647276012</v>
+        <v>518780.6608062782</v>
       </c>
     </row>
     <row r="26">
@@ -25819,28 +25819,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>373.7809329805762</v>
+        <v>416.6909090222221</v>
       </c>
       <c r="AB26" t="n">
-        <v>511.4235625549791</v>
+        <v>570.1348848296968</v>
       </c>
       <c r="AC26" t="n">
-        <v>462.6140155322093</v>
+        <v>515.7220116108863</v>
       </c>
       <c r="AD26" t="n">
-        <v>373780.9329805762</v>
+        <v>416690.9090222221</v>
       </c>
       <c r="AE26" t="n">
-        <v>511423.5625549791</v>
+        <v>570134.8848296968</v>
       </c>
       <c r="AF26" t="n">
-        <v>3.18923412529121e-06</v>
+        <v>4.614096249790536e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>10</v>
+        <v>9.606250000000001</v>
       </c>
       <c r="AH26" t="n">
-        <v>462614.0155322093</v>
+        <v>515722.0116108863</v>
       </c>
     </row>
     <row r="27">
@@ -25925,28 +25925,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>374.2948176700419</v>
+        <v>417.2047937116878</v>
       </c>
       <c r="AB27" t="n">
-        <v>512.1266822580984</v>
+        <v>570.8380045328162</v>
       </c>
       <c r="AC27" t="n">
-        <v>463.2500304776977</v>
+        <v>516.3580265563747</v>
       </c>
       <c r="AD27" t="n">
-        <v>374294.8176700419</v>
+        <v>417204.7937116878</v>
       </c>
       <c r="AE27" t="n">
-        <v>512126.6822580984</v>
+        <v>570838.0045328161</v>
       </c>
       <c r="AF27" t="n">
-        <v>3.18923412529121e-06</v>
+        <v>4.614096249790536e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>10</v>
+        <v>9.606250000000001</v>
       </c>
       <c r="AH27" t="n">
-        <v>463250.0304776977</v>
+        <v>516358.0265563747</v>
       </c>
     </row>
     <row r="28">
@@ -26031,28 +26031,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>375.6553654960317</v>
+        <v>418.5653415376776</v>
       </c>
       <c r="AB28" t="n">
-        <v>513.9882438167516</v>
+        <v>572.6995660914693</v>
       </c>
       <c r="AC28" t="n">
-        <v>464.933927213911</v>
+        <v>518.041923292588</v>
       </c>
       <c r="AD28" t="n">
-        <v>375655.3654960317</v>
+        <v>418565.3415376776</v>
       </c>
       <c r="AE28" t="n">
-        <v>513988.2438167516</v>
+        <v>572699.5660914693</v>
       </c>
       <c r="AF28" t="n">
-        <v>3.188498872126951e-06</v>
+        <v>4.613032505727046e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>10</v>
+        <v>9.608333333333333</v>
       </c>
       <c r="AH28" t="n">
-        <v>464933.927213911</v>
+        <v>518041.923292588</v>
       </c>
     </row>
   </sheetData>
@@ -26328,28 +26328,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>783.2526376082609</v>
+        <v>847.9338601278318</v>
       </c>
       <c r="AB2" t="n">
-        <v>1071.680813443248</v>
+        <v>1160.18051562867</v>
       </c>
       <c r="AC2" t="n">
-        <v>969.4011007216925</v>
+        <v>1049.45451554065</v>
       </c>
       <c r="AD2" t="n">
-        <v>783252.6376082608</v>
+        <v>847933.8601278318</v>
       </c>
       <c r="AE2" t="n">
-        <v>1071680.813443248</v>
+        <v>1160180.515628671</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.014191528294694e-06</v>
+        <v>3.024680427759406e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.45416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>969401.1007216925</v>
+        <v>1049454.51554065</v>
       </c>
     </row>
     <row r="3">
@@ -26434,28 +26434,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>456.9805746260386</v>
+        <v>513.4805575492879</v>
       </c>
       <c r="AB3" t="n">
-        <v>625.2609827634385</v>
+        <v>702.5667520023557</v>
       </c>
       <c r="AC3" t="n">
-        <v>565.5869521277961</v>
+        <v>635.5147672498795</v>
       </c>
       <c r="AD3" t="n">
-        <v>456980.5746260386</v>
+        <v>513480.5575492879</v>
       </c>
       <c r="AE3" t="n">
-        <v>625260.9827634385</v>
+        <v>702566.7520023556</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.77939658722349e-06</v>
+        <v>4.17377709133438e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.925</v>
       </c>
       <c r="AH3" t="n">
-        <v>565586.952127796</v>
+        <v>635514.7672498794</v>
       </c>
     </row>
     <row r="4">
@@ -26540,28 +26540,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>393.0732613879163</v>
+        <v>441.5627759325383</v>
       </c>
       <c r="AB4" t="n">
-        <v>537.8201773993624</v>
+        <v>604.1656704057182</v>
       </c>
       <c r="AC4" t="n">
-        <v>486.4913745037262</v>
+        <v>546.5049467740397</v>
       </c>
       <c r="AD4" t="n">
-        <v>393073.2613879163</v>
+        <v>441562.7759325383</v>
       </c>
       <c r="AE4" t="n">
-        <v>537820.1773993623</v>
+        <v>604165.6704057181</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.041888967105509e-06</v>
+        <v>4.567957859504588e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.89583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>486491.3745037262</v>
+        <v>546504.9467740397</v>
       </c>
     </row>
     <row r="5">
@@ -26646,28 +26646,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>366.6559952756271</v>
+        <v>407.0497900956012</v>
       </c>
       <c r="AB5" t="n">
-        <v>501.6749084570005</v>
+        <v>556.9434805781457</v>
       </c>
       <c r="AC5" t="n">
-        <v>453.7957592990198</v>
+        <v>503.7895764668511</v>
       </c>
       <c r="AD5" t="n">
-        <v>366655.9952756271</v>
+        <v>407049.7900956012</v>
       </c>
       <c r="AE5" t="n">
-        <v>501674.9084570004</v>
+        <v>556943.4805781457</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.182998507078449e-06</v>
+        <v>4.779859884575482e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.4125</v>
       </c>
       <c r="AH5" t="n">
-        <v>453795.7592990198</v>
+        <v>503789.5764668512</v>
       </c>
     </row>
     <row r="6">
@@ -26752,28 +26752,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>351.4309375202315</v>
+        <v>391.8247323402055</v>
       </c>
       <c r="AB6" t="n">
-        <v>480.8433127539249</v>
+        <v>536.1118848750704</v>
       </c>
       <c r="AC6" t="n">
-        <v>434.9523018525176</v>
+        <v>484.9461190203489</v>
       </c>
       <c r="AD6" t="n">
-        <v>351430.9375202315</v>
+        <v>391824.7323402055</v>
       </c>
       <c r="AE6" t="n">
-        <v>480843.3127539249</v>
+        <v>536111.8848750703</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.264291601696456e-06</v>
+        <v>4.90193647399062e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.15208333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>434952.3018525176</v>
+        <v>484946.1190203489</v>
       </c>
     </row>
     <row r="7">
@@ -26858,28 +26858,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>332.1188498363661</v>
+        <v>380.5230235264165</v>
       </c>
       <c r="AB7" t="n">
-        <v>454.4196623956822</v>
+        <v>520.6483882798403</v>
       </c>
       <c r="AC7" t="n">
-        <v>411.0504875986394</v>
+        <v>470.9584368370141</v>
       </c>
       <c r="AD7" t="n">
-        <v>332118.8498363661</v>
+        <v>380523.0235264165</v>
       </c>
       <c r="AE7" t="n">
-        <v>454419.6623956822</v>
+        <v>520648.3882798404</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.319017285744586e-06</v>
+        <v>4.984117191718228e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.985416666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>411050.4875986394</v>
+        <v>470958.436837014</v>
       </c>
     </row>
     <row r="8">
@@ -26964,28 +26964,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>323.8996051195244</v>
+        <v>364.3786512855191</v>
       </c>
       <c r="AB8" t="n">
-        <v>443.1737291666141</v>
+        <v>498.5589459404086</v>
       </c>
       <c r="AC8" t="n">
-        <v>400.8778504531871</v>
+        <v>450.9771798717307</v>
       </c>
       <c r="AD8" t="n">
-        <v>323899.6051195244</v>
+        <v>364378.6512855191</v>
       </c>
       <c r="AE8" t="n">
-        <v>443173.7291666141</v>
+        <v>498558.9459404086</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.355129873764718e-06</v>
+        <v>5.038346909521038e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.879166666666668</v>
       </c>
       <c r="AH8" t="n">
-        <v>400877.8504531871</v>
+        <v>450977.1798717307</v>
       </c>
     </row>
     <row r="9">
@@ -27070,28 +27070,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>316.9650555522966</v>
+        <v>357.4441017182912</v>
       </c>
       <c r="AB9" t="n">
-        <v>433.6855725179974</v>
+        <v>489.070789291792</v>
       </c>
       <c r="AC9" t="n">
-        <v>392.2952301584029</v>
+        <v>442.3945595769465</v>
       </c>
       <c r="AD9" t="n">
-        <v>316965.0555522966</v>
+        <v>357444.1017182912</v>
       </c>
       <c r="AE9" t="n">
-        <v>433685.5725179974</v>
+        <v>489070.789291792</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.384242664987997e-06</v>
+        <v>5.082065140172643e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.793749999999999</v>
       </c>
       <c r="AH9" t="n">
-        <v>392295.2301584029</v>
+        <v>442394.5595769465</v>
       </c>
     </row>
     <row r="10">
@@ -27176,28 +27176,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>308.8111881748346</v>
+        <v>349.2902343408292</v>
       </c>
       <c r="AB10" t="n">
-        <v>422.5290914489133</v>
+        <v>477.9143082227077</v>
       </c>
       <c r="AC10" t="n">
-        <v>382.2035079843326</v>
+        <v>432.3028374028762</v>
       </c>
       <c r="AD10" t="n">
-        <v>308811.1881748346</v>
+        <v>349290.2343408292</v>
       </c>
       <c r="AE10" t="n">
-        <v>422529.0914489133</v>
+        <v>477914.3082227078</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.410810075557874e-06</v>
+        <v>5.121961011860173e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.716666666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>382203.5079843326</v>
+        <v>432302.8374028762</v>
       </c>
     </row>
     <row r="11">
@@ -27282,28 +27282,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>303.0862023916532</v>
+        <v>343.5652485576478</v>
       </c>
       <c r="AB11" t="n">
-        <v>414.6959133318171</v>
+        <v>470.0811301056117</v>
       </c>
       <c r="AC11" t="n">
-        <v>375.1179173927976</v>
+        <v>425.2172468113412</v>
       </c>
       <c r="AD11" t="n">
-        <v>303086.2023916532</v>
+        <v>343565.2485576478</v>
       </c>
       <c r="AE11" t="n">
-        <v>414695.9133318171</v>
+        <v>470081.1301056117</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.431650379657598e-06</v>
+        <v>5.153256575878535e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.658333333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>375117.9173927975</v>
+        <v>425217.2468113411</v>
       </c>
     </row>
     <row r="12">
@@ -27388,28 +27388,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>299.3002210255929</v>
+        <v>339.7792671915876</v>
       </c>
       <c r="AB12" t="n">
-        <v>409.5157666010637</v>
+        <v>464.9009833748582</v>
       </c>
       <c r="AC12" t="n">
-        <v>370.4321565956457</v>
+        <v>420.5314860141892</v>
       </c>
       <c r="AD12" t="n">
-        <v>299300.2210255929</v>
+        <v>339779.2671915875</v>
       </c>
       <c r="AE12" t="n">
-        <v>409515.7666010637</v>
+        <v>464900.9833748582</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.44071829823534e-06</v>
+        <v>5.166873729688051e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.633333333333335</v>
       </c>
       <c r="AH12" t="n">
-        <v>370432.1565956456</v>
+        <v>420531.4860141892</v>
       </c>
     </row>
     <row r="13">
@@ -27494,28 +27494,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>300.2241898595238</v>
+        <v>340.7032360255185</v>
       </c>
       <c r="AB13" t="n">
-        <v>410.779981522276</v>
+        <v>466.1651982960706</v>
       </c>
       <c r="AC13" t="n">
-        <v>371.5757166191144</v>
+        <v>421.6750460376579</v>
       </c>
       <c r="AD13" t="n">
-        <v>300224.1898595238</v>
+        <v>340703.2360255185</v>
       </c>
       <c r="AE13" t="n">
-        <v>410779.9815222761</v>
+        <v>466165.1982960706</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.440877384526178e-06</v>
+        <v>5.167112627123306e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9.63125</v>
       </c>
       <c r="AH13" t="n">
-        <v>371575.7166191143</v>
+        <v>421675.0460376579</v>
       </c>
     </row>
   </sheetData>
@@ -27791,28 +27791,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>552.9816653305287</v>
+        <v>607.9037579290712</v>
       </c>
       <c r="AB2" t="n">
-        <v>756.6139103345333</v>
+        <v>831.7607404195784</v>
       </c>
       <c r="AC2" t="n">
-        <v>684.4037406464975</v>
+        <v>752.3786627374641</v>
       </c>
       <c r="AD2" t="n">
-        <v>552981.6653305287</v>
+        <v>607903.7579290712</v>
       </c>
       <c r="AE2" t="n">
-        <v>756613.9103345333</v>
+        <v>831760.7404195784</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.417950190902031e-06</v>
+        <v>3.708523244253941e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.27708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>684403.7406464975</v>
+        <v>752378.6627374641</v>
       </c>
     </row>
     <row r="3">
@@ -27897,28 +27897,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>370.6439038977665</v>
+        <v>409.9349533667197</v>
       </c>
       <c r="AB3" t="n">
-        <v>507.1313409679231</v>
+        <v>560.8910882501104</v>
       </c>
       <c r="AC3" t="n">
-        <v>458.7314375492512</v>
+        <v>507.3604300031056</v>
       </c>
       <c r="AD3" t="n">
-        <v>370643.9038977665</v>
+        <v>409934.9533667197</v>
       </c>
       <c r="AE3" t="n">
-        <v>507131.3409679231</v>
+        <v>560891.0882501104</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.079650904511229e-06</v>
+        <v>4.723404562484768e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.21041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>458731.4375492512</v>
+        <v>507360.4300031056</v>
       </c>
     </row>
     <row r="4">
@@ -28003,28 +28003,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>325.4553764092703</v>
+        <v>364.6610850236519</v>
       </c>
       <c r="AB4" t="n">
-        <v>445.3024040810296</v>
+        <v>498.9453842410191</v>
       </c>
       <c r="AC4" t="n">
-        <v>402.8033676213848</v>
+        <v>451.3267370433004</v>
       </c>
       <c r="AD4" t="n">
-        <v>325455.3764092703</v>
+        <v>364661.0850236519</v>
       </c>
       <c r="AE4" t="n">
-        <v>445302.4040810296</v>
+        <v>498945.3842410191</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.305354979626613e-06</v>
+        <v>5.069577453902344e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.44583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>402803.3676213848</v>
+        <v>451326.7370433004</v>
       </c>
     </row>
     <row r="5">
@@ -28109,28 +28109,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>306.1085906318561</v>
+        <v>345.3142992462377</v>
       </c>
       <c r="AB5" t="n">
-        <v>418.8312782604215</v>
+        <v>472.4742584204109</v>
       </c>
       <c r="AC5" t="n">
-        <v>378.858608896637</v>
+        <v>427.3819783185527</v>
       </c>
       <c r="AD5" t="n">
-        <v>306108.5906318561</v>
+        <v>345314.2992462377</v>
       </c>
       <c r="AE5" t="n">
-        <v>418831.2782604215</v>
+        <v>472474.2584204109</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.422847042223388e-06</v>
+        <v>5.249780522929556e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.08541666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>378858.608896637</v>
+        <v>427381.9783185527</v>
       </c>
     </row>
     <row r="6">
@@ -28215,28 +28215,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>285.1443448944372</v>
+        <v>324.4353048548393</v>
       </c>
       <c r="AB6" t="n">
-        <v>390.1470723652375</v>
+        <v>443.9066971778763</v>
       </c>
       <c r="AC6" t="n">
-        <v>352.9119833535535</v>
+        <v>401.5408650261815</v>
       </c>
       <c r="AD6" t="n">
-        <v>285144.3448944372</v>
+        <v>324435.3048548393</v>
       </c>
       <c r="AE6" t="n">
-        <v>390147.0723652375</v>
+        <v>443906.6971778763</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.493773139249367e-06</v>
+        <v>5.358563193654022e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.88125</v>
       </c>
       <c r="AH6" t="n">
-        <v>352911.9833535535</v>
+        <v>401540.8650261814</v>
       </c>
     </row>
     <row r="7">
@@ -28321,28 +28321,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>275.7979519433837</v>
+        <v>315.088911903786</v>
       </c>
       <c r="AB7" t="n">
-        <v>377.3589251958502</v>
+        <v>431.118550008489</v>
       </c>
       <c r="AC7" t="n">
-        <v>341.3443190017354</v>
+        <v>389.9732006743633</v>
       </c>
       <c r="AD7" t="n">
-        <v>275797.9519433837</v>
+        <v>315088.9119037859</v>
       </c>
       <c r="AE7" t="n">
-        <v>377358.9251958502</v>
+        <v>431118.550008489</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.536527655680916e-06</v>
+        <v>5.424137794230921e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.762500000000001</v>
       </c>
       <c r="AH7" t="n">
-        <v>341344.3190017354</v>
+        <v>389973.2006743633</v>
       </c>
     </row>
     <row r="8">
@@ -28427,28 +28427,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>269.7190469674273</v>
+        <v>309.0100069278296</v>
       </c>
       <c r="AB8" t="n">
-        <v>369.0414992253865</v>
+        <v>422.8011240380253</v>
       </c>
       <c r="AC8" t="n">
-        <v>333.8206964923121</v>
+        <v>382.44957816494</v>
       </c>
       <c r="AD8" t="n">
-        <v>269719.0469674274</v>
+        <v>309010.0069278296</v>
       </c>
       <c r="AE8" t="n">
-        <v>369041.4992253865</v>
+        <v>422801.1240380253</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.560556356776166e-06</v>
+        <v>5.460991736415611e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.695833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>333820.6964923121</v>
+        <v>382449.57816494</v>
       </c>
     </row>
     <row r="9">
@@ -28533,28 +28533,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>270.7747932974291</v>
+        <v>310.0657532578314</v>
       </c>
       <c r="AB9" t="n">
-        <v>370.4860179303359</v>
+        <v>424.2456427429747</v>
       </c>
       <c r="AC9" t="n">
-        <v>335.1273523594558</v>
+        <v>383.7562340320838</v>
       </c>
       <c r="AD9" t="n">
-        <v>270774.7932974292</v>
+        <v>310065.7532578314</v>
       </c>
       <c r="AE9" t="n">
-        <v>370486.0179303359</v>
+        <v>424245.6427429747</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.563207799655642e-06</v>
+        <v>5.465058378311852e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.689583333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>335127.3523594558</v>
+        <v>383756.2340320838</v>
       </c>
     </row>
   </sheetData>
@@ -53923,28 +53923,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>418.7203322134251</v>
+        <v>472.3128119894933</v>
       </c>
       <c r="AB2" t="n">
-        <v>572.911631171733</v>
+        <v>646.239226334691</v>
       </c>
       <c r="AC2" t="n">
-        <v>518.2337491792266</v>
+        <v>584.5630615757581</v>
       </c>
       <c r="AD2" t="n">
-        <v>418720.3322134251</v>
+        <v>472312.8119894933</v>
       </c>
       <c r="AE2" t="n">
-        <v>572911.631171733</v>
+        <v>646239.226334691</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.753081067350305e-06</v>
+        <v>4.301634862204409e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.97291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>518233.7491792266</v>
+        <v>584563.061575758</v>
       </c>
     </row>
     <row r="3">
@@ -54029,28 +54029,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>303.1491130700063</v>
+        <v>349.0733327559831</v>
       </c>
       <c r="AB3" t="n">
-        <v>414.7819904973631</v>
+        <v>477.6175339052988</v>
       </c>
       <c r="AC3" t="n">
-        <v>375.1957794744739</v>
+        <v>432.0343868097953</v>
       </c>
       <c r="AD3" t="n">
-        <v>303149.1130700062</v>
+        <v>349073.3327559831</v>
       </c>
       <c r="AE3" t="n">
-        <v>414781.9904973631</v>
+        <v>477617.5339052988</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.334553731139361e-06</v>
+        <v>5.210174429613957e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.71041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>375195.7794744739</v>
+        <v>432034.3868097953</v>
       </c>
     </row>
     <row r="4">
@@ -54135,28 +54135,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>275.6156713667913</v>
+        <v>313.8717204712278</v>
       </c>
       <c r="AB4" t="n">
-        <v>377.109520869305</v>
+        <v>429.4531349917668</v>
       </c>
       <c r="AC4" t="n">
-        <v>341.1187174740745</v>
+        <v>388.4667305294124</v>
       </c>
       <c r="AD4" t="n">
-        <v>275615.6713667914</v>
+        <v>313871.7204712278</v>
       </c>
       <c r="AE4" t="n">
-        <v>377109.5208693049</v>
+        <v>429453.1349917668</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.527063696185089e-06</v>
+        <v>5.510967452668475e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.125</v>
       </c>
       <c r="AH4" t="n">
-        <v>341118.7174740745</v>
+        <v>388466.7305294124</v>
       </c>
     </row>
     <row r="5">
@@ -54241,28 +54241,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>252.3031773855246</v>
+        <v>290.6444778359847</v>
       </c>
       <c r="AB5" t="n">
-        <v>345.2123381293245</v>
+        <v>397.6725969046029</v>
       </c>
       <c r="AC5" t="n">
-        <v>312.2657570869242</v>
+        <v>359.719282393022</v>
       </c>
       <c r="AD5" t="n">
-        <v>252303.1773855246</v>
+        <v>290644.4778359847</v>
       </c>
       <c r="AE5" t="n">
-        <v>345212.3381293244</v>
+        <v>397672.5969046029</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.622890116897967e-06</v>
+        <v>5.660694344821168e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.858333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>312265.7570869242</v>
+        <v>359719.282393022</v>
       </c>
     </row>
     <row r="6">
@@ -54347,28 +54347,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>247.904989270197</v>
+        <v>286.2462897206572</v>
       </c>
       <c r="AB6" t="n">
-        <v>339.1945431155709</v>
+        <v>391.6548018908463</v>
       </c>
       <c r="AC6" t="n">
-        <v>306.8222919832531</v>
+        <v>354.27581728935</v>
       </c>
       <c r="AD6" t="n">
-        <v>247904.989270197</v>
+        <v>286246.2897206572</v>
       </c>
       <c r="AE6" t="n">
-        <v>339194.5431155709</v>
+        <v>391654.8018908463</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.649460949117101e-06</v>
+        <v>5.702210746044186e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.785416666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>306822.2919832531</v>
+        <v>354275.81728935</v>
       </c>
     </row>
     <row r="7">
@@ -54453,28 +54453,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>249.5306185324556</v>
+        <v>287.8719189829158</v>
       </c>
       <c r="AB7" t="n">
-        <v>341.4188007898935</v>
+        <v>393.8790595651701</v>
       </c>
       <c r="AC7" t="n">
-        <v>308.8342696269043</v>
+        <v>356.2877949330015</v>
       </c>
       <c r="AD7" t="n">
-        <v>249530.6185324556</v>
+        <v>287871.9189829158</v>
       </c>
       <c r="AE7" t="n">
-        <v>341418.8007898935</v>
+        <v>393879.05956517</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.648260976049141e-06</v>
+        <v>5.700335811795405e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.789583333333335</v>
       </c>
       <c r="AH7" t="n">
-        <v>308834.2696269043</v>
+        <v>356287.7949330015</v>
       </c>
     </row>
   </sheetData>
@@ -54750,28 +54750,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>247.0571918055699</v>
+        <v>283.5160621099474</v>
       </c>
       <c r="AB2" t="n">
-        <v>338.0345492222842</v>
+        <v>387.919184024732</v>
       </c>
       <c r="AC2" t="n">
-        <v>305.7730062790796</v>
+        <v>350.896721549405</v>
       </c>
       <c r="AD2" t="n">
-        <v>247057.1918055699</v>
+        <v>283516.0621099474</v>
       </c>
       <c r="AE2" t="n">
-        <v>338034.5492222842</v>
+        <v>387919.184024732</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.467862787366754e-06</v>
+        <v>5.651493217422067e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.05416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>305773.0062790796</v>
+        <v>350896.721549405</v>
       </c>
     </row>
     <row r="3">
@@ -54856,28 +54856,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>211.9791187097651</v>
+        <v>248.3526481595675</v>
       </c>
       <c r="AB3" t="n">
-        <v>290.0391820772628</v>
+        <v>339.8070497573237</v>
       </c>
       <c r="AC3" t="n">
-        <v>262.3582496124429</v>
+        <v>307.3763418507756</v>
       </c>
       <c r="AD3" t="n">
-        <v>211979.1187097651</v>
+        <v>248352.6481595675</v>
       </c>
       <c r="AE3" t="n">
-        <v>290039.1820772628</v>
+        <v>339807.0497573237</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.749553042431403e-06</v>
+        <v>6.110557103026544e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.22291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>262358.2496124429</v>
+        <v>307376.3418507756</v>
       </c>
     </row>
   </sheetData>
@@ -55153,28 +55153,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1095.552005575403</v>
+        <v>1170.226855836945</v>
       </c>
       <c r="AB2" t="n">
-        <v>1498.982586371627</v>
+        <v>1601.156010921353</v>
       </c>
       <c r="AC2" t="n">
-        <v>1355.921792163591</v>
+        <v>1448.343928475594</v>
       </c>
       <c r="AD2" t="n">
-        <v>1095552.005575403</v>
+        <v>1170226.855836945</v>
       </c>
       <c r="AE2" t="n">
-        <v>1498982.586371627</v>
+        <v>1601156.010921353</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.680257504892362e-06</v>
+        <v>2.482380184796185e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.07916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1355921.792163591</v>
+        <v>1448343.928475594</v>
       </c>
     </row>
     <row r="3">
@@ -55259,28 +55259,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>555.9114914790613</v>
+        <v>613.9065200990381</v>
       </c>
       <c r="AB3" t="n">
-        <v>760.622627725763</v>
+        <v>839.9739844437037</v>
       </c>
       <c r="AC3" t="n">
-        <v>688.0298716761782</v>
+        <v>759.8080462792873</v>
       </c>
       <c r="AD3" t="n">
-        <v>555911.4914790613</v>
+        <v>613906.520099038</v>
       </c>
       <c r="AE3" t="n">
-        <v>760622.627725763</v>
+        <v>839973.9844437037</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.526694916468633e-06</v>
+        <v>3.732890569096899e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.6875</v>
       </c>
       <c r="AH3" t="n">
-        <v>688029.8716761782</v>
+        <v>759808.0462792873</v>
       </c>
     </row>
     <row r="4">
@@ -55365,28 +55365,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>466.9335160000646</v>
+        <v>516.5460976347996</v>
       </c>
       <c r="AB4" t="n">
-        <v>638.8790362441647</v>
+        <v>706.7611591894364</v>
       </c>
       <c r="AC4" t="n">
-        <v>577.9053176973797</v>
+        <v>639.3088661019127</v>
       </c>
       <c r="AD4" t="n">
-        <v>466933.5160000646</v>
+        <v>516546.0976347995</v>
       </c>
       <c r="AE4" t="n">
-        <v>638879.0362441647</v>
+        <v>706761.1591894364</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.825202202136324e-06</v>
+        <v>4.173899503025892e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.34583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>577905.3176973797</v>
+        <v>639308.8661019127</v>
       </c>
     </row>
     <row r="5">
@@ -55471,28 +55471,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>424.8464066689338</v>
+        <v>474.5442396496893</v>
       </c>
       <c r="AB5" t="n">
-        <v>581.2935965050908</v>
+        <v>649.2923641030118</v>
       </c>
       <c r="AC5" t="n">
-        <v>525.8157515053309</v>
+        <v>587.324812160576</v>
       </c>
       <c r="AD5" t="n">
-        <v>424846.4066689337</v>
+        <v>474544.2396496893</v>
       </c>
       <c r="AE5" t="n">
-        <v>581293.5965050908</v>
+        <v>649292.3641030118</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.977533239667774e-06</v>
+        <v>4.398950453845326e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.76666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>525815.7515053309</v>
+        <v>587324.812160576</v>
       </c>
     </row>
     <row r="6">
@@ -55577,28 +55577,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>404.9972662169729</v>
+        <v>446.3979930670583</v>
       </c>
       <c r="AB6" t="n">
-        <v>554.1351268564438</v>
+        <v>610.7814278038935</v>
       </c>
       <c r="AC6" t="n">
-        <v>501.2492480827993</v>
+        <v>552.4893055714069</v>
       </c>
       <c r="AD6" t="n">
-        <v>404997.266216973</v>
+        <v>446397.9930670583</v>
       </c>
       <c r="AE6" t="n">
-        <v>554135.1268564438</v>
+        <v>610781.4278038935</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.072316996354009e-06</v>
+        <v>4.538982156577418e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.43333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>501249.2480827993</v>
+        <v>552489.305571407</v>
       </c>
     </row>
     <row r="7">
@@ -55683,28 +55683,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>390.9936934406255</v>
+        <v>432.3944202907109</v>
       </c>
       <c r="AB7" t="n">
-        <v>534.9748207898161</v>
+        <v>591.6211217372658</v>
       </c>
       <c r="AC7" t="n">
-        <v>483.9175747355121</v>
+        <v>535.1576322241198</v>
       </c>
       <c r="AD7" t="n">
-        <v>390993.6934406255</v>
+        <v>432394.4202907109</v>
       </c>
       <c r="AE7" t="n">
-        <v>534974.8207898161</v>
+        <v>591621.1217372657</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.13925033102692e-06</v>
+        <v>4.637868180422322e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.21041666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>483917.5747355121</v>
+        <v>535157.6322241197</v>
       </c>
     </row>
     <row r="8">
@@ -55789,28 +55789,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>381.8691489098153</v>
+        <v>423.2698757599007</v>
       </c>
       <c r="AB8" t="n">
-        <v>522.4902164162671</v>
+        <v>579.1365173637167</v>
       </c>
       <c r="AC8" t="n">
-        <v>472.6244834811224</v>
+        <v>523.86454096973</v>
       </c>
       <c r="AD8" t="n">
-        <v>381869.1489098153</v>
+        <v>423269.8757599007</v>
       </c>
       <c r="AE8" t="n">
-        <v>522490.2164162672</v>
+        <v>579136.5173637167</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.18171837785387e-06</v>
+        <v>4.700609657620467e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.075</v>
       </c>
       <c r="AH8" t="n">
-        <v>472624.4834811224</v>
+        <v>523864.54096973</v>
       </c>
     </row>
     <row r="9">
@@ -55895,28 +55895,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>365.7887611260138</v>
+        <v>415.4012532521978</v>
       </c>
       <c r="AB9" t="n">
-        <v>500.488320433829</v>
+        <v>568.3703209095522</v>
       </c>
       <c r="AC9" t="n">
-        <v>452.7224175713931</v>
+        <v>514.1258551946995</v>
       </c>
       <c r="AD9" t="n">
-        <v>365788.7611260138</v>
+        <v>415401.2532521978</v>
       </c>
       <c r="AE9" t="n">
-        <v>500488.320433829</v>
+        <v>568370.3209095523</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.215569719527525e-06</v>
+        <v>4.750620980024785e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.96875</v>
       </c>
       <c r="AH9" t="n">
-        <v>452722.4175713931</v>
+        <v>514125.8551946995</v>
       </c>
     </row>
     <row r="10">
@@ -56001,28 +56001,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>357.9628021456421</v>
+        <v>399.4487803417481</v>
       </c>
       <c r="AB10" t="n">
-        <v>489.7804980999413</v>
+        <v>546.5434437000403</v>
       </c>
       <c r="AC10" t="n">
-        <v>443.0365347725286</v>
+        <v>494.3821045118485</v>
       </c>
       <c r="AD10" t="n">
-        <v>357962.8021456421</v>
+        <v>399448.7803417481</v>
       </c>
       <c r="AE10" t="n">
-        <v>489780.4980999413</v>
+        <v>546543.4437000402</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.247882363852378e-06</v>
+        <v>4.798359060501635e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.870833333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>443036.5347725286</v>
+        <v>494382.1045118485</v>
       </c>
     </row>
     <row r="11">
@@ -56107,28 +56107,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>351.8089563631235</v>
+        <v>393.2949345592295</v>
       </c>
       <c r="AB11" t="n">
-        <v>481.3605348117843</v>
+        <v>538.1234804118831</v>
       </c>
       <c r="AC11" t="n">
-        <v>435.4201609631004</v>
+        <v>486.7657307024205</v>
       </c>
       <c r="AD11" t="n">
-        <v>351808.9563631235</v>
+        <v>393294.9345592295</v>
       </c>
       <c r="AE11" t="n">
-        <v>481360.5348117843</v>
+        <v>538123.4804118831</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.270501214879776e-06</v>
+        <v>4.831775716835431e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.802083333333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>435420.1609631004</v>
+        <v>486765.7307024205</v>
       </c>
     </row>
     <row r="12">
@@ -56213,28 +56213,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>347.0249106561792</v>
+        <v>388.5108888522852</v>
       </c>
       <c r="AB12" t="n">
-        <v>474.8147924183421</v>
+        <v>531.5777380184409</v>
       </c>
       <c r="AC12" t="n">
-        <v>429.4991350366813</v>
+        <v>480.8447047760013</v>
       </c>
       <c r="AD12" t="n">
-        <v>347024.9106561792</v>
+        <v>388510.8888522852</v>
       </c>
       <c r="AE12" t="n">
-        <v>474814.7924183421</v>
+        <v>531577.7380184409</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.283887881814357e-06</v>
+        <v>4.851552921604411e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.762500000000001</v>
       </c>
       <c r="AH12" t="n">
-        <v>429499.1350366813</v>
+        <v>480844.7047760013</v>
       </c>
     </row>
     <row r="13">
@@ -56319,28 +56319,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>342.1766157332233</v>
+        <v>383.6625939293293</v>
       </c>
       <c r="AB13" t="n">
-        <v>468.1811414130775</v>
+        <v>524.9440870131764</v>
       </c>
       <c r="AC13" t="n">
-        <v>423.4985903729715</v>
+        <v>474.8441601122914</v>
       </c>
       <c r="AD13" t="n">
-        <v>342176.6157332233</v>
+        <v>383662.5939293292</v>
       </c>
       <c r="AE13" t="n">
-        <v>468181.1414130775</v>
+        <v>524944.0870131764</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.300044203976784e-06</v>
+        <v>4.875421961842835e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9.714583333333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>423498.5903729715</v>
+        <v>474844.1601122915</v>
       </c>
     </row>
     <row r="14">
@@ -56425,28 +56425,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>336.7605693360637</v>
+        <v>378.2465475321696</v>
       </c>
       <c r="AB14" t="n">
-        <v>460.7706677933802</v>
+        <v>517.533613393479</v>
       </c>
       <c r="AC14" t="n">
-        <v>416.7953619548731</v>
+        <v>468.1409316941931</v>
       </c>
       <c r="AD14" t="n">
-        <v>336760.5693360637</v>
+        <v>378246.5475321696</v>
       </c>
       <c r="AE14" t="n">
-        <v>460770.6677933802</v>
+        <v>517533.613393479</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.31589278666945e-06</v>
+        <v>4.898836353695766e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>416795.3619548731</v>
+        <v>468140.931694193</v>
       </c>
     </row>
     <row r="15">
@@ -56531,28 +56531,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>332.1369097329344</v>
+        <v>373.6228879290404</v>
       </c>
       <c r="AB15" t="n">
-        <v>454.4443727429133</v>
+        <v>511.2073183430121</v>
       </c>
       <c r="AC15" t="n">
-        <v>411.0728396250119</v>
+        <v>462.4184093643319</v>
       </c>
       <c r="AD15" t="n">
-        <v>332136.9097329344</v>
+        <v>373622.8879290404</v>
       </c>
       <c r="AE15" t="n">
-        <v>454444.3727429133</v>
+        <v>511207.3183430121</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.327279147050589e-06</v>
+        <v>4.915658343959037e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>10</v>
+        <v>9.635416666666666</v>
       </c>
       <c r="AH15" t="n">
-        <v>411072.8396250119</v>
+        <v>462418.4093643319</v>
       </c>
     </row>
     <row r="16">
@@ -56637,28 +56637,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>329.7495594978088</v>
+        <v>371.2355376939149</v>
       </c>
       <c r="AB16" t="n">
-        <v>451.1778948287554</v>
+        <v>507.9408404288543</v>
       </c>
       <c r="AC16" t="n">
-        <v>408.1181097784506</v>
+        <v>459.4636795177706</v>
       </c>
       <c r="AD16" t="n">
-        <v>329749.5594978088</v>
+        <v>371235.5376939148</v>
       </c>
       <c r="AE16" t="n">
-        <v>451177.8948287554</v>
+        <v>507940.8404288543</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.330972020687715e-06</v>
+        <v>4.921114124584964e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>9.622916666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>408118.1097784506</v>
+        <v>459463.6795177707</v>
       </c>
     </row>
     <row r="17">
@@ -56743,28 +56743,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>328.4786241377251</v>
+        <v>369.964602333831</v>
       </c>
       <c r="AB17" t="n">
-        <v>449.438944999378</v>
+        <v>506.2018905994768</v>
       </c>
       <c r="AC17" t="n">
-        <v>406.5451228801575</v>
+        <v>457.8906926194775</v>
       </c>
       <c r="AD17" t="n">
-        <v>328478.6241377251</v>
+        <v>369964.602333831</v>
       </c>
       <c r="AE17" t="n">
-        <v>449438.9449993779</v>
+        <v>506201.8905994768</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.336203591673644e-06</v>
+        <v>4.928843147138358e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>10</v>
+        <v>9.608333333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>406545.1228801575</v>
+        <v>457890.6926194775</v>
       </c>
     </row>
     <row r="18">
@@ -56849,28 +56849,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>328.9271706981352</v>
+        <v>370.4131488942411</v>
       </c>
       <c r="AB18" t="n">
-        <v>450.0526661918087</v>
+        <v>506.8156117919074</v>
       </c>
       <c r="AC18" t="n">
-        <v>407.1002713833458</v>
+        <v>458.4458411226657</v>
       </c>
       <c r="AD18" t="n">
-        <v>328927.1706981352</v>
+        <v>370413.1488942411</v>
       </c>
       <c r="AE18" t="n">
-        <v>450052.6661918086</v>
+        <v>506815.6117919074</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.334818764059721e-06</v>
+        <v>4.926797229403636e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>10</v>
+        <v>9.612499999999999</v>
       </c>
       <c r="AH18" t="n">
-        <v>407100.2713833458</v>
+        <v>458445.8411226657</v>
       </c>
     </row>
   </sheetData>
@@ -57146,28 +57146,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1721.225610792547</v>
+        <v>1823.573404881027</v>
       </c>
       <c r="AB2" t="n">
-        <v>2355.05681580108</v>
+        <v>2495.093582938942</v>
       </c>
       <c r="AC2" t="n">
-        <v>2130.293498644025</v>
+        <v>2256.965353269086</v>
       </c>
       <c r="AD2" t="n">
-        <v>1721225.610792547</v>
+        <v>1823573.404881027</v>
       </c>
       <c r="AE2" t="n">
-        <v>2355056.81580108</v>
+        <v>2495093.582938942</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.302140273820072e-06</v>
+        <v>1.890927759643928e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.72291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2130293.498644025</v>
+        <v>2256965.353269086</v>
       </c>
     </row>
     <row r="3">
@@ -57252,28 +57252,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>698.4131030392374</v>
+        <v>758.115982924184</v>
       </c>
       <c r="AB3" t="n">
-        <v>955.5996193898028</v>
+        <v>1037.287733553556</v>
       </c>
       <c r="AC3" t="n">
-        <v>864.3985329077287</v>
+        <v>938.2904481056812</v>
       </c>
       <c r="AD3" t="n">
-        <v>698413.1030392374</v>
+        <v>758115.9829241839</v>
       </c>
       <c r="AE3" t="n">
-        <v>955599.6193898028</v>
+        <v>1037287.733553556</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.239527066246682e-06</v>
+        <v>3.252171815265531e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.79375</v>
       </c>
       <c r="AH3" t="n">
-        <v>864398.5329077287</v>
+        <v>938290.4481056812</v>
       </c>
     </row>
     <row r="4">
@@ -57358,28 +57358,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>567.2566393718545</v>
+        <v>618.3452850700738</v>
       </c>
       <c r="AB4" t="n">
-        <v>776.1455595852833</v>
+        <v>846.0472985015647</v>
       </c>
       <c r="AC4" t="n">
-        <v>702.0713167055977</v>
+        <v>765.3017317674161</v>
       </c>
       <c r="AD4" t="n">
-        <v>567256.6393718545</v>
+        <v>618345.2850700738</v>
       </c>
       <c r="AE4" t="n">
-        <v>776145.5595852833</v>
+        <v>846047.2985015647</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.57358787664484e-06</v>
+        <v>3.737284573461588e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.00208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>702071.3167055977</v>
+        <v>765301.7317674161</v>
       </c>
     </row>
     <row r="5">
@@ -57464,28 +57464,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>509.2364675469826</v>
+        <v>560.2397723906303</v>
       </c>
       <c r="AB5" t="n">
-        <v>696.759800825165</v>
+        <v>766.5447726192489</v>
       </c>
       <c r="AC5" t="n">
-        <v>630.2620233429329</v>
+        <v>693.3868153728124</v>
       </c>
       <c r="AD5" t="n">
-        <v>509236.4675469826</v>
+        <v>560239.7723906302</v>
       </c>
       <c r="AE5" t="n">
-        <v>696759.800825165</v>
+        <v>766544.7726192488</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.750330213970452e-06</v>
+        <v>3.993944319475658e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.23125</v>
       </c>
       <c r="AH5" t="n">
-        <v>630262.0233429329</v>
+        <v>693386.8153728124</v>
       </c>
     </row>
     <row r="6">
@@ -57570,28 +57570,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>472.8441279189912</v>
+        <v>523.9326841086595</v>
       </c>
       <c r="AB6" t="n">
-        <v>646.9661962294347</v>
+        <v>716.8678126761677</v>
       </c>
       <c r="AC6" t="n">
-        <v>585.220650484056</v>
+        <v>648.4509547646479</v>
       </c>
       <c r="AD6" t="n">
-        <v>472844.1279189912</v>
+        <v>523932.6841086595</v>
       </c>
       <c r="AE6" t="n">
-        <v>646966.1962294347</v>
+        <v>716867.8126761677</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.86153554366358e-06</v>
+        <v>4.155433253628806e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.79583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>585220.650484056</v>
+        <v>648450.9547646479</v>
       </c>
     </row>
     <row r="7">
@@ -57676,28 +57676,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>456.7441057236226</v>
+        <v>499.4743607817273</v>
       </c>
       <c r="AB7" t="n">
-        <v>624.9374355788811</v>
+        <v>683.4028556751879</v>
       </c>
       <c r="AC7" t="n">
-        <v>565.2942838324317</v>
+        <v>618.1798462914793</v>
       </c>
       <c r="AD7" t="n">
-        <v>456744.1057236225</v>
+        <v>499474.3607817274</v>
       </c>
       <c r="AE7" t="n">
-        <v>624937.4355788812</v>
+        <v>683402.8556751879</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.93048284807332e-06</v>
+        <v>4.255556392803758e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.54166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>565294.2838324317</v>
+        <v>618179.8462914793</v>
       </c>
     </row>
     <row r="8">
@@ -57782,28 +57782,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>443.1632539854438</v>
+        <v>485.7229168429564</v>
       </c>
       <c r="AB8" t="n">
-        <v>606.3555150858118</v>
+        <v>664.5875234072716</v>
       </c>
       <c r="AC8" t="n">
-        <v>548.4857957513316</v>
+        <v>601.1602229277282</v>
       </c>
       <c r="AD8" t="n">
-        <v>443163.2539854437</v>
+        <v>485722.9168429563</v>
       </c>
       <c r="AE8" t="n">
-        <v>606355.5150858118</v>
+        <v>664587.5234072716</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.988754440832519e-06</v>
+        <v>4.340176594300007e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.33541666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>548485.7957513316</v>
+        <v>601160.2229277282</v>
       </c>
     </row>
     <row r="9">
@@ -57888,28 +57888,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>433.9831161226182</v>
+        <v>476.5427789801309</v>
       </c>
       <c r="AB9" t="n">
-        <v>593.7948454627948</v>
+        <v>652.0268537842545</v>
       </c>
       <c r="AC9" t="n">
-        <v>537.1238988081247</v>
+        <v>589.7983259845213</v>
       </c>
       <c r="AD9" t="n">
-        <v>433983.1161226182</v>
+        <v>476542.7789801309</v>
       </c>
       <c r="AE9" t="n">
-        <v>593794.8454627948</v>
+        <v>652026.8537842545</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.028343538203273e-06</v>
+        <v>4.397666654858529e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.2</v>
       </c>
       <c r="AH9" t="n">
-        <v>537123.8988081247</v>
+        <v>589798.3259845213</v>
       </c>
     </row>
     <row r="10">
@@ -57994,28 +57994,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>426.4237664240206</v>
+        <v>468.9834292815332</v>
       </c>
       <c r="AB10" t="n">
-        <v>583.4518097102018</v>
+        <v>641.6838180316614</v>
       </c>
       <c r="AC10" t="n">
-        <v>527.7679878712173</v>
+        <v>580.4424150476138</v>
       </c>
       <c r="AD10" t="n">
-        <v>426423.7664240206</v>
+        <v>468983.4292815332</v>
       </c>
       <c r="AE10" t="n">
-        <v>583451.8097102018</v>
+        <v>641683.8180316614</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.059184482971501e-06</v>
+        <v>4.442452919263668e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.09791666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>527767.9878712173</v>
+        <v>580442.4150476139</v>
       </c>
     </row>
     <row r="11">
@@ -58100,28 +58100,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>420.0438983014578</v>
+        <v>462.6035611589705</v>
       </c>
       <c r="AB11" t="n">
-        <v>574.7225926849942</v>
+        <v>632.9546010064539</v>
       </c>
       <c r="AC11" t="n">
-        <v>519.8718750673625</v>
+        <v>572.5463022437591</v>
       </c>
       <c r="AD11" t="n">
-        <v>420043.8983014578</v>
+        <v>462603.5611589705</v>
       </c>
       <c r="AE11" t="n">
-        <v>574722.5926849942</v>
+        <v>632954.6010064539</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.085873762097851e-06</v>
+        <v>4.481210263460423e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.01041666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>519871.8750673625</v>
+        <v>572546.3022437592</v>
       </c>
     </row>
     <row r="12">
@@ -58206,28 +58206,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>405.3757611755782</v>
+        <v>456.3789765106748</v>
       </c>
       <c r="AB12" t="n">
-        <v>554.6530003568265</v>
+        <v>624.437849681362</v>
       </c>
       <c r="AC12" t="n">
-        <v>501.7176964631454</v>
+        <v>564.8423777117985</v>
       </c>
       <c r="AD12" t="n">
-        <v>405375.7611755782</v>
+        <v>456378.9765106748</v>
       </c>
       <c r="AE12" t="n">
-        <v>554653.0003568265</v>
+        <v>624437.8496813619</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.107966554263553e-06</v>
+        <v>4.513292731712182e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.939583333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>501717.6964631454</v>
+        <v>564842.3777117984</v>
       </c>
     </row>
     <row r="13">
@@ -58312,28 +58312,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>401.4588609174718</v>
+        <v>444.103775121005</v>
       </c>
       <c r="AB13" t="n">
-        <v>549.2937246222418</v>
+        <v>607.6423775963508</v>
       </c>
       <c r="AC13" t="n">
-        <v>496.8699024828787</v>
+        <v>549.6498419099876</v>
       </c>
       <c r="AD13" t="n">
-        <v>401458.8609174718</v>
+        <v>444103.775121005</v>
       </c>
       <c r="AE13" t="n">
-        <v>549293.7246222418</v>
+        <v>607642.3775963509</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.122200836464274e-06</v>
+        <v>4.533963315283786e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9.893750000000001</v>
       </c>
       <c r="AH13" t="n">
-        <v>496869.9024828787</v>
+        <v>549649.8419099876</v>
       </c>
     </row>
     <row r="14">
@@ -58418,28 +58418,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>396.7956225524277</v>
+        <v>439.4405367559609</v>
       </c>
       <c r="AB14" t="n">
-        <v>542.9132761636314</v>
+        <v>601.2619291377403</v>
       </c>
       <c r="AC14" t="n">
-        <v>491.0983950701424</v>
+        <v>543.8783344972512</v>
       </c>
       <c r="AD14" t="n">
-        <v>396795.6225524277</v>
+        <v>439440.5367559609</v>
       </c>
       <c r="AE14" t="n">
-        <v>542913.2761636314</v>
+        <v>601261.9291377403</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.138362677713008e-06</v>
+        <v>4.557433040380709e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>9.84375</v>
       </c>
       <c r="AH14" t="n">
-        <v>491098.3950701424</v>
+        <v>543878.3344972512</v>
       </c>
     </row>
     <row r="15">
@@ -58524,28 +58524,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>392.484542873558</v>
+        <v>435.1294570770912</v>
       </c>
       <c r="AB15" t="n">
-        <v>537.0146667555895</v>
+        <v>595.3633197296983</v>
       </c>
       <c r="AC15" t="n">
-        <v>485.7627406652537</v>
+        <v>538.5426800923626</v>
       </c>
       <c r="AD15" t="n">
-        <v>392484.542873558</v>
+        <v>435129.4570770912</v>
       </c>
       <c r="AE15" t="n">
-        <v>537014.6667555894</v>
+        <v>595363.3197296984</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.148890115590624e-06</v>
+        <v>4.57272065948054e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>10</v>
+        <v>9.810416666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>485762.7406652537</v>
+        <v>538542.6800923626</v>
       </c>
     </row>
     <row r="16">
@@ -58630,28 +58630,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>389.6912616958759</v>
+        <v>432.3361758994092</v>
       </c>
       <c r="AB16" t="n">
-        <v>533.1927762174165</v>
+        <v>591.5414291915255</v>
       </c>
       <c r="AC16" t="n">
-        <v>482.3056059959869</v>
+        <v>535.0855454230958</v>
       </c>
       <c r="AD16" t="n">
-        <v>389691.261695876</v>
+        <v>432336.1758994092</v>
       </c>
       <c r="AE16" t="n">
-        <v>533192.7762174165</v>
+        <v>591541.4291915254</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.158824458376543e-06</v>
+        <v>4.587147004264889e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>9.779166666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>482305.6059959869</v>
+        <v>535085.5454230958</v>
       </c>
     </row>
     <row r="17">
@@ -58736,28 +58736,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>385.5385718334377</v>
+        <v>428.1834860369709</v>
       </c>
       <c r="AB17" t="n">
-        <v>527.5108827438816</v>
+        <v>585.8595357179906</v>
       </c>
       <c r="AC17" t="n">
-        <v>477.1659844609787</v>
+        <v>529.9459238880875</v>
       </c>
       <c r="AD17" t="n">
-        <v>385538.5718334377</v>
+        <v>428183.4860369709</v>
       </c>
       <c r="AE17" t="n">
-        <v>527510.8827438815</v>
+        <v>585859.5357179906</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.170834633983401e-06</v>
+        <v>4.604587809153429e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>10</v>
+        <v>9.741666666666665</v>
       </c>
       <c r="AH17" t="n">
-        <v>477165.9844609787</v>
+        <v>529945.9238880875</v>
       </c>
     </row>
     <row r="18">
@@ -58842,28 +58842,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>381.6946505192779</v>
+        <v>424.3395647228111</v>
       </c>
       <c r="AB18" t="n">
-        <v>522.2514600200082</v>
+        <v>580.6001129941174</v>
       </c>
       <c r="AC18" t="n">
-        <v>472.4085136602256</v>
+        <v>525.1884530873344</v>
       </c>
       <c r="AD18" t="n">
-        <v>381694.6505192779</v>
+        <v>424339.5647228111</v>
       </c>
       <c r="AE18" t="n">
-        <v>522251.4600200082</v>
+        <v>580600.1129941173</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.182399988271487e-06</v>
+        <v>4.621382658305356e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>10</v>
+        <v>9.706250000000001</v>
       </c>
       <c r="AH18" t="n">
-        <v>472408.5136602256</v>
+        <v>525188.4530873344</v>
       </c>
     </row>
     <row r="19">
@@ -58948,28 +58948,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>378.8099589468427</v>
+        <v>421.4548731503759</v>
       </c>
       <c r="AB19" t="n">
-        <v>518.3044977469921</v>
+        <v>576.6531507211009</v>
       </c>
       <c r="AC19" t="n">
-        <v>468.8382439269497</v>
+        <v>521.6181833540585</v>
       </c>
       <c r="AD19" t="n">
-        <v>378809.9589468427</v>
+        <v>421454.8731503759</v>
       </c>
       <c r="AE19" t="n">
-        <v>518304.4977469921</v>
+        <v>576653.150721101</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.187144749005061e-06</v>
+        <v>4.628272852829225e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>10</v>
+        <v>9.691666666666668</v>
       </c>
       <c r="AH19" t="n">
-        <v>468838.2439269497</v>
+        <v>521618.1833540585</v>
       </c>
     </row>
     <row r="20">
@@ -59054,28 +59054,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>375.8360734351233</v>
+        <v>418.4809876386565</v>
       </c>
       <c r="AB20" t="n">
-        <v>514.2354963912884</v>
+        <v>572.5841493653973</v>
       </c>
       <c r="AC20" t="n">
-        <v>465.157582349755</v>
+        <v>517.9375217768639</v>
       </c>
       <c r="AD20" t="n">
-        <v>375836.0734351233</v>
+        <v>418480.9876386565</v>
       </c>
       <c r="AE20" t="n">
-        <v>514235.4963912884</v>
+        <v>572584.1493653973</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.192927426149103e-06</v>
+        <v>4.636670277405187e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>10</v>
+        <v>9.674999999999999</v>
       </c>
       <c r="AH20" t="n">
-        <v>465157.582349755</v>
+        <v>517937.521776864</v>
       </c>
     </row>
     <row r="21">
@@ -59160,28 +59160,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>372.3036856295284</v>
+        <v>414.9485998330616</v>
       </c>
       <c r="AB21" t="n">
-        <v>509.4023275577218</v>
+        <v>567.7509805318309</v>
       </c>
       <c r="AC21" t="n">
-        <v>460.7856843662691</v>
+        <v>513.565623793378</v>
       </c>
       <c r="AD21" t="n">
-        <v>372303.6856295284</v>
+        <v>414948.5998330616</v>
       </c>
       <c r="AE21" t="n">
-        <v>509402.3275577218</v>
+        <v>567750.9805318309</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.197227365563904e-06</v>
+        <v>4.642914516192442e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>10</v>
+        <v>9.660416666666666</v>
       </c>
       <c r="AH21" t="n">
-        <v>460785.6843662691</v>
+        <v>513565.623793378</v>
       </c>
     </row>
     <row r="22">
@@ -59266,28 +59266,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>369.0957176178948</v>
+        <v>411.740631821428</v>
       </c>
       <c r="AB22" t="n">
-        <v>505.0130441986445</v>
+        <v>563.3616971727536</v>
       </c>
       <c r="AC22" t="n">
-        <v>456.8153080505842</v>
+        <v>509.5952474776931</v>
       </c>
       <c r="AD22" t="n">
-        <v>369095.7176178948</v>
+        <v>411740.631821428</v>
       </c>
       <c r="AE22" t="n">
-        <v>505013.0441986445</v>
+        <v>563361.6971727535</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.205085875528885e-06</v>
+        <v>4.654326400872599e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>10</v>
+        <v>9.637499999999999</v>
       </c>
       <c r="AH22" t="n">
-        <v>456815.3080505842</v>
+        <v>509595.2474776931</v>
       </c>
     </row>
     <row r="23">
@@ -59372,28 +59372,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>365.9959036971582</v>
+        <v>408.6408179006914</v>
       </c>
       <c r="AB23" t="n">
-        <v>500.7717420381541</v>
+        <v>559.1203950122632</v>
       </c>
       <c r="AC23" t="n">
-        <v>452.9787898155861</v>
+        <v>505.758729242695</v>
       </c>
       <c r="AD23" t="n">
-        <v>365995.9036971582</v>
+        <v>408640.8179006914</v>
       </c>
       <c r="AE23" t="n">
-        <v>500771.7420381541</v>
+        <v>559120.3950122632</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.210720278900004e-06</v>
+        <v>4.662508506869691e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>10</v>
+        <v>9.620833333333334</v>
       </c>
       <c r="AH23" t="n">
-        <v>452978.7898155861</v>
+        <v>505758.729242695</v>
       </c>
     </row>
     <row r="24">
@@ -59478,28 +59478,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>365.1858383436182</v>
+        <v>407.8307525471513</v>
       </c>
       <c r="AB24" t="n">
-        <v>499.6633748838795</v>
+        <v>558.0120278579885</v>
       </c>
       <c r="AC24" t="n">
-        <v>451.9762036669123</v>
+        <v>504.7561430940212</v>
       </c>
       <c r="AD24" t="n">
-        <v>365185.8383436182</v>
+        <v>407830.7525471514</v>
       </c>
       <c r="AE24" t="n">
-        <v>499663.3748838795</v>
+        <v>558012.0278579885</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.216354682271122e-06</v>
+        <v>4.670690612866784e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>10</v>
+        <v>9.604166666666666</v>
       </c>
       <c r="AH24" t="n">
-        <v>451976.2036669123</v>
+        <v>504756.1430940212</v>
       </c>
     </row>
     <row r="25">
@@ -59584,28 +59584,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>365.0187729959152</v>
+        <v>407.6636871994484</v>
       </c>
       <c r="AB25" t="n">
-        <v>499.4347887047493</v>
+        <v>557.7834416788583</v>
       </c>
       <c r="AC25" t="n">
-        <v>451.7694334318956</v>
+        <v>504.5493728590046</v>
       </c>
       <c r="AD25" t="n">
-        <v>365018.7729959152</v>
+        <v>407663.6871994484</v>
       </c>
       <c r="AE25" t="n">
-        <v>499434.7887047493</v>
+        <v>557783.4416788582</v>
       </c>
       <c r="AF25" t="n">
-        <v>3.215465039633577e-06</v>
+        <v>4.669398701393559e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>10</v>
+        <v>9.606250000000001</v>
       </c>
       <c r="AH25" t="n">
-        <v>451769.4334318956</v>
+        <v>504549.3728590045</v>
       </c>
     </row>
     <row r="26">
@@ -59690,28 +59690,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>365.7041060831668</v>
+        <v>408.3490202867001</v>
       </c>
       <c r="AB26" t="n">
-        <v>500.372491669489</v>
+        <v>558.721144643598</v>
       </c>
       <c r="AC26" t="n">
-        <v>452.617643341755</v>
+        <v>505.3975827688637</v>
       </c>
       <c r="AD26" t="n">
-        <v>365704.1060831668</v>
+        <v>408349.0202867001</v>
       </c>
       <c r="AE26" t="n">
-        <v>500372.491669489</v>
+        <v>558721.144643598</v>
       </c>
       <c r="AF26" t="n">
-        <v>3.214575396996032e-06</v>
+        <v>4.668106789920334e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>10</v>
+        <v>9.610416666666667</v>
       </c>
       <c r="AH26" t="n">
-        <v>452617.643341755</v>
+        <v>505397.5827688638</v>
       </c>
     </row>
   </sheetData>
@@ -59987,28 +59987,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>190.3903418128024</v>
+        <v>232.9989847797969</v>
       </c>
       <c r="AB2" t="n">
-        <v>260.5004650972356</v>
+        <v>318.7994901653091</v>
       </c>
       <c r="AC2" t="n">
-        <v>235.6386663231306</v>
+        <v>288.3737142619212</v>
       </c>
       <c r="AD2" t="n">
-        <v>190390.3418128024</v>
+        <v>232998.9847797969</v>
       </c>
       <c r="AE2" t="n">
-        <v>260500.4650972357</v>
+        <v>318799.4901653091</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.697482036065085e-06</v>
+        <v>6.16348226168372e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.73541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>235638.6663231306</v>
+        <v>288373.7142619212</v>
       </c>
     </row>
     <row r="3">
@@ -60093,28 +60093,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>192.8054210175006</v>
+        <v>235.4140639844951</v>
       </c>
       <c r="AB3" t="n">
-        <v>263.8048830108769</v>
+        <v>322.1039080789504</v>
       </c>
       <c r="AC3" t="n">
-        <v>238.6277152288746</v>
+        <v>291.3627631676652</v>
       </c>
       <c r="AD3" t="n">
-        <v>192805.4210175006</v>
+        <v>235414.0639844951</v>
       </c>
       <c r="AE3" t="n">
-        <v>263804.8830108769</v>
+        <v>322103.9080789504</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.697291512953009e-06</v>
+        <v>6.163164671007074e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.73541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>238627.7152288746</v>
+        <v>291362.7631676652</v>
       </c>
     </row>
   </sheetData>
@@ -60390,28 +60390,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>619.0877678184584</v>
+        <v>682.5427547704136</v>
       </c>
       <c r="AB2" t="n">
-        <v>847.0631961539315</v>
+        <v>933.8851087380468</v>
       </c>
       <c r="AC2" t="n">
-        <v>766.2206735736621</v>
+        <v>844.7564246760691</v>
       </c>
       <c r="AD2" t="n">
-        <v>619087.7678184584</v>
+        <v>682542.7547704136</v>
       </c>
       <c r="AE2" t="n">
-        <v>847063.1961539314</v>
+        <v>933885.1087380468</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.271499448231081e-06</v>
+        <v>3.457010051500395e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.97708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>766220.6735736621</v>
+        <v>844756.4246760691</v>
       </c>
     </row>
     <row r="3">
@@ -60496,28 +60496,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>398.6256335711078</v>
+        <v>446.1102872254108</v>
       </c>
       <c r="AB3" t="n">
-        <v>545.4171779737775</v>
+        <v>610.3877759786652</v>
       </c>
       <c r="AC3" t="n">
-        <v>493.3633280057766</v>
+        <v>552.1332233238847</v>
       </c>
       <c r="AD3" t="n">
-        <v>398625.6335711078</v>
+        <v>446110.2872254108</v>
       </c>
       <c r="AE3" t="n">
-        <v>545417.1779737775</v>
+        <v>610387.7759786652</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.975811246952912e-06</v>
+        <v>4.528906841731969e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.43333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>493363.3280057766</v>
+        <v>552133.2233238848</v>
       </c>
     </row>
     <row r="4">
@@ -60602,28 +60602,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>348.5687905025184</v>
+        <v>396.138695502842</v>
       </c>
       <c r="AB4" t="n">
-        <v>476.9271969352751</v>
+        <v>542.0144395928122</v>
       </c>
       <c r="AC4" t="n">
-        <v>431.4099346312966</v>
+        <v>490.2853422001172</v>
       </c>
       <c r="AD4" t="n">
-        <v>348568.7905025184</v>
+        <v>396138.695502842</v>
       </c>
       <c r="AE4" t="n">
-        <v>476927.1969352751</v>
+        <v>542014.4395928122</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.211452778498379e-06</v>
+        <v>4.887531248943692e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.59375</v>
       </c>
       <c r="AH4" t="n">
-        <v>431409.9346312966</v>
+        <v>490285.3422001172</v>
       </c>
     </row>
     <row r="5">
@@ -60708,28 +60708,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>327.3370687462047</v>
+        <v>366.9645222792635</v>
       </c>
       <c r="AB5" t="n">
-        <v>447.8770185508303</v>
+        <v>502.0970487146265</v>
       </c>
       <c r="AC5" t="n">
-        <v>405.1322644996817</v>
+        <v>454.1776110829356</v>
       </c>
       <c r="AD5" t="n">
-        <v>327337.0687462047</v>
+        <v>366964.5222792635</v>
       </c>
       <c r="AE5" t="n">
-        <v>447877.0185508303</v>
+        <v>502097.0487146265</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.335233984951231e-06</v>
+        <v>5.075914686689005e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.2</v>
       </c>
       <c r="AH5" t="n">
-        <v>405132.2644996817</v>
+        <v>454177.6110829356</v>
       </c>
     </row>
     <row r="6">
@@ -60814,28 +60814,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>306.0482019808164</v>
+        <v>353.5327661265684</v>
       </c>
       <c r="AB6" t="n">
-        <v>418.7486518439096</v>
+        <v>483.719127379249</v>
       </c>
       <c r="AC6" t="n">
-        <v>378.7838682293501</v>
+        <v>437.5536527662318</v>
       </c>
       <c r="AD6" t="n">
-        <v>306048.2019808164</v>
+        <v>353532.7661265684</v>
       </c>
       <c r="AE6" t="n">
-        <v>418748.6518439096</v>
+        <v>483719.127379249</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.407249172346623e-06</v>
+        <v>5.185515077250592e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.985416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>378783.8682293501</v>
+        <v>437553.6527662319</v>
       </c>
     </row>
     <row r="7">
@@ -60920,28 +60920,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>294.9009168953062</v>
+        <v>334.6136217743856</v>
       </c>
       <c r="AB7" t="n">
-        <v>403.496444606405</v>
+        <v>457.8331194228505</v>
       </c>
       <c r="AC7" t="n">
-        <v>364.9873102439857</v>
+        <v>414.1381690779519</v>
       </c>
       <c r="AD7" t="n">
-        <v>294900.9168953063</v>
+        <v>334613.6217743856</v>
       </c>
       <c r="AE7" t="n">
-        <v>403496.444606405</v>
+        <v>457833.1194228505</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.462771085531278e-06</v>
+        <v>5.270014244576985e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.824999999999999</v>
       </c>
       <c r="AH7" t="n">
-        <v>364987.3102439857</v>
+        <v>414138.1690779519</v>
       </c>
     </row>
     <row r="8">
@@ -61026,28 +61026,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>286.7051487005534</v>
+        <v>326.4178535796327</v>
       </c>
       <c r="AB8" t="n">
-        <v>392.2826329905697</v>
+        <v>446.6193078070153</v>
       </c>
       <c r="AC8" t="n">
-        <v>354.8437290700822</v>
+        <v>403.9945879040484</v>
       </c>
       <c r="AD8" t="n">
-        <v>286705.1487005533</v>
+        <v>326417.8535796326</v>
       </c>
       <c r="AE8" t="n">
-        <v>392282.6329905697</v>
+        <v>446619.3078070153</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.496737432420716e-06</v>
+        <v>5.321707852823721e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.729166666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>354843.7290700822</v>
+        <v>403994.5879040484</v>
       </c>
     </row>
     <row r="9">
@@ -61132,28 +61132,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>281.478615217231</v>
+        <v>321.1913200963103</v>
       </c>
       <c r="AB9" t="n">
-        <v>385.1314593003042</v>
+        <v>439.4681341167498</v>
       </c>
       <c r="AC9" t="n">
-        <v>348.3750533600804</v>
+        <v>397.5259121940466</v>
       </c>
       <c r="AD9" t="n">
-        <v>281478.615217231</v>
+        <v>321191.3200963103</v>
       </c>
       <c r="AE9" t="n">
-        <v>385131.4593003042</v>
+        <v>439468.1341167497</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.516006802290684e-06</v>
+        <v>5.351034034425233e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.677083333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>348375.0533600804</v>
+        <v>397525.9121940465</v>
       </c>
     </row>
     <row r="10">
@@ -61238,28 +61238,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>280.7953975507571</v>
+        <v>320.5081024298365</v>
       </c>
       <c r="AB10" t="n">
-        <v>384.1966507475985</v>
+        <v>438.533325564044</v>
       </c>
       <c r="AC10" t="n">
-        <v>347.5294616236329</v>
+        <v>396.680320457599</v>
       </c>
       <c r="AD10" t="n">
-        <v>280795.3975507571</v>
+        <v>320508.1024298365</v>
       </c>
       <c r="AE10" t="n">
-        <v>384196.6507475985</v>
+        <v>438533.3255640441</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.51943609692856e-06</v>
+        <v>5.356253100642451e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>347529.4616236329</v>
+        <v>396680.320457599</v>
       </c>
     </row>
     <row r="11">
@@ -61344,28 +61344,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>282.2024747932866</v>
+        <v>321.915179672366</v>
       </c>
       <c r="AB11" t="n">
-        <v>386.1218759066942</v>
+        <v>440.4585507231398</v>
       </c>
       <c r="AC11" t="n">
-        <v>349.270945995615</v>
+        <v>398.4218048295812</v>
       </c>
       <c r="AD11" t="n">
-        <v>282202.4747932866</v>
+        <v>321915.179672366</v>
       </c>
       <c r="AE11" t="n">
-        <v>386121.8759066942</v>
+        <v>440458.5507231398</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.5192727971839e-06</v>
+        <v>5.356004573679727e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>349270.945995615</v>
+        <v>398421.8048295812</v>
       </c>
     </row>
   </sheetData>
@@ -61641,28 +61641,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>877.733544259534</v>
+        <v>951.0589424362225</v>
       </c>
       <c r="AB2" t="n">
-        <v>1200.953758126945</v>
+        <v>1301.28080280055</v>
       </c>
       <c r="AC2" t="n">
-        <v>1086.336417000494</v>
+        <v>1177.088389340342</v>
       </c>
       <c r="AD2" t="n">
-        <v>877733.544259534</v>
+        <v>951058.9424362226</v>
       </c>
       <c r="AE2" t="n">
-        <v>1200953.758126945</v>
+        <v>1301280.80280055</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.895947957174059e-06</v>
+        <v>2.83048098057309e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.275</v>
       </c>
       <c r="AH2" t="n">
-        <v>1086336.417000494</v>
+        <v>1177088.389340342</v>
       </c>
     </row>
     <row r="3">
@@ -61747,28 +61747,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>494.5158095507138</v>
+        <v>543.4278851228803</v>
       </c>
       <c r="AB3" t="n">
-        <v>676.6183471250738</v>
+        <v>743.5420067713929</v>
       </c>
       <c r="AC3" t="n">
-        <v>612.0428417152706</v>
+        <v>672.5794012128912</v>
       </c>
       <c r="AD3" t="n">
-        <v>494515.8095507138</v>
+        <v>543427.8851228803</v>
       </c>
       <c r="AE3" t="n">
-        <v>676618.3471250738</v>
+        <v>743542.006771393</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.691494574911909e-06</v>
+        <v>4.018161033786443e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.16875</v>
       </c>
       <c r="AH3" t="n">
-        <v>612042.8417152705</v>
+        <v>672579.4012128912</v>
       </c>
     </row>
     <row r="4">
@@ -61853,28 +61853,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>422.9375740204075</v>
+        <v>463.7687692941145</v>
       </c>
       <c r="AB4" t="n">
-        <v>578.6818474636242</v>
+        <v>634.5488901823128</v>
       </c>
       <c r="AC4" t="n">
-        <v>523.453264126769</v>
+        <v>573.9884346982731</v>
       </c>
       <c r="AD4" t="n">
-        <v>422937.5740204075</v>
+        <v>463768.7692941145</v>
       </c>
       <c r="AE4" t="n">
-        <v>578681.8474636242</v>
+        <v>634548.8901823128</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.96679143808562e-06</v>
+        <v>4.429154664849009e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.04166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>523453.264126769</v>
+        <v>573988.4346982731</v>
       </c>
     </row>
     <row r="5">
@@ -61959,28 +61959,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>385.7983675793691</v>
+        <v>426.7148141990966</v>
       </c>
       <c r="AB5" t="n">
-        <v>527.8663467448443</v>
+        <v>583.8500341161823</v>
       </c>
       <c r="AC5" t="n">
-        <v>477.4875234765864</v>
+        <v>528.1282062988026</v>
       </c>
       <c r="AD5" t="n">
-        <v>385798.3675793691</v>
+        <v>426714.8141990966</v>
       </c>
       <c r="AE5" t="n">
-        <v>527866.3467448443</v>
+        <v>583850.0341161824</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.113008504191589e-06</v>
+        <v>4.647443686487036e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.52083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>477487.5234765864</v>
+        <v>528128.2062988026</v>
       </c>
     </row>
     <row r="6">
@@ -62065,28 +62065,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>368.9690843818951</v>
+        <v>409.7149388010304</v>
       </c>
       <c r="AB6" t="n">
-        <v>504.8397790184856</v>
+        <v>560.5900546149768</v>
       </c>
       <c r="AC6" t="n">
-        <v>456.6585790560405</v>
+        <v>507.0881265956057</v>
       </c>
       <c r="AD6" t="n">
-        <v>368969.0843818951</v>
+        <v>409714.9388010305</v>
       </c>
       <c r="AE6" t="n">
-        <v>504839.7790184856</v>
+        <v>560590.0546149767</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.199166517337902e-06</v>
+        <v>4.776069905688799e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.23958333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>456658.5790560406</v>
+        <v>507088.1265956057</v>
       </c>
     </row>
     <row r="7">
@@ -62171,28 +62171,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>357.9613344497552</v>
+        <v>398.7071888688906</v>
       </c>
       <c r="AB7" t="n">
-        <v>489.7784899336789</v>
+        <v>545.5287655301699</v>
       </c>
       <c r="AC7" t="n">
-        <v>443.0347182628356</v>
+        <v>493.4642658024009</v>
       </c>
       <c r="AD7" t="n">
-        <v>357961.3344497552</v>
+        <v>398707.1888688906</v>
       </c>
       <c r="AE7" t="n">
-        <v>489778.4899336789</v>
+        <v>545528.7655301699</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.253880000138844e-06</v>
+        <v>4.85775224926948e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.06666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>443034.7182628356</v>
+        <v>493464.2658024009</v>
       </c>
     </row>
     <row r="8">
@@ -62277,28 +62277,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>340.0816540381284</v>
+        <v>388.9082992471723</v>
       </c>
       <c r="AB8" t="n">
-        <v>465.3147223986617</v>
+        <v>532.1214924532349</v>
       </c>
       <c r="AC8" t="n">
-        <v>420.9057383662472</v>
+        <v>481.3365640507026</v>
       </c>
       <c r="AD8" t="n">
-        <v>340081.6540381284</v>
+        <v>388908.2992471723</v>
       </c>
       <c r="AE8" t="n">
-        <v>465314.7223986617</v>
+        <v>532121.4924532349</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.299631791791357e-06</v>
+        <v>4.926055588298153e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.927083333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>420905.7383662472</v>
+        <v>481336.5640507026</v>
       </c>
     </row>
     <row r="9">
@@ -62383,28 +62383,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>333.2610785277204</v>
+        <v>374.0921842928763</v>
       </c>
       <c r="AB9" t="n">
-        <v>455.9825100827665</v>
+        <v>511.8494303319069</v>
       </c>
       <c r="AC9" t="n">
-        <v>412.4641792959388</v>
+        <v>462.9992390862163</v>
       </c>
       <c r="AD9" t="n">
-        <v>333261.0785277204</v>
+        <v>374092.1842928763</v>
       </c>
       <c r="AE9" t="n">
-        <v>455982.5100827665</v>
+        <v>511849.4303319069</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.328560759709097e-06</v>
+        <v>4.969243953869548e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.839583333333332</v>
       </c>
       <c r="AH9" t="n">
-        <v>412464.1792959388</v>
+        <v>462999.2390862163</v>
       </c>
     </row>
     <row r="10">
@@ -62489,28 +62489,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>326.0214077916338</v>
+        <v>366.8525135567898</v>
       </c>
       <c r="AB10" t="n">
-        <v>446.0768731899215</v>
+        <v>501.9437934390618</v>
       </c>
       <c r="AC10" t="n">
-        <v>403.5039224854983</v>
+        <v>454.0389822757757</v>
       </c>
       <c r="AD10" t="n">
-        <v>326021.4077916338</v>
+        <v>366852.5135567898</v>
       </c>
       <c r="AE10" t="n">
-        <v>446076.8731899215</v>
+        <v>501943.7934390618</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.355288610502661e-06</v>
+        <v>5.009146248147467e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.762500000000001</v>
       </c>
       <c r="AH10" t="n">
-        <v>403503.9224854983</v>
+        <v>454038.9822757757</v>
       </c>
     </row>
     <row r="11">
@@ -62595,28 +62595,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>319.8622043693267</v>
+        <v>360.6933101344825</v>
       </c>
       <c r="AB11" t="n">
-        <v>437.6495793426433</v>
+        <v>493.5164995917836</v>
       </c>
       <c r="AC11" t="n">
-        <v>395.8809177352231</v>
+        <v>446.4159775255005</v>
       </c>
       <c r="AD11" t="n">
-        <v>319862.2043693266</v>
+        <v>360693.3101344826</v>
       </c>
       <c r="AE11" t="n">
-        <v>437649.5793426433</v>
+        <v>493516.4995917836</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.374941441968517e-06</v>
+        <v>5.038486170410642e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.704166666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>395880.9177352231</v>
+        <v>446415.9775255005</v>
       </c>
     </row>
     <row r="12">
@@ -62701,28 +62701,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>314.3681635457079</v>
+        <v>355.1992693108639</v>
       </c>
       <c r="AB12" t="n">
-        <v>430.1323903077933</v>
+        <v>485.9993105569337</v>
       </c>
       <c r="AC12" t="n">
-        <v>389.0811586714182</v>
+        <v>439.6162184616956</v>
       </c>
       <c r="AD12" t="n">
-        <v>314368.1635457079</v>
+        <v>355199.2693108639</v>
       </c>
       <c r="AE12" t="n">
-        <v>430132.3903077933</v>
+        <v>485999.3105569337</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.389877593882568e-06</v>
+        <v>5.060784511330656e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.6625</v>
       </c>
       <c r="AH12" t="n">
-        <v>389081.1586714181</v>
+        <v>439616.2184616956</v>
       </c>
     </row>
     <row r="13">
@@ -62807,28 +62807,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>310.288475848606</v>
+        <v>351.1195816137619</v>
       </c>
       <c r="AB13" t="n">
-        <v>424.5503816174997</v>
+        <v>480.4173018666401</v>
       </c>
       <c r="AC13" t="n">
-        <v>384.0318890561277</v>
+        <v>434.5669488464052</v>
       </c>
       <c r="AD13" t="n">
-        <v>310288.475848606</v>
+        <v>351119.5816137619</v>
       </c>
       <c r="AE13" t="n">
-        <v>424550.3816174997</v>
+        <v>480417.3018666401</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.399310952986179e-06</v>
+        <v>5.074867674016981e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9.635416666666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>384031.8890561278</v>
+        <v>434566.9488464052</v>
       </c>
     </row>
     <row r="14">
@@ -62913,28 +62913,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>309.257924071095</v>
+        <v>350.0890298362509</v>
       </c>
       <c r="AB14" t="n">
-        <v>423.1403352107734</v>
+        <v>479.0072554599139</v>
       </c>
       <c r="AC14" t="n">
-        <v>382.7564154994469</v>
+        <v>433.2914752897244</v>
       </c>
       <c r="AD14" t="n">
-        <v>309257.924071095</v>
+        <v>350089.0298362509</v>
       </c>
       <c r="AE14" t="n">
-        <v>423140.3352107734</v>
+        <v>479007.2554599139</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.404813745796618e-06</v>
+        <v>5.08308285225067e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>9.620833333333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>382756.4154994469</v>
+        <v>433291.4752897244</v>
       </c>
     </row>
     <row r="15">
@@ -63019,28 +63019,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>310.3405534076056</v>
+        <v>351.1716591727615</v>
       </c>
       <c r="AB15" t="n">
-        <v>424.6216364312227</v>
+        <v>480.4885566803633</v>
       </c>
       <c r="AC15" t="n">
-        <v>384.0963434104359</v>
+        <v>434.6314032007134</v>
       </c>
       <c r="AD15" t="n">
-        <v>310340.5534076056</v>
+        <v>351171.6591727615</v>
       </c>
       <c r="AE15" t="n">
-        <v>424621.6364312227</v>
+        <v>480488.5566803633</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.403555964582804e-06</v>
+        <v>5.081205097225827e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>10</v>
+        <v>9.622916666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>384096.3434104359</v>
+        <v>434631.4032007133</v>
       </c>
     </row>
   </sheetData>
